--- a/2023/germany_2-bundesliga_2023-2024.xlsx
+++ b/2023/germany_2-bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V73"/>
+  <dimension ref="A1:V75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,22 +665,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>1.98</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1.96</v>
+        <v>3.27</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>29/07/2023 12:58</t>
+          <t>29/07/2023 12:59</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.78</v>
+        <v>3.57</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>4.09</v>
+        <v>3.12</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>29/07/2023 12:58</t>
+          <t>29/07/2023 12:57</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>3.7</v>
+        <v>2.33</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>3.65</v>
+        <v>2.5</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>29/07/2023 12:58</t>
+          <t>29/07/2023 12:59</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-elversberg/pWdGDApl/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-st-pauli/j9cCEjVs/</t>
         </is>
       </c>
     </row>
@@ -757,22 +757,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="I4" t="n">
         <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>1.98</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,15 +780,15 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>3.27</v>
+        <v>1.96</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>29/07/2023 12:59</t>
+          <t>29/07/2023 12:58</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.57</v>
+        <v>3.78</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -796,15 +796,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.12</v>
+        <v>4.09</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>29/07/2023 12:57</t>
+          <t>29/07/2023 12:58</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.33</v>
+        <v>3.7</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>2.5</v>
+        <v>3.65</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>29/07/2023 12:59</t>
+          <t>29/07/2023 12:58</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-st-pauli/j9cCEjVs/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-elversberg/pWdGDApl/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>2.64</v>
+        <v>2.36</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>19/08/2023 12:53</t>
+          <t>19/08/2023 12:59</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.49</v>
+        <v>3.59</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2456,11 +2456,11 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>19/08/2023 12:53</t>
+          <t>19/08/2023 12:59</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.73</v>
+        <v>2.96</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.84</v>
+        <v>2.91</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>19/08/2023 12:53</t>
+          <t>19/08/2023 12:59</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-st-pauli/GfutD25c/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-hannover/YVZpCMK3/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2.1</v>
+        <v>2.64</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.05</v>
+        <v>2.56</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>19/08/2023 12:25</t>
+          <t>19/08/2023 12:53</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.83</v>
+        <v>3.49</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.93</v>
+        <v>3.5</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>19/08/2023 12:25</t>
+          <t>19/08/2023 12:53</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>3.38</v>
+        <v>2.73</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.49</v>
+        <v>2.84</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>19/08/2023 12:25</t>
+          <t>19/08/2023 12:53</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-paderborn/CQljjubp/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-st-pauli/GfutD25c/</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2605,14 +2605,14 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>2.36</v>
+        <v>2.1</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.52</v>
+        <v>2.05</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>19/08/2023 12:59</t>
+          <t>19/08/2023 12:25</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.59</v>
+        <v>3.83</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.5</v>
+        <v>3.93</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>19/08/2023 12:59</t>
+          <t>19/08/2023 12:25</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.96</v>
+        <v>3.38</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.91</v>
+        <v>3.49</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>19/08/2023 12:59</t>
+          <t>19/08/2023 12:25</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-hannover/YVZpCMK3/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-paderborn/CQljjubp/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>3.38</v>
+        <v>2.01</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,48 +3908,48 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>4.36</v>
+        <v>2.38</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
+          <t>01/09/2023 18:26</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>4</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>27/08/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
           <t>01/09/2023 18:28</t>
         </is>
       </c>
-      <c r="N38" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="O38" t="inlineStr">
+      <c r="R38" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="S38" t="inlineStr">
         <is>
           <t>27/08/2023 12:42</t>
         </is>
       </c>
-      <c r="P38" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>01/09/2023 18:06</t>
-        </is>
-      </c>
-      <c r="R38" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>27/08/2023 12:42</t>
-        </is>
-      </c>
       <c r="T38" t="n">
-        <v>1.86</v>
+        <v>2.93</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>01/09/2023 18:06</t>
+          <t>01/09/2023 18:28</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-st-pauli/ER86PWfK/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-karlsruher/SK984VIf/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>2.01</v>
+        <v>3.38</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.38</v>
+        <v>4.36</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>01/09/2023 18:26</t>
+          <t>01/09/2023 18:28</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>4</v>
+        <v>3.67</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.75</v>
+        <v>3.81</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>01/09/2023 18:28</t>
+          <t>01/09/2023 18:06</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.49</v>
+        <v>2.16</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>2.93</v>
+        <v>1.86</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>01/09/2023 18:28</t>
+          <t>01/09/2023 18:06</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-karlsruher/SK984VIf/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-st-pauli/ER86PWfK/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Hansa Rostock</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Elversberg</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
       <c r="J45" t="n">
-        <v>2.35</v>
+        <v>1.43</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>27/08/2023 17:12</t>
+          <t>27/08/2023 12:42</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.32</v>
+        <v>1.47</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>03/09/2023 13:02</t>
+          <t>03/09/2023 13:28</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.78</v>
+        <v>5.19</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>27/08/2023 17:12</t>
+          <t>27/08/2023 12:42</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>4.01</v>
+        <v>4.91</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>03/09/2023 13:04</t>
+          <t>03/09/2023 13:28</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.93</v>
+        <v>7.01</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>27/08/2023 17:12</t>
+          <t>27/08/2023 12:42</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.88</v>
+        <v>6.7</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>03/09/2023 13:04</t>
+          <t>03/09/2023 13:28</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-elversberg/djbBOjAQ/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-hansa-rostock/YcA45B3l/</t>
         </is>
       </c>
     </row>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>1.43</v>
+        <v>2.35</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>27/08/2023 12:42</t>
+          <t>27/08/2023 17:12</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.47</v>
+        <v>2.32</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>03/09/2023 13:28</t>
+          <t>03/09/2023 13:02</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>5.19</v>
+        <v>3.78</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>27/08/2023 12:42</t>
+          <t>27/08/2023 17:12</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>4.91</v>
+        <v>4.01</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>03/09/2023 13:28</t>
+          <t>03/09/2023 13:04</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>7.01</v>
+        <v>2.93</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>27/08/2023 12:42</t>
+          <t>27/08/2023 17:12</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>6.7</v>
+        <v>2.88</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>03/09/2023 13:28</t>
+          <t>03/09/2023 13:04</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-hansa-rostock/YcA45B3l/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-elversberg/djbBOjAQ/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J49" t="n">
-        <v>3.89</v>
+        <v>3.01</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>3.78</v>
+        <v>3.37</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>4.26</v>
+        <v>3.39</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>4.17</v>
+        <v>3.45</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         </is>
       </c>
       <c r="R49" t="n">
-        <v>1.85</v>
+        <v>2.43</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>1.9</v>
+        <v>2.26</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-hamburger/6ux9XTns/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-dusseldorf/zcowwjPJ/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="G50" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
         <v>1</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Dusseldorf</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
       <c r="J50" t="n">
-        <v>3.01</v>
+        <v>3.89</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>3.37</v>
+        <v>3.78</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.39</v>
+        <v>4.26</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.45</v>
+        <v>4.17</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="R50" t="n">
-        <v>2.43</v>
+        <v>1.85</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>2.26</v>
+        <v>1.9</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-dusseldorf/zcowwjPJ/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-hamburger/6ux9XTns/</t>
         </is>
       </c>
     </row>
@@ -5265,22 +5265,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>1.65</v>
+        <v>1.79</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>17/09/2023 13:29</t>
+          <t>17/09/2023 13:28</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>4.28</v>
+        <v>3.99</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.7</v>
+        <v>4.06</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>17/09/2023 13:29</t>
+          <t>17/09/2023 13:28</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>4.96</v>
+        <v>4.3</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>4.12</v>
+        <v>4.19</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>17/09/2023 13:28</t>
+          <t>17/09/2023 13:27</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-holstein-kiel/ny5rH820/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-vfl-osnabruck/Yi7fE6nJ/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>1.79</v>
+        <v>1.65</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,48 +5472,48 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
+          <t>17/09/2023 13:29</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>04/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>17/09/2023 13:29</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>04/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T55" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
           <t>17/09/2023 13:28</t>
         </is>
       </c>
-      <c r="N55" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>04/09/2023 08:42</t>
-        </is>
-      </c>
-      <c r="P55" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>17/09/2023 13:28</t>
-        </is>
-      </c>
-      <c r="R55" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>04/09/2023 08:42</t>
-        </is>
-      </c>
-      <c r="T55" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="U55" t="inlineStr">
-        <is>
-          <t>17/09/2023 13:27</t>
-        </is>
-      </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-vfl-osnabruck/Yi7fE6nJ/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-holstein-kiel/ny5rH820/</t>
         </is>
       </c>
     </row>
@@ -5541,30 +5541,30 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>2.1</v>
+        <v>4.21</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>16/09/2023 19:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2.17</v>
+        <v>4.94</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5572,31 +5572,31 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.95</v>
+        <v>4.28</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>16/09/2023 19:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>4</v>
+        <v>4.72</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>22/09/2023 18:26</t>
+          <t>22/09/2023 18:29</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>3.23</v>
+        <v>1.75</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>16/09/2023 19:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="T56" t="n">
-        <v>3.14</v>
+        <v>1.62</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-paderborn/CrSTS51C/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-hamburger/MD9KkT8P/</t>
         </is>
       </c>
     </row>
@@ -5633,30 +5633,30 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>4.21</v>
+        <v>2.1</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>16/09/2023 19:43</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>4.94</v>
+        <v>2.17</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
@@ -5664,40 +5664,40 @@
         </is>
       </c>
       <c r="N57" t="n">
-        <v>4.28</v>
+        <v>3.95</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>16/09/2023 19:43</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>4.72</v>
+        <v>4</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
+          <t>22/09/2023 18:26</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>16/09/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
           <t>22/09/2023 18:29</t>
         </is>
       </c>
-      <c r="R57" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>17/09/2023 16:13</t>
-        </is>
-      </c>
-      <c r="T57" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>22/09/2023 18:29</t>
-        </is>
-      </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-hamburger/MD9KkT8P/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-paderborn/CrSTS51C/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J58" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>16/09/2023 12:13</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.69</v>
+        <v>2.4</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>23/09/2023 12:52</t>
+          <t>23/09/2023 12:51</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.55</v>
+        <v>3.72</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>16/09/2023 12:13</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.59</v>
+        <v>3.74</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>23/09/2023 12:56</t>
+          <t>23/09/2023 12:51</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.06</v>
+        <v>3.08</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>16/09/2023 12:13</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>2.65</v>
+        <v>2.91</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>23/09/2023 12:52</t>
+          <t>23/09/2023 12:51</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-nurnberg/8ALxRqWO/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-karlsruher/UJMYRPGI/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>16/09/2023 12:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.4</v>
+        <v>2.69</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>23/09/2023 12:51</t>
+          <t>23/09/2023 12:52</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.72</v>
+        <v>3.55</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>16/09/2023 12:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.74</v>
+        <v>3.59</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>23/09/2023 12:51</t>
+          <t>23/09/2023 12:56</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>3.08</v>
+        <v>3.06</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>16/09/2023 12:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.91</v>
+        <v>2.65</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>23/09/2023 12:51</t>
+          <t>23/09/2023 12:52</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-karlsruher/UJMYRPGI/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-nurnberg/8ALxRqWO/</t>
         </is>
       </c>
     </row>
@@ -6921,30 +6921,30 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J71" t="n">
-        <v>2.44</v>
+        <v>2.76</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.27</v>
+        <v>2.62</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
@@ -6952,31 +6952,31 @@
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.7</v>
+        <v>3.54</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.79</v>
+        <v>3.59</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>01/10/2023 13:29</t>
+          <t>01/10/2023 13:04</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>2.85</v>
+        <v>2.54</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="T71" t="n">
-        <v>3.09</v>
+        <v>2.73</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-magdeburg/r5eFv30O/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-kaiserslautern/MVQPb6ot/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.62</v>
+        <v>2.48</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>01/10/2023 13:30</t>
+          <t>01/10/2023 13:24</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.54</v>
+        <v>3.76</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.59</v>
+        <v>3.64</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>01/10/2023 13:04</t>
+          <t>01/10/2023 13:27</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>2.54</v>
+        <v>2.49</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>2.73</v>
+        <v>2.86</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>01/10/2023 13:30</t>
+          <t>01/10/2023 13:16</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-kaiserslautern/MVQPb6ot/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-greuther-furth/MefJwNFU/</t>
         </is>
       </c>
     </row>
@@ -7105,7 +7105,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -7113,63 +7113,247 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>24/09/2023 12:42</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>01/10/2023 13:30</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>24/09/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>01/10/2023 13:29</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>24/09/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>01/10/2023 13:30</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-magdeburg/r5eFv30O/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45205.77083333334</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Dusseldorf</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
         <v>1</v>
       </c>
-      <c r="J73" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>25/09/2023 11:42</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>01/10/2023 13:24</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>25/09/2023 11:42</t>
-        </is>
-      </c>
-      <c r="P73" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>01/10/2023 13:27</t>
-        </is>
-      </c>
-      <c r="R73" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>25/09/2023 11:42</t>
-        </is>
-      </c>
-      <c r="T73" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="U73" t="inlineStr">
-        <is>
-          <t>01/10/2023 13:16</t>
-        </is>
-      </c>
-      <c r="V73" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-greuther-furth/MefJwNFU/</t>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>VfL Osnabruck</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>01/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>06/10/2023 18:28</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>01/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>06/10/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>01/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>06/10/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-vfl-osnabruck/fqPXdpGh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45205.77083333334</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Kaiserslautern</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>3</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Hannover</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>01/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>06/10/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>01/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>06/10/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>01/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>06/10/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-hannover/SYGpfr0B/</t>
         </is>
       </c>
     </row>

--- a/2023/germany_2-bundesliga_2023-2024.xlsx
+++ b/2023/germany_2-bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V75"/>
+  <dimension ref="A1:V78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,7 +757,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -765,14 +765,14 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>1.98</v>
+        <v>2.75</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,15 +780,15 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.96</v>
+        <v>3.19</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>29/07/2023 12:58</t>
+          <t>29/07/2023 12:59</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.78</v>
+        <v>3.58</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -796,15 +796,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>4.09</v>
+        <v>3.84</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>29/07/2023 12:58</t>
+          <t>29/07/2023 12:59</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>3.7</v>
+        <v>2.52</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>3.65</v>
+        <v>2.2</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>29/07/2023 12:58</t>
+          <t>29/07/2023 12:59</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-elversberg/pWdGDApl/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-karlsruher/OdQO9SqD/</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.22</v>
+        <v>1.98</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3.09</v>
+        <v>1.96</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>29/07/2023 12:33</t>
+          <t>29/07/2023 12:58</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.69</v>
+        <v>3.78</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.75</v>
+        <v>4.09</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.18</v>
+        <v>3.7</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>2.28</v>
+        <v>3.65</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>29/07/2023 12:33</t>
+          <t>29/07/2023 12:58</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-magdeburg/x0US8naJ/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-elversberg/pWdGDApl/</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>2.75</v>
+        <v>3.22</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3.19</v>
+        <v>3.09</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>29/07/2023 12:59</t>
+          <t>29/07/2023 12:33</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.58</v>
+        <v>3.69</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.84</v>
+        <v>3.75</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>29/07/2023 12:59</t>
+          <t>29/07/2023 12:58</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.52</v>
+        <v>2.18</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>29/07/2023 12:59</t>
+          <t>29/07/2023 12:33</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-karlsruher/OdQO9SqD/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-magdeburg/x0US8naJ/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,14 +1961,14 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>2.93</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1980,11 +1980,11 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>06/08/2023 13:26</t>
+          <t>06/08/2023 13:27</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.78</v>
+        <v>3.97</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.45</v>
+        <v>4.14</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3.73</v>
+        <v>2.28</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.98</v>
+        <v>2.62</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>06/08/2023 13:29</t>
+          <t>06/08/2023 13:28</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-hannover/bJ8FdsLG/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-hamburger/O0G2aqyb/</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,14 +2053,14 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.78</v>
+        <v>2.48</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>06/08/2023 13:23</t>
+          <t>06/08/2023 13:26</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.87</v>
+        <v>3.78</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>4.02</v>
+        <v>3.45</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>06/08/2023 13:27</t>
+          <t>06/08/2023 13:28</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>3.49</v>
+        <v>3.73</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>4.53</v>
+        <v>2.98</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-braunschweig/KS9BcN5A/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-hannover/bJ8FdsLG/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>2.93</v>
+        <v>2.05</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,48 +2160,48 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.48</v>
+        <v>1.78</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
+          <t>06/08/2023 13:23</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>30/07/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
           <t>06/08/2023 13:27</t>
         </is>
       </c>
-      <c r="N19" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="O19" t="inlineStr">
+      <c r="R19" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="S19" t="inlineStr">
         <is>
           <t>30/07/2023 13:42</t>
         </is>
       </c>
-      <c r="P19" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>06/08/2023 13:28</t>
-        </is>
-      </c>
-      <c r="R19" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>30/07/2023 13:42</t>
-        </is>
-      </c>
       <c r="T19" t="n">
-        <v>2.62</v>
+        <v>4.53</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>06/08/2023 13:28</t>
+          <t>06/08/2023 13:29</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-hamburger/O0G2aqyb/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-braunschweig/KS9BcN5A/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>20/08/2023 15:12</t>
+          <t>20/08/2023 12:42</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.01</v>
+        <v>1.85</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>27/08/2023 13:29</t>
+          <t>27/08/2023 13:20</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.72</v>
+        <v>4.59</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>20/08/2023 15:12</t>
+          <t>20/08/2023 12:42</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.76</v>
+        <v>4.05</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>27/08/2023 13:29</t>
+          <t>27/08/2023 13:21</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>3.77</v>
+        <v>4.67</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>20/08/2023 15:12</t>
+          <t>20/08/2023 12:42</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.78</v>
+        <v>4.11</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>27/08/2023 13:29</t>
+          <t>27/08/2023 13:24</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-wehen/vchWNJJF/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-magdeburg/CpDX2Isj/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>20/08/2023 12:42</t>
+          <t>20/08/2023 15:12</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>27/08/2023 13:20</t>
+          <t>27/08/2023 13:29</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>4.59</v>
+        <v>3.72</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>20/08/2023 12:42</t>
+          <t>20/08/2023 15:12</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>4.05</v>
+        <v>3.76</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>27/08/2023 13:21</t>
+          <t>27/08/2023 13:29</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>4.67</v>
+        <v>3.77</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>20/08/2023 12:42</t>
+          <t>20/08/2023 15:12</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>4.11</v>
+        <v>3.78</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>27/08/2023 13:24</t>
+          <t>27/08/2023 13:29</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-magdeburg/CpDX2Isj/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-wehen/vchWNJJF/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>2.01</v>
+        <v>3.38</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.38</v>
+        <v>4.36</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>01/09/2023 18:26</t>
+          <t>01/09/2023 18:28</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>4</v>
+        <v>3.67</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.75</v>
+        <v>3.81</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>01/09/2023 18:28</t>
+          <t>01/09/2023 18:06</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>3.49</v>
+        <v>2.16</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.93</v>
+        <v>1.86</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>01/09/2023 18:28</t>
+          <t>01/09/2023 18:06</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-karlsruher/SK984VIf/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-st-pauli/ER86PWfK/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>3.38</v>
+        <v>2.01</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,48 +4000,48 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>4.36</v>
+        <v>2.38</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
+          <t>01/09/2023 18:26</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>4</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>27/08/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
           <t>01/09/2023 18:28</t>
         </is>
       </c>
-      <c r="N39" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="O39" t="inlineStr">
+      <c r="R39" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="S39" t="inlineStr">
         <is>
           <t>27/08/2023 12:42</t>
         </is>
       </c>
-      <c r="P39" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>01/09/2023 18:06</t>
-        </is>
-      </c>
-      <c r="R39" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>27/08/2023 12:42</t>
-        </is>
-      </c>
       <c r="T39" t="n">
-        <v>1.86</v>
+        <v>2.93</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>01/09/2023 18:06</t>
+          <t>01/09/2023 18:28</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-st-pauli/ER86PWfK/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-karlsruher/SK984VIf/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.57</v>
+        <v>3.39</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>26/08/2023 12:13</t>
+          <t>27/08/2023 17:12</t>
         </is>
       </c>
       <c r="L40" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>02/09/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>27/08/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>02/09/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R40" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>27/08/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T40" t="n">
         <v>2.4</v>
       </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>02/09/2023 12:58</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>26/08/2023 12:13</t>
-        </is>
-      </c>
-      <c r="P40" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>02/09/2023 12:58</t>
-        </is>
-      </c>
-      <c r="R40" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>26/08/2023 12:13</t>
-        </is>
-      </c>
-      <c r="T40" t="n">
-        <v>2.89</v>
-      </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>02/09/2023 12:58</t>
+          <t>02/09/2023 12:59</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-paderborn/Q5SB3kY0/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-schalke/YBkwKAIs/</t>
         </is>
       </c>
     </row>
@@ -4161,30 +4161,30 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>2.33</v>
+        <v>2.57</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>27/08/2023 17:12</t>
+          <t>26/08/2023 12:13</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.81</v>
+        <v>2.4</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -4192,15 +4192,15 @@
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.76</v>
+        <v>3.84</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>27/08/2023 17:12</t>
+          <t>26/08/2023 12:13</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.85</v>
+        <v>3.78</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -4208,15 +4208,15 @@
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2.91</v>
+        <v>2.62</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>27/08/2023 17:12</t>
+          <t>26/08/2023 12:13</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>2.43</v>
+        <v>2.89</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-hertha-berlin/nLGK1T2D/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-paderborn/Q5SB3kY0/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J42" t="n">
-        <v>3.39</v>
+        <v>2.33</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.94</v>
+        <v>2.81</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>02/09/2023 12:59</t>
+          <t>02/09/2023 12:58</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.69</v>
+        <v>3.76</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.67</v>
+        <v>3.85</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>02/09/2023 12:59</t>
+          <t>02/09/2023 12:58</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.15</v>
+        <v>2.91</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.4</v>
+        <v>2.43</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>02/09/2023 12:59</t>
+          <t>02/09/2023 12:58</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-schalke/YBkwKAIs/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-hertha-berlin/nLGK1T2D/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.08</v>
+        <v>2.58</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="N47" t="n">
-        <v>4.17</v>
+        <v>3.5</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.66</v>
+        <v>3.58</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>15/09/2023 18:29</t>
+          <t>15/09/2023 17:56</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>4.83</v>
+        <v>2.83</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>3.64</v>
+        <v>2.79</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>15/09/2023 18:29</t>
+          <t>15/09/2023 18:25</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-wehen/QR3nGSH6/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-greuther-furth/EmpsxAvQ/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.58</v>
+        <v>2.08</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.5</v>
+        <v>4.17</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.58</v>
+        <v>3.66</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>15/09/2023 17:56</t>
+          <t>15/09/2023 18:29</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.83</v>
+        <v>4.83</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.79</v>
+        <v>3.64</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>15/09/2023 18:25</t>
+          <t>15/09/2023 18:29</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-greuther-furth/EmpsxAvQ/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-wehen/QR3nGSH6/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="G49" t="n">
+        <v>2</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
         <v>1</v>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Dusseldorf</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>3</v>
-      </c>
       <c r="J49" t="n">
-        <v>3.01</v>
+        <v>3.89</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>3.37</v>
+        <v>3.78</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.39</v>
+        <v>4.26</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.45</v>
+        <v>4.17</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         </is>
       </c>
       <c r="R49" t="n">
-        <v>2.43</v>
+        <v>1.85</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>2.26</v>
+        <v>1.9</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-dusseldorf/zcowwjPJ/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-hamburger/6ux9XTns/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J50" t="n">
-        <v>3.89</v>
+        <v>3.01</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>3.78</v>
+        <v>3.37</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>4.26</v>
+        <v>3.39</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>4.17</v>
+        <v>3.45</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="R50" t="n">
-        <v>1.85</v>
+        <v>2.43</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>1.9</v>
+        <v>2.26</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-hamburger/6ux9XTns/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-dusseldorf/zcowwjPJ/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>2.24</v>
+        <v>2.38</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>16/09/2023 12:13</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.4</v>
+        <v>2.57</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
+          <t>23/09/2023 12:52</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>17/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
           <t>23/09/2023 12:51</t>
         </is>
       </c>
-      <c r="N58" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>16/09/2023 12:13</t>
-        </is>
-      </c>
-      <c r="P58" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>23/09/2023 12:51</t>
-        </is>
-      </c>
       <c r="R58" t="n">
-        <v>3.08</v>
+        <v>2.83</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>16/09/2023 12:13</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>2.91</v>
+        <v>2.7</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>23/09/2023 12:51</t>
+          <t>23/09/2023 12:52</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-karlsruher/UJMYRPGI/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-elversberg/bZ0nomHt/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J59" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>16/09/2023 12:13</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.69</v>
+        <v>2.4</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>23/09/2023 12:52</t>
+          <t>23/09/2023 12:51</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.55</v>
+        <v>3.72</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>16/09/2023 12:13</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.59</v>
+        <v>3.74</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>23/09/2023 12:56</t>
+          <t>23/09/2023 12:51</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>3.06</v>
+        <v>3.08</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>16/09/2023 12:13</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.65</v>
+        <v>2.91</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>23/09/2023 12:52</t>
+          <t>23/09/2023 12:51</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-nurnberg/8ALxRqWO/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-karlsruher/UJMYRPGI/</t>
         </is>
       </c>
     </row>
@@ -5909,30 +5909,30 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.57</v>
+        <v>2.69</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -5940,31 +5940,31 @@
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.76</v>
+        <v>3.55</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.72</v>
+        <v>3.59</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>23/09/2023 12:51</t>
+          <t>23/09/2023 12:56</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>2.83</v>
+        <v>3.06</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-elversberg/bZ0nomHt/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-nurnberg/8ALxRqWO/</t>
         </is>
       </c>
     </row>
@@ -6369,30 +6369,30 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="G65" t="n">
+        <v>3</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Schalke</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
         <v>1</v>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Dusseldorf</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
       <c r="J65" t="n">
-        <v>1.74</v>
+        <v>2.39</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.97</v>
+        <v>2.13</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
@@ -6400,15 +6400,15 @@
         </is>
       </c>
       <c r="N65" t="n">
-        <v>4.51</v>
+        <v>3.85</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>4.13</v>
+        <v>3.95</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -6416,15 +6416,15 @@
         </is>
       </c>
       <c r="R65" t="n">
-        <v>4.21</v>
+        <v>2.78</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>3.58</v>
+        <v>3.27</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-dusseldorf/KlkeqRog/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-schalke/EP3bro1a/</t>
         </is>
       </c>
     </row>
@@ -6461,30 +6461,30 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>2.39</v>
+        <v>1.74</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.13</v>
+        <v>1.97</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -6492,15 +6492,15 @@
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.85</v>
+        <v>4.51</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.95</v>
+        <v>4.13</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -6508,15 +6508,15 @@
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.78</v>
+        <v>4.21</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>3.27</v>
+        <v>3.58</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-schalke/EP3bro1a/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-dusseldorf/KlkeqRog/</t>
         </is>
       </c>
     </row>
@@ -6553,30 +6553,30 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Holstein Kiel</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
         <v>2</v>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Wehen</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
       <c r="J67" t="n">
-        <v>1.69</v>
+        <v>1.84</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6584,15 +6584,15 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>4.2</v>
+        <v>4.23</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>4.17</v>
+        <v>4.27</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -6600,24 +6600,24 @@
         </is>
       </c>
       <c r="R67" t="n">
-        <v>4.66</v>
+        <v>3.83</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>4.4</v>
+        <v>4.05</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>30/09/2023 12:59</t>
+          <t>30/09/2023 12:57</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-wehen/zuh7tPVB/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-holstein-kiel/hG22s5G5/</t>
         </is>
       </c>
     </row>
@@ -6645,71 +6645,71 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>2.1</v>
+        <v>1.69</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.18</v>
+        <v>1.78</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>30/09/2023 12:51</t>
+          <t>30/09/2023 12:59</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.58</v>
+        <v>4.2</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.56</v>
+        <v>4.17</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>30/09/2023 12:57</t>
+          <t>30/09/2023 12:59</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>3.53</v>
+        <v>4.66</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>3.41</v>
+        <v>4.4</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>30/09/2023 12:38</t>
+          <t>30/09/2023 12:59</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-braunschweig/lrdBuqoI/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-wehen/zuh7tPVB/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Braunschweig</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Holstein Kiel</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>2</v>
-      </c>
       <c r="J69" t="n">
-        <v>1.84</v>
+        <v>2.1</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.82</v>
+        <v>2.18</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>30/09/2023 12:59</t>
+          <t>30/09/2023 12:51</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>4.23</v>
+        <v>3.58</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>4.27</v>
+        <v>3.56</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>30/09/2023 12:59</t>
+          <t>30/09/2023 12:57</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.83</v>
+        <v>3.53</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>4.05</v>
+        <v>3.41</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>30/09/2023 12:57</t>
+          <t>30/09/2023 12:38</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-holstein-kiel/hG22s5G5/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-braunschweig/lrdBuqoI/</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -7021,63 +7021,63 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>2.7</v>
+        <v>2.44</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.48</v>
+        <v>2.27</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>01/10/2023 13:24</t>
+          <t>01/10/2023 13:30</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.76</v>
+        <v>3.7</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.64</v>
+        <v>3.79</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>01/10/2023 13:27</t>
+          <t>01/10/2023 13:29</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>2.49</v>
+        <v>2.85</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="T72" t="n">
-        <v>2.86</v>
+        <v>3.09</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>01/10/2023 13:16</t>
+          <t>01/10/2023 13:30</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-greuther-furth/MefJwNFU/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-magdeburg/r5eFv30O/</t>
         </is>
       </c>
     </row>
@@ -7105,7 +7105,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -7113,63 +7113,63 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>2.44</v>
+        <v>2.7</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.27</v>
+        <v>2.48</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>01/10/2023 13:30</t>
+          <t>01/10/2023 13:24</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.7</v>
+        <v>3.76</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.79</v>
+        <v>3.64</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>01/10/2023 13:29</t>
+          <t>01/10/2023 13:27</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>2.85</v>
+        <v>2.49</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="T73" t="n">
-        <v>3.09</v>
+        <v>2.86</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>01/10/2023 13:30</t>
+          <t>01/10/2023 13:16</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-magdeburg/r5eFv30O/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-greuther-furth/MefJwNFU/</t>
         </is>
       </c>
     </row>
@@ -7354,6 +7354,282 @@
       <c r="V75" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-hannover/SYGpfr0B/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45206.54166666666</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Magdeburg</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Karlsruher SC</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>01/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>07/10/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>01/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>07/10/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>01/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>07/10/2023 12:33</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-karlsruher/d8Llg2FH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45206.54166666666</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Greuther Furth</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>1</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Hansa Rostock</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>01/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>07/10/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>01/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>07/10/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>01/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>07/10/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-hansa-rostock/YXrIyzpp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45206.54166666666</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Wehen</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>30/09/2023 12:14</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>07/10/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>30/09/2023 12:14</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>07/10/2023 12:21</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>30/09/2023 12:14</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>07/10/2023 12:58</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-hamburger/UaxRZDEd/</t>
         </is>
       </c>
     </row>

--- a/2023/germany_2-bundesliga_2023-2024.xlsx
+++ b/2023/germany_2-bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V78"/>
+  <dimension ref="A1:V79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>16/09/2023 12:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.4</v>
+        <v>2.69</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>23/09/2023 12:51</t>
+          <t>23/09/2023 12:52</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.72</v>
+        <v>3.55</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>16/09/2023 12:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.74</v>
+        <v>3.59</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>23/09/2023 12:51</t>
+          <t>23/09/2023 12:56</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>3.08</v>
+        <v>3.06</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>16/09/2023 12:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.91</v>
+        <v>2.65</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>23/09/2023 12:51</t>
+          <t>23/09/2023 12:52</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-karlsruher/UJMYRPGI/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-nurnberg/8ALxRqWO/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J60" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>16/09/2023 12:13</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.69</v>
+        <v>2.4</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>23/09/2023 12:52</t>
+          <t>23/09/2023 12:51</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.55</v>
+        <v>3.72</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>16/09/2023 12:13</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.59</v>
+        <v>3.74</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>23/09/2023 12:56</t>
+          <t>23/09/2023 12:51</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>3.06</v>
+        <v>3.08</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>16/09/2023 12:13</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.65</v>
+        <v>2.91</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>23/09/2023 12:52</t>
+          <t>23/09/2023 12:51</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-nurnberg/8ALxRqWO/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-karlsruher/UJMYRPGI/</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -7021,63 +7021,63 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>2.44</v>
+        <v>2.7</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.27</v>
+        <v>2.48</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>01/10/2023 13:30</t>
+          <t>01/10/2023 13:24</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.7</v>
+        <v>3.76</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.79</v>
+        <v>3.64</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>01/10/2023 13:29</t>
+          <t>01/10/2023 13:27</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>2.85</v>
+        <v>2.49</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="T72" t="n">
-        <v>3.09</v>
+        <v>2.86</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>01/10/2023 13:30</t>
+          <t>01/10/2023 13:16</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-magdeburg/r5eFv30O/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-greuther-furth/MefJwNFU/</t>
         </is>
       </c>
     </row>
@@ -7105,7 +7105,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -7113,63 +7113,63 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>2.7</v>
+        <v>2.44</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.48</v>
+        <v>2.27</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>01/10/2023 13:24</t>
+          <t>01/10/2023 13:30</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.76</v>
+        <v>3.7</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.64</v>
+        <v>3.79</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>01/10/2023 13:27</t>
+          <t>01/10/2023 13:29</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>2.49</v>
+        <v>2.85</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="T73" t="n">
-        <v>2.86</v>
+        <v>3.09</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>01/10/2023 13:16</t>
+          <t>01/10/2023 13:30</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-greuther-furth/MefJwNFU/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-magdeburg/r5eFv30O/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>1.57</v>
+        <v>2.19</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.61</v>
+        <v>2.28</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>06/10/2023 18:28</t>
+          <t>06/10/2023 18:29</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>4.73</v>
+        <v>3.6</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>4.51</v>
+        <v>3.54</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         </is>
       </c>
       <c r="R74" t="n">
-        <v>5.14</v>
+        <v>3.29</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>5.32</v>
+        <v>3.25</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-vfl-osnabruck/fqPXdpGh/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-hannover/SYGpfr0B/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>2.19</v>
+        <v>1.57</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,48 +7312,48 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.28</v>
+        <v>1.61</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
+          <t>06/10/2023 18:28</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>01/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
           <t>06/10/2023 18:29</t>
         </is>
       </c>
-      <c r="N75" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O75" t="inlineStr">
+      <c r="R75" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="S75" t="inlineStr">
         <is>
           <t>01/10/2023 12:43</t>
         </is>
       </c>
-      <c r="P75" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="Q75" t="inlineStr">
+      <c r="T75" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="U75" t="inlineStr">
         <is>
           <t>06/10/2023 18:29</t>
         </is>
       </c>
-      <c r="R75" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="S75" t="inlineStr">
-        <is>
-          <t>01/10/2023 12:43</t>
-        </is>
-      </c>
-      <c r="T75" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U75" t="inlineStr">
-        <is>
-          <t>06/10/2023 18:29</t>
-        </is>
-      </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-hannover/SYGpfr0B/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-vfl-osnabruck/fqPXdpGh/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,22 +7481,22 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1.78</v>
+        <v>4.37</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 12:14</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.79</v>
+        <v>4.07</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -7504,40 +7504,40 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.95</v>
+        <v>4.31</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 12:14</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.79</v>
+        <v>4.43</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>07/10/2023 12:59</t>
+          <t>07/10/2023 12:21</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>4.59</v>
+        <v>1.72</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 12:14</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>4.84</v>
+        <v>1.82</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>07/10/2023 12:59</t>
+          <t>07/10/2023 12:58</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-hansa-rostock/YXrIyzpp/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-hamburger/UaxRZDEd/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,63 +7573,155 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>01/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>07/10/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>01/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>07/10/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>01/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>07/10/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-hansa-rostock/YXrIyzpp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45206.85416666666</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>St. Pauli</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>5</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Nurnberg</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
         <v>1</v>
       </c>
-      <c r="J78" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>30/09/2023 12:14</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>07/10/2023 12:59</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>30/09/2023 12:14</t>
-        </is>
-      </c>
-      <c r="P78" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>07/10/2023 12:21</t>
-        </is>
-      </c>
-      <c r="R78" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>30/09/2023 12:14</t>
-        </is>
-      </c>
-      <c r="T78" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="U78" t="inlineStr">
-        <is>
-          <t>07/10/2023 12:58</t>
-        </is>
-      </c>
-      <c r="V78" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-hamburger/UaxRZDEd/</t>
+      <c r="J79" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>01/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>07/10/2023 20:24</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>01/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>07/10/2023 20:29</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>01/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>07/10/2023 20:29</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-nurnberg/6JSyd4Vb/</t>
         </is>
       </c>
     </row>

--- a/2023/germany_2-bundesliga_2023-2024.xlsx
+++ b/2023/germany_2-bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V79"/>
+  <dimension ref="A1:V82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J40" t="n">
-        <v>3.39</v>
+        <v>2.33</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.94</v>
+        <v>2.81</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>02/09/2023 12:59</t>
+          <t>02/09/2023 12:58</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.69</v>
+        <v>3.76</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.67</v>
+        <v>3.85</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>02/09/2023 12:59</t>
+          <t>02/09/2023 12:58</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.15</v>
+        <v>2.91</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>2.4</v>
+        <v>2.43</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>02/09/2023 12:59</t>
+          <t>02/09/2023 12:58</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-schalke/YBkwKAIs/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-hertha-berlin/nLGK1T2D/</t>
         </is>
       </c>
     </row>
@@ -4161,71 +4161,71 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>2.57</v>
+        <v>3.39</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>26/08/2023 12:13</t>
+          <t>27/08/2023 17:12</t>
         </is>
       </c>
       <c r="L41" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>02/09/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>27/08/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>02/09/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>27/08/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T41" t="n">
         <v>2.4</v>
       </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>02/09/2023 12:58</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>26/08/2023 12:13</t>
-        </is>
-      </c>
-      <c r="P41" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>02/09/2023 12:58</t>
-        </is>
-      </c>
-      <c r="R41" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>26/08/2023 12:13</t>
-        </is>
-      </c>
-      <c r="T41" t="n">
-        <v>2.89</v>
-      </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>02/09/2023 12:58</t>
+          <t>02/09/2023 12:59</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-paderborn/Q5SB3kY0/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-schalke/YBkwKAIs/</t>
         </is>
       </c>
     </row>
@@ -4253,30 +4253,30 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.33</v>
+        <v>2.57</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>27/08/2023 17:12</t>
+          <t>26/08/2023 12:13</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.81</v>
+        <v>2.4</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4284,15 +4284,15 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.76</v>
+        <v>3.84</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>27/08/2023 17:12</t>
+          <t>26/08/2023 12:13</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.85</v>
+        <v>3.78</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -4300,15 +4300,15 @@
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.91</v>
+        <v>2.62</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>27/08/2023 17:12</t>
+          <t>26/08/2023 12:13</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.43</v>
+        <v>2.89</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-hertha-berlin/nLGK1T2D/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-paderborn/Q5SB3kY0/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>3.89</v>
+        <v>1.95</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,48 +4920,48 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>3.78</v>
+        <v>2.03</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
+          <t>16/09/2023 12:58</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>04/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
           <t>16/09/2023 12:59</t>
         </is>
       </c>
-      <c r="N49" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="O49" t="inlineStr">
+      <c r="R49" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="S49" t="inlineStr">
         <is>
           <t>04/09/2023 08:42</t>
         </is>
       </c>
-      <c r="P49" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="Q49" t="inlineStr">
+      <c r="T49" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="U49" t="inlineStr">
         <is>
           <t>16/09/2023 12:59</t>
         </is>
       </c>
-      <c r="R49" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>04/09/2023 08:42</t>
-        </is>
-      </c>
-      <c r="T49" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>16/09/2023 12:59</t>
-        </is>
-      </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-hamburger/6ux9XTns/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-kaiserslautern/Kl3jFnXC/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="G50" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
         <v>1</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Dusseldorf</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
       <c r="J50" t="n">
-        <v>3.01</v>
+        <v>3.89</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>3.37</v>
+        <v>3.78</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.39</v>
+        <v>4.26</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.45</v>
+        <v>4.17</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="R50" t="n">
-        <v>2.43</v>
+        <v>1.85</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>2.26</v>
+        <v>1.9</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-dusseldorf/zcowwjPJ/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-hamburger/6ux9XTns/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,14 +5089,14 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J51" t="n">
-        <v>1.95</v>
+        <v>3.01</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.03</v>
+        <v>3.37</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>16/09/2023 12:58</t>
+          <t>16/09/2023 12:59</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.85</v>
+        <v>3.39</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.64</v>
+        <v>3.45</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.72</v>
+        <v>2.43</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>3.83</v>
+        <v>2.26</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-kaiserslautern/Kl3jFnXC/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-dusseldorf/zcowwjPJ/</t>
         </is>
       </c>
     </row>
@@ -5541,30 +5541,30 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>4.21</v>
+        <v>2.1</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>16/09/2023 19:43</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>4.94</v>
+        <v>2.17</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5572,40 +5572,40 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>4.28</v>
+        <v>3.95</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>16/09/2023 19:43</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>4.72</v>
+        <v>4</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
+          <t>22/09/2023 18:26</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>16/09/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
           <t>22/09/2023 18:29</t>
         </is>
       </c>
-      <c r="R56" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>17/09/2023 16:13</t>
-        </is>
-      </c>
-      <c r="T56" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>22/09/2023 18:29</t>
-        </is>
-      </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-hamburger/MD9KkT8P/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-paderborn/CrSTS51C/</t>
         </is>
       </c>
     </row>
@@ -5633,30 +5633,30 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>2.1</v>
+        <v>4.21</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>16/09/2023 19:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.17</v>
+        <v>4.94</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
@@ -5664,31 +5664,31 @@
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.95</v>
+        <v>4.28</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>16/09/2023 19:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>4</v>
+        <v>4.72</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>22/09/2023 18:26</t>
+          <t>22/09/2023 18:29</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>3.23</v>
+        <v>1.75</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>16/09/2023 19:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>3.14</v>
+        <v>1.62</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-paderborn/CrSTS51C/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-hamburger/MD9KkT8P/</t>
         </is>
       </c>
     </row>
@@ -5725,30 +5725,30 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.57</v>
+        <v>2.69</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
@@ -5756,31 +5756,31 @@
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.76</v>
+        <v>3.55</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.72</v>
+        <v>3.59</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>23/09/2023 12:51</t>
+          <t>23/09/2023 12:56</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>2.83</v>
+        <v>3.06</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-elversberg/bZ0nomHt/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-nurnberg/8ALxRqWO/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J59" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>16/09/2023 12:13</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.69</v>
+        <v>2.4</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>23/09/2023 12:52</t>
+          <t>23/09/2023 12:51</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.55</v>
+        <v>3.72</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>16/09/2023 12:13</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.59</v>
+        <v>3.74</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>23/09/2023 12:56</t>
+          <t>23/09/2023 12:51</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>3.06</v>
+        <v>3.08</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>16/09/2023 12:13</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.65</v>
+        <v>2.91</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>23/09/2023 12:52</t>
+          <t>23/09/2023 12:51</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-nurnberg/8ALxRqWO/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-karlsruher/UJMYRPGI/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>2.24</v>
+        <v>2.38</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>16/09/2023 12:13</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.4</v>
+        <v>2.57</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
+          <t>23/09/2023 12:52</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>17/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
           <t>23/09/2023 12:51</t>
         </is>
       </c>
-      <c r="N60" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>16/09/2023 12:13</t>
-        </is>
-      </c>
-      <c r="P60" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>23/09/2023 12:51</t>
-        </is>
-      </c>
       <c r="R60" t="n">
-        <v>3.08</v>
+        <v>2.83</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>16/09/2023 12:13</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.91</v>
+        <v>2.7</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>23/09/2023 12:51</t>
+          <t>23/09/2023 12:52</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-karlsruher/UJMYRPGI/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-elversberg/bZ0nomHt/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>1.71</v>
+        <v>1.99</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.98</v>
+        <v>2.11</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>24/09/2023 13:27</t>
+          <t>24/09/2023 13:22</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>4.24</v>
+        <v>3.65</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.87</v>
+        <v>3.37</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>24/09/2023 13:28</t>
+          <t>24/09/2023 13:24</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>4.47</v>
+        <v>3.9</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>3.78</v>
+        <v>3.88</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>24/09/2023 13:27</t>
+          <t>24/09/2023 13:24</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-hannover/pWzDWm2m/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-hansa-rostock/YiTPTon6/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="I64" t="n">
         <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>1.99</v>
+        <v>1.71</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.11</v>
+        <v>1.98</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>24/09/2023 13:22</t>
+          <t>24/09/2023 13:27</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.65</v>
+        <v>4.24</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.37</v>
+        <v>3.87</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>24/09/2023 13:24</t>
+          <t>24/09/2023 13:28</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>3.9</v>
+        <v>4.47</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>3.88</v>
+        <v>3.78</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>24/09/2023 13:24</t>
+          <t>24/09/2023 13:27</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-hansa-rostock/YiTPTon6/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-hannover/pWzDWm2m/</t>
         </is>
       </c>
     </row>
@@ -6369,30 +6369,30 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>2.39</v>
+        <v>1.74</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.13</v>
+        <v>1.97</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
@@ -6400,15 +6400,15 @@
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.85</v>
+        <v>4.51</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.95</v>
+        <v>4.13</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -6416,15 +6416,15 @@
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.78</v>
+        <v>4.21</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>3.27</v>
+        <v>3.58</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-schalke/EP3bro1a/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-dusseldorf/KlkeqRog/</t>
         </is>
       </c>
     </row>
@@ -6461,30 +6461,30 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="G66" t="n">
+        <v>3</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Schalke</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
         <v>1</v>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Dusseldorf</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
       <c r="J66" t="n">
-        <v>1.74</v>
+        <v>2.39</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>1.97</v>
+        <v>2.13</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -6492,15 +6492,15 @@
         </is>
       </c>
       <c r="N66" t="n">
-        <v>4.51</v>
+        <v>3.85</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>4.13</v>
+        <v>3.95</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -6508,15 +6508,15 @@
         </is>
       </c>
       <c r="R66" t="n">
-        <v>4.21</v>
+        <v>2.78</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>3.58</v>
+        <v>3.27</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-dusseldorf/KlkeqRog/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-schalke/EP3bro1a/</t>
         </is>
       </c>
     </row>
@@ -6553,30 +6553,30 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="G67" t="n">
+        <v>2</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Wehen</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Holstein Kiel</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
-        <v>2</v>
-      </c>
       <c r="J67" t="n">
-        <v>1.84</v>
+        <v>1.69</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6584,15 +6584,15 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>4.23</v>
+        <v>4.2</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>4.27</v>
+        <v>4.17</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -6600,24 +6600,24 @@
         </is>
       </c>
       <c r="R67" t="n">
-        <v>3.83</v>
+        <v>4.66</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>4.05</v>
+        <v>4.4</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>30/09/2023 12:57</t>
+          <t>30/09/2023 12:59</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-holstein-kiel/hG22s5G5/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-wehen/zuh7tPVB/</t>
         </is>
       </c>
     </row>
@@ -6645,71 +6645,71 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.78</v>
+        <v>2.18</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>30/09/2023 12:59</t>
+          <t>30/09/2023 12:51</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>4.2</v>
+        <v>3.58</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>4.17</v>
+        <v>3.56</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>30/09/2023 12:59</t>
+          <t>30/09/2023 12:57</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>4.66</v>
+        <v>3.53</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>4.4</v>
+        <v>3.41</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>30/09/2023 12:59</t>
+          <t>30/09/2023 12:38</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-wehen/zuh7tPVB/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-braunschweig/lrdBuqoI/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>2.1</v>
+        <v>1.84</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.18</v>
+        <v>1.82</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>30/09/2023 12:51</t>
+          <t>30/09/2023 12:59</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.58</v>
+        <v>4.23</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,32 +6776,32 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.56</v>
+        <v>4.27</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
+          <t>30/09/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>24/09/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
           <t>30/09/2023 12:57</t>
         </is>
       </c>
-      <c r="R69" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>24/09/2023 12:42</t>
-        </is>
-      </c>
-      <c r="T69" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>30/09/2023 12:38</t>
-        </is>
-      </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-braunschweig/lrdBuqoI/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-holstein-kiel/hG22s5G5/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.62</v>
+        <v>2.48</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>01/10/2023 13:30</t>
+          <t>01/10/2023 13:24</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.54</v>
+        <v>3.76</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.59</v>
+        <v>3.64</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>01/10/2023 13:04</t>
+          <t>01/10/2023 13:27</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>2.54</v>
+        <v>2.49</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>2.73</v>
+        <v>2.86</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>01/10/2023 13:30</t>
+          <t>01/10/2023 13:16</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-kaiserslautern/MVQPb6ot/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-greuther-furth/MefJwNFU/</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -7021,63 +7021,63 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>2.7</v>
+        <v>2.44</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.48</v>
+        <v>2.27</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>01/10/2023 13:24</t>
+          <t>01/10/2023 13:30</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.76</v>
+        <v>3.7</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.64</v>
+        <v>3.79</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>01/10/2023 13:27</t>
+          <t>01/10/2023 13:29</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>2.49</v>
+        <v>2.85</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="T72" t="n">
-        <v>2.86</v>
+        <v>3.09</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>01/10/2023 13:16</t>
+          <t>01/10/2023 13:30</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-greuther-furth/MefJwNFU/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-magdeburg/r5eFv30O/</t>
         </is>
       </c>
     </row>
@@ -7105,30 +7105,30 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J73" t="n">
-        <v>2.44</v>
+        <v>2.76</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.27</v>
+        <v>2.62</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
@@ -7136,31 +7136,31 @@
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.7</v>
+        <v>3.54</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.79</v>
+        <v>3.59</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>01/10/2023 13:29</t>
+          <t>01/10/2023 13:04</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>2.85</v>
+        <v>2.54</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="T73" t="n">
-        <v>3.09</v>
+        <v>2.73</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-magdeburg/r5eFv30O/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-kaiserslautern/MVQPb6ot/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>2.19</v>
+        <v>1.57</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,48 +7220,48 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.28</v>
+        <v>1.61</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
+          <t>06/10/2023 18:28</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>01/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
           <t>06/10/2023 18:29</t>
         </is>
       </c>
-      <c r="N74" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O74" t="inlineStr">
+      <c r="R74" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="S74" t="inlineStr">
         <is>
           <t>01/10/2023 12:43</t>
         </is>
       </c>
-      <c r="P74" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="Q74" t="inlineStr">
+      <c r="T74" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="U74" t="inlineStr">
         <is>
           <t>06/10/2023 18:29</t>
         </is>
       </c>
-      <c r="R74" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="S74" t="inlineStr">
-        <is>
-          <t>01/10/2023 12:43</t>
-        </is>
-      </c>
-      <c r="T74" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U74" t="inlineStr">
-        <is>
-          <t>06/10/2023 18:29</t>
-        </is>
-      </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-hannover/SYGpfr0B/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-vfl-osnabruck/fqPXdpGh/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>1.57</v>
+        <v>2.19</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.61</v>
+        <v>2.28</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>06/10/2023 18:28</t>
+          <t>06/10/2023 18:29</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>4.73</v>
+        <v>3.6</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>4.51</v>
+        <v>3.54</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         </is>
       </c>
       <c r="R75" t="n">
-        <v>5.14</v>
+        <v>3.29</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>5.32</v>
+        <v>3.25</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
@@ -7353,7 +7353,7 @@
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-vfl-osnabruck/fqPXdpGh/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-hannover/SYGpfr0B/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,22 +7389,22 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>2.26</v>
+        <v>4.37</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 12:14</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.52</v>
+        <v>4.07</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
@@ -7412,40 +7412,40 @@
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.86</v>
+        <v>4.31</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 12:14</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.7</v>
+        <v>4.43</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>07/10/2023 12:59</t>
+          <t>07/10/2023 12:21</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>2.97</v>
+        <v>1.72</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 12:14</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>2.72</v>
+        <v>1.82</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>07/10/2023 12:33</t>
+          <t>07/10/2023 12:58</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-karlsruher/d8Llg2FH/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-hamburger/UaxRZDEd/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,22 +7481,22 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>4.37</v>
+        <v>1.78</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>30/09/2023 12:14</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>4.07</v>
+        <v>1.79</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -7504,40 +7504,40 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>4.31</v>
+        <v>3.95</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>30/09/2023 12:14</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>4.43</v>
+        <v>3.79</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>07/10/2023 12:21</t>
+          <t>07/10/2023 12:59</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>1.72</v>
+        <v>4.59</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>30/09/2023 12:14</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>1.82</v>
+        <v>4.84</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>07/10/2023 12:58</t>
+          <t>07/10/2023 12:59</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-hamburger/UaxRZDEd/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-hansa-rostock/YXrIyzpp/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,14 +7573,14 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>1.78</v>
+        <v>2.26</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.79</v>
+        <v>2.52</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.95</v>
+        <v>3.86</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.79</v>
+        <v>3.7</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         </is>
       </c>
       <c r="R78" t="n">
-        <v>4.59</v>
+        <v>2.97</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>4.84</v>
+        <v>2.72</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>07/10/2023 12:59</t>
+          <t>07/10/2023 12:33</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-hansa-rostock/YXrIyzpp/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-karlsruher/d8Llg2FH/</t>
         </is>
       </c>
     </row>
@@ -7722,6 +7722,282 @@
       <c r="V79" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-nurnberg/6JSyd4Vb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45207.5625</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Holstein Kiel</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Elversberg</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>01/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:28</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>01/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:28</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>01/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:28</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-elversberg/lrIteOp5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45207.5625</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Braunschweig</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>3</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>30/09/2023 12:43</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:27</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>30/09/2023 12:43</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:28</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>30/09/2023 12:43</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:27</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-paderborn/GdYMzfaj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45207.5625</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Schalke</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>1</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>2</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>30/09/2023 19:43</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:29</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>30/09/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:29</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>30/09/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:29</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-hertha-berlin/0MPTcQ0n/</t>
         </is>
       </c>
     </row>

--- a/2023/germany_2-bundesliga_2023-2024.xlsx
+++ b/2023/germany_2-bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V82"/>
+  <dimension ref="A1:V84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,22 +757,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>2.75</v>
+        <v>3.22</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,15 +780,15 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>3.19</v>
+        <v>3.09</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>29/07/2023 12:59</t>
+          <t>29/07/2023 12:33</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.58</v>
+        <v>3.69</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -796,15 +796,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.84</v>
+        <v>3.75</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>29/07/2023 12:59</t>
+          <t>29/07/2023 12:58</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.52</v>
+        <v>2.18</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>29/07/2023 12:59</t>
+          <t>29/07/2023 12:33</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-karlsruher/OdQO9SqD/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-magdeburg/x0US8naJ/</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -857,14 +857,14 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>1.98</v>
+        <v>2.75</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.96</v>
+        <v>3.19</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>29/07/2023 12:58</t>
+          <t>29/07/2023 12:59</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.78</v>
+        <v>3.58</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>4.09</v>
+        <v>3.84</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>29/07/2023 12:58</t>
+          <t>29/07/2023 12:59</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>3.7</v>
+        <v>2.52</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>3.65</v>
+        <v>2.2</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>29/07/2023 12:58</t>
+          <t>29/07/2023 12:59</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-elversberg/pWdGDApl/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-karlsruher/OdQO9SqD/</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.22</v>
+        <v>1.98</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3.09</v>
+        <v>1.96</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>29/07/2023 12:33</t>
+          <t>29/07/2023 12:58</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.69</v>
+        <v>3.78</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.75</v>
+        <v>4.09</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.18</v>
+        <v>3.7</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.28</v>
+        <v>3.65</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>29/07/2023 12:33</t>
+          <t>29/07/2023 12:58</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-magdeburg/x0US8naJ/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-elversberg/pWdGDApl/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,14 +1961,14 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>2.93</v>
+        <v>2</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1980,11 +1980,11 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>06/08/2023 13:27</t>
+          <t>06/08/2023 13:26</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.97</v>
+        <v>3.78</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>4.14</v>
+        <v>3.45</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.28</v>
+        <v>3.73</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.62</v>
+        <v>2.98</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>06/08/2023 13:28</t>
+          <t>06/08/2023 13:29</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-hamburger/O0G2aqyb/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-hannover/bJ8FdsLG/</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,14 +2053,14 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.48</v>
+        <v>1.78</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>06/08/2023 13:26</t>
+          <t>06/08/2023 13:23</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.78</v>
+        <v>3.87</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.45</v>
+        <v>4.02</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>06/08/2023 13:28</t>
+          <t>06/08/2023 13:27</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>3.73</v>
+        <v>3.49</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.98</v>
+        <v>4.53</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-hannover/bJ8FdsLG/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-braunschweig/KS9BcN5A/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>2.05</v>
+        <v>2.93</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.78</v>
+        <v>2.48</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>06/08/2023 13:23</t>
+          <t>06/08/2023 13:27</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.87</v>
+        <v>3.97</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>4.02</v>
+        <v>4.14</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>06/08/2023 13:27</t>
+          <t>06/08/2023 13:28</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>3.49</v>
+        <v>2.28</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>4.53</v>
+        <v>2.62</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>06/08/2023 13:29</t>
+          <t>06/08/2023 13:28</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-braunschweig/KS9BcN5A/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-hamburger/O0G2aqyb/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>3.6</v>
+        <v>2.08</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.83</v>
+        <v>2.25</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.89</v>
+        <v>3.81</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         </is>
       </c>
       <c r="R20" t="n">
-        <v>1.98</v>
+        <v>3.38</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.5</v>
+        <v>3.19</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-karlsruher/Knxc9K4M/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-elversberg/x4txErji/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.08</v>
+        <v>3.6</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.25</v>
+        <v>2.83</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.81</v>
+        <v>3.89</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="R21" t="n">
-        <v>3.38</v>
+        <v>1.98</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.19</v>
+        <v>2.5</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-elversberg/x4txErji/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-karlsruher/Knxc9K4M/</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,14 +2421,14 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>2.36</v>
+        <v>2.1</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.52</v>
+        <v>2.05</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>19/08/2023 12:59</t>
+          <t>19/08/2023 12:25</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.59</v>
+        <v>3.83</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.5</v>
+        <v>3.93</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>19/08/2023 12:59</t>
+          <t>19/08/2023 12:25</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.96</v>
+        <v>3.38</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.91</v>
+        <v>3.49</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>19/08/2023 12:59</t>
+          <t>19/08/2023 12:25</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-hannover/YVZpCMK3/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-paderborn/CQljjubp/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>2.64</v>
+        <v>2.36</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>19/08/2023 12:53</t>
+          <t>19/08/2023 12:59</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.49</v>
+        <v>3.59</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2548,11 +2548,11 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>19/08/2023 12:53</t>
+          <t>19/08/2023 12:59</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.73</v>
+        <v>2.96</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.84</v>
+        <v>2.91</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>19/08/2023 12:53</t>
+          <t>19/08/2023 12:59</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-st-pauli/GfutD25c/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-hannover/YVZpCMK3/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2.1</v>
+        <v>2.64</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.05</v>
+        <v>2.56</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>19/08/2023 12:25</t>
+          <t>19/08/2023 12:53</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.83</v>
+        <v>3.49</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.93</v>
+        <v>3.5</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>19/08/2023 12:25</t>
+          <t>19/08/2023 12:53</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.38</v>
+        <v>2.73</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.49</v>
+        <v>2.84</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>19/08/2023 12:25</t>
+          <t>19/08/2023 12:53</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-paderborn/CQljjubp/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-st-pauli/GfutD25c/</t>
         </is>
       </c>
     </row>
@@ -4069,30 +4069,30 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.33</v>
+        <v>2.57</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>27/08/2023 17:12</t>
+          <t>26/08/2023 12:13</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.81</v>
+        <v>2.4</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -4100,15 +4100,15 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.76</v>
+        <v>3.84</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>27/08/2023 17:12</t>
+          <t>26/08/2023 12:13</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.85</v>
+        <v>3.78</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -4116,15 +4116,15 @@
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.91</v>
+        <v>2.62</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>27/08/2023 17:12</t>
+          <t>26/08/2023 12:13</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>2.43</v>
+        <v>2.89</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-hertha-berlin/nLGK1T2D/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-paderborn/Q5SB3kY0/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J41" t="n">
-        <v>3.39</v>
+        <v>2.33</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.94</v>
+        <v>2.81</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>02/09/2023 12:59</t>
+          <t>02/09/2023 12:58</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.69</v>
+        <v>3.76</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.67</v>
+        <v>3.85</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>02/09/2023 12:59</t>
+          <t>02/09/2023 12:58</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2.15</v>
+        <v>2.91</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>2.4</v>
+        <v>2.43</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>02/09/2023 12:59</t>
+          <t>02/09/2023 12:58</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-schalke/YBkwKAIs/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-hertha-berlin/nLGK1T2D/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.57</v>
+        <v>3.39</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>26/08/2023 12:13</t>
+          <t>27/08/2023 17:12</t>
         </is>
       </c>
       <c r="L42" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>02/09/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>27/08/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>02/09/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>27/08/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
         <v>2.4</v>
       </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>02/09/2023 12:58</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>26/08/2023 12:13</t>
-        </is>
-      </c>
-      <c r="P42" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>02/09/2023 12:58</t>
-        </is>
-      </c>
-      <c r="R42" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>26/08/2023 12:13</t>
-        </is>
-      </c>
-      <c r="T42" t="n">
-        <v>2.89</v>
-      </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>02/09/2023 12:58</t>
+          <t>02/09/2023 12:59</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-paderborn/Q5SB3kY0/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-schalke/YBkwKAIs/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Elversberg</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
         <v>1</v>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Hannover</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>3</v>
-      </c>
       <c r="J44" t="n">
-        <v>1.72</v>
+        <v>2.35</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>27/08/2023 12:42</t>
+          <t>27/08/2023 17:12</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.03</v>
+        <v>2.32</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>03/09/2023 13:27</t>
+          <t>03/09/2023 13:02</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>4.27</v>
+        <v>3.78</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>27/08/2023 12:42</t>
+          <t>27/08/2023 17:12</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.76</v>
+        <v>4.01</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>03/09/2023 13:18</t>
+          <t>03/09/2023 13:04</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>4.58</v>
+        <v>2.93</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>27/08/2023 12:42</t>
+          <t>27/08/2023 17:12</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>3.7</v>
+        <v>2.88</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>03/09/2023 13:27</t>
+          <t>03/09/2023 13:04</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-hannover/zyA2QCuE/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-elversberg/djbBOjAQ/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>1.43</v>
+        <v>1.72</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.47</v>
+        <v>2.03</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>03/09/2023 13:28</t>
+          <t>03/09/2023 13:27</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>5.19</v>
+        <v>4.27</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>4.91</v>
+        <v>3.76</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>03/09/2023 13:28</t>
+          <t>03/09/2023 13:18</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>7.01</v>
+        <v>4.58</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>6.7</v>
+        <v>3.7</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>03/09/2023 13:28</t>
+          <t>03/09/2023 13:27</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-hansa-rostock/YcA45B3l/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-hannover/zyA2QCuE/</t>
         </is>
       </c>
     </row>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Hansa Rostock</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Elversberg</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
       <c r="J46" t="n">
-        <v>2.35</v>
+        <v>1.43</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>27/08/2023 17:12</t>
+          <t>27/08/2023 12:42</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.32</v>
+        <v>1.47</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>03/09/2023 13:02</t>
+          <t>03/09/2023 13:28</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.78</v>
+        <v>5.19</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>27/08/2023 17:12</t>
+          <t>27/08/2023 12:42</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>4.01</v>
+        <v>4.91</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>03/09/2023 13:04</t>
+          <t>03/09/2023 13:28</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>2.93</v>
+        <v>7.01</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>27/08/2023 17:12</t>
+          <t>27/08/2023 12:42</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>2.88</v>
+        <v>6.7</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>03/09/2023 13:04</t>
+          <t>03/09/2023 13:28</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-elversberg/djbBOjAQ/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-hansa-rostock/YcA45B3l/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>1.95</v>
+        <v>3.89</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.03</v>
+        <v>3.78</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>16/09/2023 12:58</t>
+          <t>16/09/2023 12:59</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.85</v>
+        <v>4.26</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.64</v>
+        <v>4.17</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.72</v>
+        <v>1.85</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>3.83</v>
+        <v>1.9</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-kaiserslautern/Kl3jFnXC/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-hamburger/6ux9XTns/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J50" t="n">
-        <v>3.89</v>
+        <v>3.01</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>3.78</v>
+        <v>3.37</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>4.26</v>
+        <v>3.39</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>4.17</v>
+        <v>3.45</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="R50" t="n">
-        <v>1.85</v>
+        <v>2.43</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>1.9</v>
+        <v>2.26</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-hamburger/6ux9XTns/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-dusseldorf/zcowwjPJ/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,14 +5089,14 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>3.01</v>
+        <v>1.95</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,48 +5104,48 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>3.37</v>
+        <v>2.03</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
+          <t>16/09/2023 12:58</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>04/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
           <t>16/09/2023 12:59</t>
         </is>
       </c>
-      <c r="N51" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="O51" t="inlineStr">
+      <c r="R51" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="S51" t="inlineStr">
         <is>
           <t>04/09/2023 08:42</t>
         </is>
       </c>
-      <c r="P51" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q51" t="inlineStr">
+      <c r="T51" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="U51" t="inlineStr">
         <is>
           <t>16/09/2023 12:59</t>
         </is>
       </c>
-      <c r="R51" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>04/09/2023 08:42</t>
-        </is>
-      </c>
-      <c r="T51" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>16/09/2023 12:59</t>
-        </is>
-      </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-dusseldorf/zcowwjPJ/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-kaiserslautern/Kl3jFnXC/</t>
         </is>
       </c>
     </row>
@@ -5725,30 +5725,30 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.69</v>
+        <v>2.57</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
@@ -5756,31 +5756,31 @@
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.55</v>
+        <v>3.76</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.59</v>
+        <v>3.72</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>23/09/2023 12:56</t>
+          <t>23/09/2023 12:51</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.06</v>
+        <v>2.83</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-nurnberg/8ALxRqWO/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-elversberg/bZ0nomHt/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>16/09/2023 12:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.4</v>
+        <v>2.69</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>23/09/2023 12:51</t>
+          <t>23/09/2023 12:52</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.72</v>
+        <v>3.55</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>16/09/2023 12:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.74</v>
+        <v>3.59</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>23/09/2023 12:51</t>
+          <t>23/09/2023 12:56</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>3.08</v>
+        <v>3.06</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>16/09/2023 12:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.91</v>
+        <v>2.65</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>23/09/2023 12:51</t>
+          <t>23/09/2023 12:52</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-karlsruher/UJMYRPGI/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-nurnberg/8ALxRqWO/</t>
         </is>
       </c>
     </row>
@@ -5909,46 +5909,46 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J60" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>16/09/2023 12:13</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.57</v>
+        <v>2.4</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>23/09/2023 12:52</t>
+          <t>23/09/2023 12:51</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.76</v>
+        <v>3.72</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>16/09/2023 12:13</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.72</v>
+        <v>3.74</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5956,24 +5956,24 @@
         </is>
       </c>
       <c r="R60" t="n">
-        <v>2.83</v>
+        <v>3.08</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>16/09/2023 12:13</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.7</v>
+        <v>2.91</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>23/09/2023 12:52</t>
+          <t>23/09/2023 12:51</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-elversberg/bZ0nomHt/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-karlsruher/UJMYRPGI/</t>
         </is>
       </c>
     </row>
@@ -6093,71 +6093,71 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="G62" t="n">
+        <v>2</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
         <v>3</v>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Hansa Rostock</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
       <c r="J62" t="n">
-        <v>1.99</v>
+        <v>2.42</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.11</v>
+        <v>2.29</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>24/09/2023 13:22</t>
+          <t>24/09/2023 13:20</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.65</v>
+        <v>3.72</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.37</v>
+        <v>3.94</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>24/09/2023 13:24</t>
+          <t>24/09/2023 13:29</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="T62" t="n">
-        <v>3.88</v>
+        <v>2.97</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>24/09/2023 13:24</t>
+          <t>24/09/2023 13:20</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-hansa-rostock/YiTPTon6/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-hertha-berlin/vVTLURWa/</t>
         </is>
       </c>
     </row>
@@ -6185,71 +6185,71 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>2.42</v>
+        <v>1.99</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.29</v>
+        <v>2.11</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>24/09/2023 13:20</t>
+          <t>24/09/2023 13:22</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.72</v>
+        <v>3.65</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.94</v>
+        <v>3.37</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>24/09/2023 13:29</t>
+          <t>24/09/2023 13:24</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>2.97</v>
+        <v>3.88</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>24/09/2023 13:20</t>
+          <t>24/09/2023 13:24</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-hertha-berlin/vVTLURWa/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-hansa-rostock/YiTPTon6/</t>
         </is>
       </c>
     </row>
@@ -6369,30 +6369,30 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="G65" t="n">
+        <v>3</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Schalke</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
         <v>1</v>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Dusseldorf</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
       <c r="J65" t="n">
-        <v>1.74</v>
+        <v>2.39</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.97</v>
+        <v>2.13</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
@@ -6400,15 +6400,15 @@
         </is>
       </c>
       <c r="N65" t="n">
-        <v>4.51</v>
+        <v>3.85</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>4.13</v>
+        <v>3.95</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -6416,15 +6416,15 @@
         </is>
       </c>
       <c r="R65" t="n">
-        <v>4.21</v>
+        <v>2.78</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>3.58</v>
+        <v>3.27</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-dusseldorf/KlkeqRog/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-schalke/EP3bro1a/</t>
         </is>
       </c>
     </row>
@@ -6461,30 +6461,30 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>2.39</v>
+        <v>1.74</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.13</v>
+        <v>1.97</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -6492,15 +6492,15 @@
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.85</v>
+        <v>4.51</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.95</v>
+        <v>4.13</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -6508,15 +6508,15 @@
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.78</v>
+        <v>4.21</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>3.27</v>
+        <v>3.58</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-schalke/EP3bro1a/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-dusseldorf/KlkeqRog/</t>
         </is>
       </c>
     </row>
@@ -6553,71 +6553,71 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.78</v>
+        <v>2.18</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>30/09/2023 12:59</t>
+          <t>30/09/2023 12:51</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>4.2</v>
+        <v>3.58</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>4.17</v>
+        <v>3.56</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>30/09/2023 12:59</t>
+          <t>30/09/2023 12:57</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>4.66</v>
+        <v>3.53</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>4.4</v>
+        <v>3.41</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>30/09/2023 12:59</t>
+          <t>30/09/2023 12:38</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-wehen/zuh7tPVB/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-braunschweig/lrdBuqoI/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>2.1</v>
+        <v>1.84</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.18</v>
+        <v>1.82</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>30/09/2023 12:51</t>
+          <t>30/09/2023 12:59</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.58</v>
+        <v>4.23</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,32 +6684,32 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.56</v>
+        <v>4.27</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
+          <t>30/09/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>24/09/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
           <t>30/09/2023 12:57</t>
         </is>
       </c>
-      <c r="R68" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>24/09/2023 12:42</t>
-        </is>
-      </c>
-      <c r="T68" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>30/09/2023 12:38</t>
-        </is>
-      </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-braunschweig/lrdBuqoI/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-holstein-kiel/hG22s5G5/</t>
         </is>
       </c>
     </row>
@@ -6737,30 +6737,30 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="G69" t="n">
+        <v>2</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Wehen</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Holstein Kiel</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>2</v>
-      </c>
       <c r="J69" t="n">
-        <v>1.84</v>
+        <v>1.69</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
@@ -6768,15 +6768,15 @@
         </is>
       </c>
       <c r="N69" t="n">
-        <v>4.23</v>
+        <v>4.2</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>4.27</v>
+        <v>4.17</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -6784,24 +6784,24 @@
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.83</v>
+        <v>4.66</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>4.05</v>
+        <v>4.4</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>30/09/2023 12:57</t>
+          <t>30/09/2023 12:59</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-holstein-kiel/hG22s5G5/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-wehen/zuh7tPVB/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,22 +7389,22 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>4.37</v>
+        <v>1.78</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>30/09/2023 12:14</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>4.07</v>
+        <v>1.79</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
@@ -7412,40 +7412,40 @@
         </is>
       </c>
       <c r="N76" t="n">
-        <v>4.31</v>
+        <v>3.95</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>30/09/2023 12:14</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>4.43</v>
+        <v>3.79</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>07/10/2023 12:21</t>
+          <t>07/10/2023 12:59</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>1.72</v>
+        <v>4.59</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>30/09/2023 12:14</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>1.82</v>
+        <v>4.84</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>07/10/2023 12:58</t>
+          <t>07/10/2023 12:59</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-hamburger/UaxRZDEd/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-hansa-rostock/YXrIyzpp/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,14 +7481,14 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1.78</v>
+        <v>2.26</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.79</v>
+        <v>2.52</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.95</v>
+        <v>3.86</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.79</v>
+        <v>3.7</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         </is>
       </c>
       <c r="R77" t="n">
-        <v>4.59</v>
+        <v>2.97</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>4.84</v>
+        <v>2.72</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>07/10/2023 12:59</t>
+          <t>07/10/2023 12:33</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-hansa-rostock/YXrIyzpp/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-karlsruher/d8Llg2FH/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,22 +7573,22 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>2.26</v>
+        <v>4.37</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 12:14</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.52</v>
+        <v>4.07</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
@@ -7596,40 +7596,40 @@
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.86</v>
+        <v>4.31</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 12:14</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.7</v>
+        <v>4.43</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>07/10/2023 12:59</t>
+          <t>07/10/2023 12:21</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>2.97</v>
+        <v>1.72</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 12:14</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.72</v>
+        <v>1.82</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>07/10/2023 12:33</t>
+          <t>07/10/2023 12:58</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-karlsruher/d8Llg2FH/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-hamburger/UaxRZDEd/</t>
         </is>
       </c>
     </row>
@@ -7998,6 +7998,190 @@
       <c r="V82" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-hertha-berlin/0MPTcQ0n/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45219.77083333334</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Elversberg</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>3</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Braunschweig</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>10/10/2023 11:42</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>20/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>10/10/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>20/10/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>10/10/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>20/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-braunschweig/YgKhlDTk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45219.77083333334</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Hannover</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>2</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Magdeburg</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>2</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>20/10/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>20/10/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>20/10/2023 18:27</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-magdeburg/zJvIfFjM/</t>
         </is>
       </c>
     </row>

--- a/2023/germany_2-bundesliga_2023-2024.xlsx
+++ b/2023/germany_2-bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V84"/>
+  <dimension ref="A1:V87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>1.72</v>
+        <v>1.43</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.03</v>
+        <v>1.47</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>03/09/2023 13:27</t>
+          <t>03/09/2023 13:28</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>4.27</v>
+        <v>5.19</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.76</v>
+        <v>4.91</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>03/09/2023 13:18</t>
+          <t>03/09/2023 13:28</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>4.58</v>
+        <v>7.01</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>3.7</v>
+        <v>6.7</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>03/09/2023 13:27</t>
+          <t>03/09/2023 13:28</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-hannover/zyA2QCuE/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-hansa-rostock/YcA45B3l/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
-        <v>1.43</v>
+        <v>1.72</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.47</v>
+        <v>2.03</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>03/09/2023 13:28</t>
+          <t>03/09/2023 13:27</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>5.19</v>
+        <v>4.27</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>4.91</v>
+        <v>3.76</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>03/09/2023 13:28</t>
+          <t>03/09/2023 13:18</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>7.01</v>
+        <v>4.58</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>6.7</v>
+        <v>3.7</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>03/09/2023 13:28</t>
+          <t>03/09/2023 13:27</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-hansa-rostock/YcA45B3l/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-hannover/zyA2QCuE/</t>
         </is>
       </c>
     </row>
@@ -5541,30 +5541,30 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>2.1</v>
+        <v>4.21</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>16/09/2023 19:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2.17</v>
+        <v>4.94</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5572,31 +5572,31 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.95</v>
+        <v>4.28</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>16/09/2023 19:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>4</v>
+        <v>4.72</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>22/09/2023 18:26</t>
+          <t>22/09/2023 18:29</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>3.23</v>
+        <v>1.75</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>16/09/2023 19:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="T56" t="n">
-        <v>3.14</v>
+        <v>1.62</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-paderborn/CrSTS51C/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-hamburger/MD9KkT8P/</t>
         </is>
       </c>
     </row>
@@ -5633,30 +5633,30 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>4.21</v>
+        <v>2.1</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>16/09/2023 19:43</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>4.94</v>
+        <v>2.17</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
@@ -5664,40 +5664,40 @@
         </is>
       </c>
       <c r="N57" t="n">
-        <v>4.28</v>
+        <v>3.95</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>16/09/2023 19:43</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>4.72</v>
+        <v>4</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
+          <t>22/09/2023 18:26</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>16/09/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
           <t>22/09/2023 18:29</t>
         </is>
       </c>
-      <c r="R57" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>17/09/2023 16:13</t>
-        </is>
-      </c>
-      <c r="T57" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>22/09/2023 18:29</t>
-        </is>
-      </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-hamburger/MD9KkT8P/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-paderborn/CrSTS51C/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J59" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>16/09/2023 12:13</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.69</v>
+        <v>2.4</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>23/09/2023 12:52</t>
+          <t>23/09/2023 12:51</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.55</v>
+        <v>3.72</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>16/09/2023 12:13</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.59</v>
+        <v>3.74</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>23/09/2023 12:56</t>
+          <t>23/09/2023 12:51</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>3.06</v>
+        <v>3.08</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>16/09/2023 12:13</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.65</v>
+        <v>2.91</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>23/09/2023 12:52</t>
+          <t>23/09/2023 12:51</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-nurnberg/8ALxRqWO/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-karlsruher/UJMYRPGI/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>16/09/2023 12:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.4</v>
+        <v>2.69</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>23/09/2023 12:51</t>
+          <t>23/09/2023 12:52</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.72</v>
+        <v>3.55</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>16/09/2023 12:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.74</v>
+        <v>3.59</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>23/09/2023 12:51</t>
+          <t>23/09/2023 12:56</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>3.08</v>
+        <v>3.06</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>16/09/2023 12:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.91</v>
+        <v>2.65</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>23/09/2023 12:51</t>
+          <t>23/09/2023 12:52</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-karlsruher/UJMYRPGI/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-nurnberg/8ALxRqWO/</t>
         </is>
       </c>
     </row>
@@ -6093,71 +6093,71 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>2.42</v>
+        <v>1.71</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.29</v>
+        <v>1.98</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>24/09/2023 13:20</t>
+          <t>24/09/2023 13:27</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.72</v>
+        <v>4.24</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.94</v>
+        <v>3.87</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>24/09/2023 13:29</t>
+          <t>24/09/2023 13:28</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>2.8</v>
+        <v>4.47</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="T62" t="n">
-        <v>2.97</v>
+        <v>3.78</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>24/09/2023 13:20</t>
+          <t>24/09/2023 13:27</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-hertha-berlin/vVTLURWa/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-hannover/pWzDWm2m/</t>
         </is>
       </c>
     </row>
@@ -6185,71 +6185,71 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="G63" t="n">
+        <v>2</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
         <v>3</v>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Hansa Rostock</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
       <c r="J63" t="n">
-        <v>1.99</v>
+        <v>2.42</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.11</v>
+        <v>2.29</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>24/09/2023 13:22</t>
+          <t>24/09/2023 13:20</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.65</v>
+        <v>3.72</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.37</v>
+        <v>3.94</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>24/09/2023 13:24</t>
+          <t>24/09/2023 13:29</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>3.88</v>
+        <v>2.97</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>24/09/2023 13:24</t>
+          <t>24/09/2023 13:20</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-hansa-rostock/YiTPTon6/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-hertha-berlin/vVTLURWa/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="I64" t="n">
         <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>1.71</v>
+        <v>1.99</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.98</v>
+        <v>2.11</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>24/09/2023 13:27</t>
+          <t>24/09/2023 13:22</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>4.24</v>
+        <v>3.65</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.87</v>
+        <v>3.37</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>24/09/2023 13:28</t>
+          <t>24/09/2023 13:24</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>4.47</v>
+        <v>3.9</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>3.78</v>
+        <v>3.88</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>24/09/2023 13:27</t>
+          <t>24/09/2023 13:24</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-hannover/pWzDWm2m/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-hansa-rostock/YiTPTon6/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J67" t="n">
-        <v>2.1</v>
+        <v>1.84</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.18</v>
+        <v>1.82</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>30/09/2023 12:51</t>
+          <t>30/09/2023 12:59</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.58</v>
+        <v>4.23</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,32 +6592,32 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.56</v>
+        <v>4.27</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
+          <t>30/09/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>24/09/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
           <t>30/09/2023 12:57</t>
         </is>
       </c>
-      <c r="R67" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>24/09/2023 12:42</t>
-        </is>
-      </c>
-      <c r="T67" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>30/09/2023 12:38</t>
-        </is>
-      </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-braunschweig/lrdBuqoI/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-holstein-kiel/hG22s5G5/</t>
         </is>
       </c>
     </row>
@@ -6645,30 +6645,30 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="G68" t="n">
+        <v>2</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Wehen</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Holstein Kiel</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
-        <v>2</v>
-      </c>
       <c r="J68" t="n">
-        <v>1.84</v>
+        <v>1.69</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
@@ -6676,15 +6676,15 @@
         </is>
       </c>
       <c r="N68" t="n">
-        <v>4.23</v>
+        <v>4.2</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>4.27</v>
+        <v>4.17</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -6692,24 +6692,24 @@
         </is>
       </c>
       <c r="R68" t="n">
-        <v>3.83</v>
+        <v>4.66</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>4.05</v>
+        <v>4.4</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>30/09/2023 12:57</t>
+          <t>30/09/2023 12:59</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-holstein-kiel/hG22s5G5/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-wehen/zuh7tPVB/</t>
         </is>
       </c>
     </row>
@@ -6737,71 +6737,71 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.78</v>
+        <v>2.18</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>30/09/2023 12:59</t>
+          <t>30/09/2023 12:51</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>4.2</v>
+        <v>3.58</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>4.17</v>
+        <v>3.56</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>30/09/2023 12:59</t>
+          <t>30/09/2023 12:57</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>4.66</v>
+        <v>3.53</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>4.4</v>
+        <v>3.41</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>30/09/2023 12:59</t>
+          <t>30/09/2023 12:38</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-wehen/zuh7tPVB/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-braunschweig/lrdBuqoI/</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -6929,63 +6929,63 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>2.7</v>
+        <v>2.44</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.48</v>
+        <v>2.27</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>01/10/2023 13:24</t>
+          <t>01/10/2023 13:30</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.76</v>
+        <v>3.7</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.64</v>
+        <v>3.79</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>01/10/2023 13:27</t>
+          <t>01/10/2023 13:29</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>2.49</v>
+        <v>2.85</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="T71" t="n">
-        <v>2.86</v>
+        <v>3.09</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>01/10/2023 13:16</t>
+          <t>01/10/2023 13:30</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-greuther-furth/MefJwNFU/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-magdeburg/r5eFv30O/</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -7021,63 +7021,63 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>2.44</v>
+        <v>2.7</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.27</v>
+        <v>2.48</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>01/10/2023 13:30</t>
+          <t>01/10/2023 13:24</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.7</v>
+        <v>3.76</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.79</v>
+        <v>3.64</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>01/10/2023 13:29</t>
+          <t>01/10/2023 13:27</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>2.85</v>
+        <v>2.49</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="T72" t="n">
-        <v>3.09</v>
+        <v>2.86</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>01/10/2023 13:30</t>
+          <t>01/10/2023 13:16</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-magdeburg/r5eFv30O/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-greuther-furth/MefJwNFU/</t>
         </is>
       </c>
     </row>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -7757,63 +7757,63 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J80" t="n">
-        <v>2.03</v>
+        <v>2.69</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>2.1</v>
+        <v>2.89</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
+          <t>08/10/2023 13:27</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>30/09/2023 12:43</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
           <t>08/10/2023 13:28</t>
         </is>
       </c>
-      <c r="N80" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>01/10/2023 12:43</t>
-        </is>
-      </c>
-      <c r="P80" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>08/10/2023 13:28</t>
-        </is>
-      </c>
       <c r="R80" t="n">
-        <v>3.39</v>
+        <v>2.58</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>3.36</v>
+        <v>2.48</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>08/10/2023 13:28</t>
+          <t>08/10/2023 13:27</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-elversberg/lrIteOp5/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-paderborn/GdYMzfaj/</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -7849,38 +7849,38 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>2.69</v>
+        <v>2.03</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>2.89</v>
+        <v>2.1</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>08/10/2023 13:27</t>
+          <t>08/10/2023 13:28</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.59</v>
+        <v>3.95</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.59</v>
+        <v>3.93</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -7888,24 +7888,24 @@
         </is>
       </c>
       <c r="R81" t="n">
-        <v>2.58</v>
+        <v>3.39</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="T81" t="n">
-        <v>2.48</v>
+        <v>3.36</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>08/10/2023 13:27</t>
+          <t>08/10/2023 13:28</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-paderborn/GdYMzfaj/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-elversberg/lrIteOp5/</t>
         </is>
       </c>
     </row>
@@ -8182,6 +8182,282 @@
       <c r="V84" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-magdeburg/zJvIfFjM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45220.54166666666</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>2</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>St. Pauli</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>2</v>
+      </c>
+      <c r="J85" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:45</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:55</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:52</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-st-pauli/25tAdyM9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45220.54166666666</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>2</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Greuther Furth</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:24</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:25</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:24</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-greuther-furth/r3Q8bcic/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45220.54166666666</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>VfL Osnabruck</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Wehen</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>2</v>
+      </c>
+      <c r="J87" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>10/10/2023 11:42</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:57</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>10/10/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:57</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>10/10/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:58</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-wehen/2TOdmXrd/</t>
         </is>
       </c>
     </row>

--- a/2023/germany_2-bundesliga_2023-2024.xlsx
+++ b/2023/germany_2-bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V87"/>
+  <dimension ref="A1:V88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,22 +757,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.22</v>
+        <v>2.75</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,15 +780,15 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>3.09</v>
+        <v>3.19</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>29/07/2023 12:33</t>
+          <t>29/07/2023 12:59</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.69</v>
+        <v>3.58</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -796,15 +796,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.75</v>
+        <v>3.84</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>29/07/2023 12:58</t>
+          <t>29/07/2023 12:59</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.18</v>
+        <v>2.52</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>29/07/2023 12:33</t>
+          <t>29/07/2023 12:59</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-magdeburg/x0US8naJ/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-karlsruher/OdQO9SqD/</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -857,14 +857,14 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>2.75</v>
+        <v>1.98</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3.19</v>
+        <v>1.96</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>29/07/2023 12:59</t>
+          <t>29/07/2023 12:58</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.58</v>
+        <v>3.78</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.84</v>
+        <v>4.09</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>29/07/2023 12:59</t>
+          <t>29/07/2023 12:58</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.52</v>
+        <v>3.7</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>2.2</v>
+        <v>3.65</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>29/07/2023 12:59</t>
+          <t>29/07/2023 12:58</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-karlsruher/OdQO9SqD/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-elversberg/pWdGDApl/</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.98</v>
+        <v>3.22</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,48 +964,48 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.96</v>
+        <v>3.09</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
+          <t>29/07/2023 12:33</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>08/07/2023 18:28</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
           <t>29/07/2023 12:58</t>
         </is>
       </c>
-      <c r="N6" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="R6" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>08/07/2023 18:28</t>
         </is>
       </c>
-      <c r="P6" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>29/07/2023 12:58</t>
-        </is>
-      </c>
-      <c r="R6" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>08/07/2023 18:28</t>
-        </is>
-      </c>
       <c r="T6" t="n">
-        <v>3.65</v>
+        <v>2.28</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>29/07/2023 12:58</t>
+          <t>29/07/2023 12:33</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-elversberg/pWdGDApl/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-magdeburg/x0US8naJ/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,14 +1961,14 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>2.93</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1980,11 +1980,11 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>06/08/2023 13:26</t>
+          <t>06/08/2023 13:27</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.78</v>
+        <v>3.97</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.45</v>
+        <v>4.14</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3.73</v>
+        <v>2.28</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.98</v>
+        <v>2.62</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>06/08/2023 13:29</t>
+          <t>06/08/2023 13:28</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-hannover/bJ8FdsLG/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-hamburger/O0G2aqyb/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>2.93</v>
+        <v>2</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2164,11 +2164,11 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>06/08/2023 13:27</t>
+          <t>06/08/2023 13:26</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.97</v>
+        <v>3.78</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>4.14</v>
+        <v>3.45</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.28</v>
+        <v>3.73</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.62</v>
+        <v>2.98</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>06/08/2023 13:28</t>
+          <t>06/08/2023 13:29</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-hamburger/O0G2aqyb/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-hannover/bJ8FdsLG/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.08</v>
+        <v>3.6</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.25</v>
+        <v>2.83</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.81</v>
+        <v>3.89</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         </is>
       </c>
       <c r="R20" t="n">
-        <v>3.38</v>
+        <v>1.98</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>3.19</v>
+        <v>2.5</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-elversberg/x4txErji/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-karlsruher/Knxc9K4M/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>3.6</v>
+        <v>2.08</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.83</v>
+        <v>2.25</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.89</v>
+        <v>3.81</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="R21" t="n">
-        <v>1.98</v>
+        <v>3.38</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.5</v>
+        <v>3.19</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-karlsruher/Knxc9K4M/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-elversberg/x4txErji/</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,14 +2421,14 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>2.1</v>
+        <v>2.36</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.05</v>
+        <v>2.52</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>19/08/2023 12:25</t>
+          <t>19/08/2023 12:59</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.83</v>
+        <v>3.59</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.93</v>
+        <v>3.5</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>19/08/2023 12:25</t>
+          <t>19/08/2023 12:59</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.38</v>
+        <v>2.96</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.49</v>
+        <v>2.91</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>19/08/2023 12:25</t>
+          <t>19/08/2023 12:59</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-paderborn/CQljjubp/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-hannover/YVZpCMK3/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2.36</v>
+        <v>2.64</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>19/08/2023 12:59</t>
+          <t>19/08/2023 12:53</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.59</v>
+        <v>3.49</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2548,11 +2548,11 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>19/08/2023 12:59</t>
+          <t>19/08/2023 12:53</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.96</v>
+        <v>2.73</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.91</v>
+        <v>2.84</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>19/08/2023 12:59</t>
+          <t>19/08/2023 12:53</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-hannover/YVZpCMK3/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-st-pauli/GfutD25c/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>2.64</v>
+        <v>2.1</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,48 +2620,48 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.56</v>
+        <v>2.05</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>19/08/2023 12:53</t>
+          <t>19/08/2023 12:25</t>
         </is>
       </c>
       <c r="N24" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>11/08/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>19/08/2023 12:25</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>11/08/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
         <v>3.49</v>
       </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>11/08/2023 13:42</t>
-        </is>
-      </c>
-      <c r="P24" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>19/08/2023 12:53</t>
-        </is>
-      </c>
-      <c r="R24" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>11/08/2023 13:42</t>
-        </is>
-      </c>
-      <c r="T24" t="n">
-        <v>2.84</v>
-      </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>19/08/2023 12:53</t>
+          <t>19/08/2023 12:25</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-st-pauli/GfutD25c/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-paderborn/CQljjubp/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>1.43</v>
+        <v>1.72</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.47</v>
+        <v>2.03</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>03/09/2023 13:28</t>
+          <t>03/09/2023 13:27</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>5.19</v>
+        <v>4.27</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>4.91</v>
+        <v>3.76</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>03/09/2023 13:28</t>
+          <t>03/09/2023 13:18</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>7.01</v>
+        <v>4.58</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>6.7</v>
+        <v>3.7</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>03/09/2023 13:28</t>
+          <t>03/09/2023 13:27</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-hansa-rostock/YcA45B3l/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-hannover/zyA2QCuE/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1.72</v>
+        <v>1.43</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.03</v>
+        <v>1.47</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>03/09/2023 13:27</t>
+          <t>03/09/2023 13:28</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>4.27</v>
+        <v>5.19</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.76</v>
+        <v>4.91</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>03/09/2023 13:18</t>
+          <t>03/09/2023 13:28</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>4.58</v>
+        <v>7.01</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>3.7</v>
+        <v>6.7</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>03/09/2023 13:27</t>
+          <t>03/09/2023 13:28</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-hannover/zyA2QCuE/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-hansa-rostock/YcA45B3l/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>16/09/2023 12:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.4</v>
+        <v>2.69</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>23/09/2023 12:51</t>
+          <t>23/09/2023 12:52</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.72</v>
+        <v>3.55</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>16/09/2023 12:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.74</v>
+        <v>3.59</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>23/09/2023 12:51</t>
+          <t>23/09/2023 12:56</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>3.08</v>
+        <v>3.06</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>16/09/2023 12:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.91</v>
+        <v>2.65</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>23/09/2023 12:51</t>
+          <t>23/09/2023 12:52</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-karlsruher/UJMYRPGI/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-nurnberg/8ALxRqWO/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J60" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>16/09/2023 12:13</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.69</v>
+        <v>2.4</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>23/09/2023 12:52</t>
+          <t>23/09/2023 12:51</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.55</v>
+        <v>3.72</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>16/09/2023 12:13</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.59</v>
+        <v>3.74</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>23/09/2023 12:56</t>
+          <t>23/09/2023 12:51</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>3.06</v>
+        <v>3.08</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>16/09/2023 12:13</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.65</v>
+        <v>2.91</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>23/09/2023 12:52</t>
+          <t>23/09/2023 12:51</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-nurnberg/8ALxRqWO/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-karlsruher/UJMYRPGI/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="G67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Braunschweig</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Holstein Kiel</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
-        <v>2</v>
-      </c>
       <c r="J67" t="n">
-        <v>1.84</v>
+        <v>2.1</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.82</v>
+        <v>2.18</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>30/09/2023 12:59</t>
+          <t>30/09/2023 12:51</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>4.23</v>
+        <v>3.58</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>4.27</v>
+        <v>3.56</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>30/09/2023 12:59</t>
+          <t>30/09/2023 12:57</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>3.83</v>
+        <v>3.53</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>4.05</v>
+        <v>3.41</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>30/09/2023 12:57</t>
+          <t>30/09/2023 12:38</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-holstein-kiel/hG22s5G5/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-braunschweig/lrdBuqoI/</t>
         </is>
       </c>
     </row>
@@ -6645,30 +6645,30 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Holstein Kiel</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
         <v>2</v>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Wehen</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
       <c r="J68" t="n">
-        <v>1.69</v>
+        <v>1.84</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
@@ -6676,15 +6676,15 @@
         </is>
       </c>
       <c r="N68" t="n">
-        <v>4.2</v>
+        <v>4.23</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>4.17</v>
+        <v>4.27</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -6692,24 +6692,24 @@
         </is>
       </c>
       <c r="R68" t="n">
-        <v>4.66</v>
+        <v>3.83</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>4.4</v>
+        <v>4.05</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>30/09/2023 12:59</t>
+          <t>30/09/2023 12:57</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-wehen/zuh7tPVB/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-holstein-kiel/hG22s5G5/</t>
         </is>
       </c>
     </row>
@@ -6737,71 +6737,71 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>2.1</v>
+        <v>1.69</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.18</v>
+        <v>1.78</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>30/09/2023 12:51</t>
+          <t>30/09/2023 12:59</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.58</v>
+        <v>4.2</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.56</v>
+        <v>4.17</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>30/09/2023 12:57</t>
+          <t>30/09/2023 12:59</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.53</v>
+        <v>4.66</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>3.41</v>
+        <v>4.4</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>30/09/2023 12:38</t>
+          <t>30/09/2023 12:59</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-braunschweig/lrdBuqoI/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-wehen/zuh7tPVB/</t>
         </is>
       </c>
     </row>
@@ -8025,46 +8025,46 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.8</v>
+        <v>2.19</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>20/10/2023 18:12</t>
+          <t>20/10/2023 18:29</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>4.07</v>
+        <v>4.04</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>4.14</v>
+        <v>3.8</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -8072,24 +8072,24 @@
         </is>
       </c>
       <c r="R83" t="n">
-        <v>4</v>
+        <v>3.41</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>4.31</v>
+        <v>3.23</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>20/10/2023 18:12</t>
+          <t>20/10/2023 18:27</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-braunschweig/YgKhlDTk/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-magdeburg/zJvIfFjM/</t>
         </is>
       </c>
     </row>
@@ -8117,71 +8117,71 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.19</v>
+        <v>1.8</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
+          <t>20/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>10/10/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
           <t>20/10/2023 18:29</t>
         </is>
       </c>
-      <c r="N84" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>09/10/2023 16:12</t>
-        </is>
-      </c>
-      <c r="P84" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>20/10/2023 18:29</t>
-        </is>
-      </c>
       <c r="R84" t="n">
-        <v>3.41</v>
+        <v>4</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="T84" t="n">
-        <v>3.23</v>
+        <v>4.31</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>20/10/2023 18:27</t>
+          <t>20/10/2023 18:12</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-magdeburg/zJvIfFjM/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-braunschweig/YgKhlDTk/</t>
         </is>
       </c>
     </row>
@@ -8301,71 +8301,71 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Wehen</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
         <v>2</v>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Greuther Furth</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
       <c r="J86" t="n">
-        <v>1.58</v>
+        <v>2.15</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>21/10/2023 12:24</t>
+          <t>21/10/2023 12:57</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>4.69</v>
+        <v>3.81</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>4.46</v>
+        <v>3.81</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>21/10/2023 12:25</t>
+          <t>21/10/2023 12:57</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>5.08</v>
+        <v>3.21</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="T86" t="n">
-        <v>4.62</v>
+        <v>3.44</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>21/10/2023 12:24</t>
+          <t>21/10/2023 12:58</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-greuther-furth/r3Q8bcic/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-wehen/2TOdmXrd/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,163 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="G87" t="n">
+        <v>2</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Greuther Furth</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Wehen</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
-        <v>2</v>
-      </c>
       <c r="J87" t="n">
-        <v>2.15</v>
+        <v>1.58</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.1</v>
+        <v>1.69</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>21/10/2023 12:57</t>
+          <t>21/10/2023 12:24</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.81</v>
+        <v>4.69</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.81</v>
+        <v>4.46</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>21/10/2023 12:57</t>
+          <t>21/10/2023 12:25</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>3.21</v>
+        <v>5.08</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>3.44</v>
+        <v>4.62</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>21/10/2023 12:58</t>
+          <t>21/10/2023 12:24</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-wehen/2TOdmXrd/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-greuther-furth/r3Q8bcic/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45220.85416666666</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Dusseldorf</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>4</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Kaiserslautern</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>3</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>21/10/2023 20:11</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>21/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>21/10/2023 20:11</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-kaiserslautern/MgPCcH63/</t>
         </is>
       </c>
     </row>

--- a/2023/germany_2-bundesliga_2023-2024.xlsx
+++ b/2023/germany_2-bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V88"/>
+  <dimension ref="A1:V91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="G44" t="n">
+        <v>2</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Hansa Rostock</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Elversberg</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
       <c r="J44" t="n">
-        <v>2.35</v>
+        <v>1.43</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>27/08/2023 17:12</t>
+          <t>27/08/2023 12:42</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.32</v>
+        <v>1.47</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>03/09/2023 13:02</t>
+          <t>03/09/2023 13:28</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.78</v>
+        <v>5.19</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>27/08/2023 17:12</t>
+          <t>27/08/2023 12:42</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>4.01</v>
+        <v>4.91</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>03/09/2023 13:04</t>
+          <t>03/09/2023 13:28</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.93</v>
+        <v>7.01</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>27/08/2023 17:12</t>
+          <t>27/08/2023 12:42</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.88</v>
+        <v>6.7</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>03/09/2023 13:04</t>
+          <t>03/09/2023 13:28</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-elversberg/djbBOjAQ/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-hansa-rostock/YcA45B3l/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Elversberg</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>1</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Hannover</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>3</v>
-      </c>
       <c r="J45" t="n">
-        <v>1.72</v>
+        <v>2.35</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>27/08/2023 12:42</t>
+          <t>27/08/2023 17:12</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.03</v>
+        <v>2.32</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>03/09/2023 13:27</t>
+          <t>03/09/2023 13:02</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>4.27</v>
+        <v>3.78</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>27/08/2023 12:42</t>
+          <t>27/08/2023 17:12</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.76</v>
+        <v>4.01</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>03/09/2023 13:18</t>
+          <t>03/09/2023 13:04</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>4.58</v>
+        <v>2.93</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>27/08/2023 12:42</t>
+          <t>27/08/2023 17:12</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>3.7</v>
+        <v>2.88</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>03/09/2023 13:27</t>
+          <t>03/09/2023 13:04</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-hannover/zyA2QCuE/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-elversberg/djbBOjAQ/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
-        <v>1.43</v>
+        <v>1.72</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.47</v>
+        <v>2.03</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>03/09/2023 13:28</t>
+          <t>03/09/2023 13:27</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>5.19</v>
+        <v>4.27</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>4.91</v>
+        <v>3.76</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>03/09/2023 13:28</t>
+          <t>03/09/2023 13:18</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>7.01</v>
+        <v>4.58</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>6.7</v>
+        <v>3.7</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>03/09/2023 13:28</t>
+          <t>03/09/2023 13:27</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-hansa-rostock/YcA45B3l/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-hannover/zyA2QCuE/</t>
         </is>
       </c>
     </row>
@@ -5725,46 +5725,46 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J58" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>16/09/2023 12:13</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.57</v>
+        <v>2.4</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>23/09/2023 12:52</t>
+          <t>23/09/2023 12:51</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.76</v>
+        <v>3.72</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>16/09/2023 12:13</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.72</v>
+        <v>3.74</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5772,24 +5772,24 @@
         </is>
       </c>
       <c r="R58" t="n">
-        <v>2.83</v>
+        <v>3.08</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>16/09/2023 12:13</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>2.7</v>
+        <v>2.91</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>23/09/2023 12:52</t>
+          <t>23/09/2023 12:51</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-elversberg/bZ0nomHt/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-karlsruher/UJMYRPGI/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>2.24</v>
+        <v>2.38</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>16/09/2023 12:13</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.4</v>
+        <v>2.57</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
+          <t>23/09/2023 12:52</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>17/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
           <t>23/09/2023 12:51</t>
         </is>
       </c>
-      <c r="N60" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>16/09/2023 12:13</t>
-        </is>
-      </c>
-      <c r="P60" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>23/09/2023 12:51</t>
-        </is>
-      </c>
       <c r="R60" t="n">
-        <v>3.08</v>
+        <v>2.83</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>16/09/2023 12:13</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.91</v>
+        <v>2.7</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>23/09/2023 12:51</t>
+          <t>23/09/2023 12:52</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-karlsruher/UJMYRPGI/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-elversberg/bZ0nomHt/</t>
         </is>
       </c>
     </row>
@@ -6369,30 +6369,30 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>2.39</v>
+        <v>1.74</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.13</v>
+        <v>1.97</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
@@ -6400,15 +6400,15 @@
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.85</v>
+        <v>4.51</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.95</v>
+        <v>4.13</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -6416,15 +6416,15 @@
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.78</v>
+        <v>4.21</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>3.27</v>
+        <v>3.58</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-schalke/EP3bro1a/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-dusseldorf/KlkeqRog/</t>
         </is>
       </c>
     </row>
@@ -6461,30 +6461,30 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="G66" t="n">
+        <v>3</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Schalke</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
         <v>1</v>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Dusseldorf</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
       <c r="J66" t="n">
-        <v>1.74</v>
+        <v>2.39</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>1.97</v>
+        <v>2.13</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -6492,15 +6492,15 @@
         </is>
       </c>
       <c r="N66" t="n">
-        <v>4.51</v>
+        <v>3.85</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>4.13</v>
+        <v>3.95</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -6508,15 +6508,15 @@
         </is>
       </c>
       <c r="R66" t="n">
-        <v>4.21</v>
+        <v>2.78</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>3.58</v>
+        <v>3.27</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-dusseldorf/KlkeqRog/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-schalke/EP3bro1a/</t>
         </is>
       </c>
     </row>
@@ -6921,30 +6921,30 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J71" t="n">
-        <v>2.44</v>
+        <v>2.76</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.27</v>
+        <v>2.62</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
@@ -6952,31 +6952,31 @@
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.7</v>
+        <v>3.54</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.79</v>
+        <v>3.59</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>01/10/2023 13:29</t>
+          <t>01/10/2023 13:04</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>2.85</v>
+        <v>2.54</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="T71" t="n">
-        <v>3.09</v>
+        <v>2.73</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-magdeburg/r5eFv30O/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-kaiserslautern/MVQPb6ot/</t>
         </is>
       </c>
     </row>
@@ -7105,30 +7105,30 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>2.76</v>
+        <v>2.44</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.62</v>
+        <v>2.27</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
@@ -7136,31 +7136,31 @@
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.54</v>
+        <v>3.7</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.59</v>
+        <v>3.79</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>01/10/2023 13:04</t>
+          <t>01/10/2023 13:29</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>2.54</v>
+        <v>2.85</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="T73" t="n">
-        <v>2.73</v>
+        <v>3.09</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-kaiserslautern/MVQPb6ot/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-magdeburg/r5eFv30O/</t>
         </is>
       </c>
     </row>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -7757,63 +7757,63 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>2.69</v>
+        <v>2.14</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>30/09/2023 19:43</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>2.89</v>
+        <v>1.99</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>08/10/2023 13:27</t>
+          <t>08/10/2023 13:29</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.59</v>
+        <v>3.84</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>30/09/2023 19:43</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.59</v>
+        <v>3.97</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>08/10/2023 13:28</t>
+          <t>08/10/2023 13:29</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>2.58</v>
+        <v>3.3</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>30/09/2023 19:43</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>2.48</v>
+        <v>3.63</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>08/10/2023 13:27</t>
+          <t>08/10/2023 13:29</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-paderborn/GdYMzfaj/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-hertha-berlin/0MPTcQ0n/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,63 +7941,63 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J82" t="n">
-        <v>2.14</v>
+        <v>2.69</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>30/09/2023 19:43</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.99</v>
+        <v>2.89</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>08/10/2023 13:29</t>
+          <t>08/10/2023 13:27</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.84</v>
+        <v>3.59</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>30/09/2023 19:43</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.97</v>
+        <v>3.59</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>08/10/2023 13:29</t>
+          <t>08/10/2023 13:28</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>3.3</v>
+        <v>2.58</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>30/09/2023 19:43</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="T82" t="n">
-        <v>3.63</v>
+        <v>2.48</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>08/10/2023 13:29</t>
+          <t>08/10/2023 13:27</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-hertha-berlin/0MPTcQ0n/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-paderborn/GdYMzfaj/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.19</v>
+        <v>1.8</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
+          <t>20/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>10/10/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
           <t>20/10/2023 18:29</t>
         </is>
       </c>
-      <c r="N83" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>09/10/2023 16:12</t>
-        </is>
-      </c>
-      <c r="P83" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>20/10/2023 18:29</t>
-        </is>
-      </c>
       <c r="R83" t="n">
-        <v>3.41</v>
+        <v>4</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>3.23</v>
+        <v>4.31</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>20/10/2023 18:27</t>
+          <t>20/10/2023 18:12</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-magdeburg/zJvIfFjM/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-braunschweig/YgKhlDTk/</t>
         </is>
       </c>
     </row>
@@ -8117,46 +8117,46 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.8</v>
+        <v>2.19</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>20/10/2023 18:12</t>
+          <t>20/10/2023 18:29</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>4.07</v>
+        <v>4.04</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>4.14</v>
+        <v>3.8</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -8164,24 +8164,24 @@
         </is>
       </c>
       <c r="R84" t="n">
-        <v>4</v>
+        <v>3.41</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="T84" t="n">
-        <v>4.31</v>
+        <v>3.23</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>20/10/2023 18:12</t>
+          <t>20/10/2023 18:27</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-braunschweig/YgKhlDTk/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-magdeburg/zJvIfFjM/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>2.81</v>
+        <v>1.58</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>3.45</v>
+        <v>1.69</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>21/10/2023 12:45</t>
+          <t>21/10/2023 12:24</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.7</v>
+        <v>4.69</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.84</v>
+        <v>4.46</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>21/10/2023 12:55</t>
+          <t>21/10/2023 12:25</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.42</v>
+        <v>5.08</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.09</v>
+        <v>4.62</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>21/10/2023 12:52</t>
+          <t>21/10/2023 12:24</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-st-pauli/25tAdyM9/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-greuther-furth/r3Q8bcic/</t>
         </is>
       </c>
     </row>
@@ -8301,71 +8301,71 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>2</v>
       </c>
       <c r="J86" t="n">
-        <v>2.15</v>
+        <v>2.81</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.1</v>
+        <v>3.45</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>21/10/2023 12:57</t>
+          <t>21/10/2023 12:45</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.81</v>
+        <v>3.7</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.81</v>
+        <v>3.84</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>21/10/2023 12:57</t>
+          <t>21/10/2023 12:55</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>3.21</v>
+        <v>2.42</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="T86" t="n">
-        <v>3.44</v>
+        <v>2.09</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>21/10/2023 12:58</t>
+          <t>21/10/2023 12:52</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-wehen/2TOdmXrd/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-st-pauli/25tAdyM9/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Wehen</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
         <v>2</v>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Greuther Furth</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
       <c r="J87" t="n">
-        <v>1.58</v>
+        <v>2.15</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>21/10/2023 12:24</t>
+          <t>21/10/2023 12:57</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>4.69</v>
+        <v>3.81</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>4.46</v>
+        <v>3.81</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>21/10/2023 12:25</t>
+          <t>21/10/2023 12:57</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>5.08</v>
+        <v>3.21</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>4.62</v>
+        <v>3.44</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>21/10/2023 12:24</t>
+          <t>21/10/2023 12:58</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-greuther-furth/r3Q8bcic/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-wehen/2TOdmXrd/</t>
         </is>
       </c>
     </row>
@@ -8550,6 +8550,282 @@
       <c r="V88" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-kaiserslautern/MgPCcH63/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45221.5625</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Karlsruher SC</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>3</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Schalke</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>10/10/2023 11:42</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:29</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>10/10/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:29</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>10/10/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:29</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-schalke/tduEeeyG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45221.5625</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Hansa Rostock</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Holstein Kiel</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>3</v>
+      </c>
+      <c r="J90" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:29</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:29</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:29</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-holstein-kiel/lMrMgZ5S/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45221.5625</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Nurnberg</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>3</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>10/10/2023 11:42</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:28</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>10/10/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:28</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>10/10/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:28</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-hertha-berlin/f3LlkgEq/</t>
         </is>
       </c>
     </row>

--- a/2023/germany_2-bundesliga_2023-2024.xlsx
+++ b/2023/germany_2-bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V91"/>
+  <dimension ref="A1:V100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,22 +757,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>2.75</v>
+        <v>3.22</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,15 +780,15 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>3.19</v>
+        <v>3.09</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>29/07/2023 12:59</t>
+          <t>29/07/2023 12:33</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.58</v>
+        <v>3.69</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -796,15 +796,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.84</v>
+        <v>3.75</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>29/07/2023 12:59</t>
+          <t>29/07/2023 12:58</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.52</v>
+        <v>2.18</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>29/07/2023 12:59</t>
+          <t>29/07/2023 12:33</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-karlsruher/OdQO9SqD/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-magdeburg/x0US8naJ/</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -857,14 +857,14 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>1.98</v>
+        <v>2.75</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.96</v>
+        <v>3.19</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>29/07/2023 12:58</t>
+          <t>29/07/2023 12:59</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.78</v>
+        <v>3.58</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>4.09</v>
+        <v>3.84</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>29/07/2023 12:58</t>
+          <t>29/07/2023 12:59</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>3.7</v>
+        <v>2.52</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>3.65</v>
+        <v>2.2</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>29/07/2023 12:58</t>
+          <t>29/07/2023 12:59</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-elversberg/pWdGDApl/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-karlsruher/OdQO9SqD/</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.22</v>
+        <v>1.98</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3.09</v>
+        <v>1.96</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>29/07/2023 12:33</t>
+          <t>29/07/2023 12:58</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.69</v>
+        <v>3.78</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.75</v>
+        <v>4.09</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.18</v>
+        <v>3.7</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.28</v>
+        <v>3.65</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>29/07/2023 12:33</t>
+          <t>29/07/2023 12:58</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-magdeburg/x0US8naJ/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-elversberg/pWdGDApl/</t>
         </is>
       </c>
     </row>
@@ -1677,30 +1677,30 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Hansa Rostock</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
         <v>2</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Greuther Furth</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
       <c r="J14" t="n">
-        <v>2.43</v>
+        <v>2.19</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>30/07/2023 13:42</t>
+          <t>01/08/2023 05:12</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.69</v>
+        <v>2.08</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1708,40 +1708,40 @@
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.66</v>
+        <v>3.74</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>30/07/2023 13:42</t>
+          <t>01/08/2023 05:12</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.88</v>
+        <v>3.69</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>05/08/2023 12:52</t>
+          <t>05/08/2023 12:39</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>2.89</v>
+        <v>3.17</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>30/07/2023 13:42</t>
+          <t>01/08/2023 05:12</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.51</v>
+        <v>3.61</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>05/08/2023 12:57</t>
+          <t>05/08/2023 12:58</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-greuther-furth/x4K6b3j4/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-hansa-rostock/ShDJe1zN/</t>
         </is>
       </c>
     </row>
@@ -1769,30 +1769,30 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Greuther Furth</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Hansa Rostock</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>2</v>
-      </c>
       <c r="J15" t="n">
-        <v>2.19</v>
+        <v>2.43</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>01/08/2023 05:12</t>
+          <t>30/07/2023 13:42</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.08</v>
+        <v>2.69</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1800,40 +1800,40 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.74</v>
+        <v>3.66</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>01/08/2023 05:12</t>
+          <t>30/07/2023 13:42</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.69</v>
+        <v>3.88</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>05/08/2023 12:39</t>
+          <t>05/08/2023 12:52</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.17</v>
+        <v>2.89</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>01/08/2023 05:12</t>
+          <t>30/07/2023 13:42</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>3.61</v>
+        <v>2.51</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>05/08/2023 12:58</t>
+          <t>05/08/2023 12:57</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-hansa-rostock/ShDJe1zN/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-greuther-furth/x4K6b3j4/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,14 +1961,14 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>2.93</v>
+        <v>2</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1980,11 +1980,11 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>06/08/2023 13:27</t>
+          <t>06/08/2023 13:26</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.97</v>
+        <v>3.78</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>4.14</v>
+        <v>3.45</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.28</v>
+        <v>3.73</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.62</v>
+        <v>2.98</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>06/08/2023 13:28</t>
+          <t>06/08/2023 13:29</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-hamburger/O0G2aqyb/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-hannover/bJ8FdsLG/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>2.93</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2164,11 +2164,11 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>06/08/2023 13:26</t>
+          <t>06/08/2023 13:27</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.78</v>
+        <v>3.97</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.45</v>
+        <v>4.14</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         </is>
       </c>
       <c r="R19" t="n">
-        <v>3.73</v>
+        <v>2.28</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.98</v>
+        <v>2.62</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>06/08/2023 13:29</t>
+          <t>06/08/2023 13:28</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-hannover/bJ8FdsLG/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-hamburger/O0G2aqyb/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>3.6</v>
+        <v>2.08</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.83</v>
+        <v>2.25</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.89</v>
+        <v>3.81</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         </is>
       </c>
       <c r="R20" t="n">
-        <v>1.98</v>
+        <v>3.38</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.5</v>
+        <v>3.19</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-karlsruher/Knxc9K4M/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-elversberg/x4txErji/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.08</v>
+        <v>3.6</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.25</v>
+        <v>2.83</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.81</v>
+        <v>3.89</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="R21" t="n">
-        <v>3.38</v>
+        <v>1.98</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.19</v>
+        <v>2.5</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-elversberg/x4txErji/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-karlsruher/Knxc9K4M/</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,14 +2421,14 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>2.36</v>
+        <v>2.1</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.52</v>
+        <v>2.05</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>19/08/2023 12:59</t>
+          <t>19/08/2023 12:25</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.59</v>
+        <v>3.83</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.5</v>
+        <v>3.93</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>19/08/2023 12:59</t>
+          <t>19/08/2023 12:25</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.96</v>
+        <v>3.38</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.91</v>
+        <v>3.49</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>19/08/2023 12:59</t>
+          <t>19/08/2023 12:25</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-hannover/YVZpCMK3/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-paderborn/CQljjubp/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>2.64</v>
+        <v>2.36</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>19/08/2023 12:53</t>
+          <t>19/08/2023 12:59</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.49</v>
+        <v>3.59</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2548,11 +2548,11 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>19/08/2023 12:53</t>
+          <t>19/08/2023 12:59</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.73</v>
+        <v>2.96</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.84</v>
+        <v>2.91</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>19/08/2023 12:53</t>
+          <t>19/08/2023 12:59</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-st-pauli/GfutD25c/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-hannover/YVZpCMK3/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2.1</v>
+        <v>2.64</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.05</v>
+        <v>2.56</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>19/08/2023 12:25</t>
+          <t>19/08/2023 12:53</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.83</v>
+        <v>3.49</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.93</v>
+        <v>3.5</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>19/08/2023 12:25</t>
+          <t>19/08/2023 12:53</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.38</v>
+        <v>2.73</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.49</v>
+        <v>2.84</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>19/08/2023 12:25</t>
+          <t>19/08/2023 12:53</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-paderborn/CQljjubp/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-st-pauli/GfutD25c/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>1.43</v>
+        <v>1.72</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.47</v>
+        <v>2.03</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>03/09/2023 13:28</t>
+          <t>03/09/2023 13:27</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>5.19</v>
+        <v>4.27</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>4.91</v>
+        <v>3.76</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>03/09/2023 13:28</t>
+          <t>03/09/2023 13:18</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>7.01</v>
+        <v>4.58</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>6.7</v>
+        <v>3.7</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>03/09/2023 13:28</t>
+          <t>03/09/2023 13:27</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-hansa-rostock/YcA45B3l/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-hannover/zyA2QCuE/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Hansa Rostock</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Elversberg</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
       <c r="J45" t="n">
-        <v>2.35</v>
+        <v>1.43</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>27/08/2023 17:12</t>
+          <t>27/08/2023 12:42</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.32</v>
+        <v>1.47</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>03/09/2023 13:02</t>
+          <t>03/09/2023 13:28</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.78</v>
+        <v>5.19</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>27/08/2023 17:12</t>
+          <t>27/08/2023 12:42</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>4.01</v>
+        <v>4.91</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>03/09/2023 13:04</t>
+          <t>03/09/2023 13:28</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.93</v>
+        <v>7.01</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>27/08/2023 17:12</t>
+          <t>27/08/2023 12:42</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.88</v>
+        <v>6.7</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>03/09/2023 13:04</t>
+          <t>03/09/2023 13:28</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-elversberg/djbBOjAQ/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-hansa-rostock/YcA45B3l/</t>
         </is>
       </c>
     </row>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Elversberg</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
         <v>1</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Hannover</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>3</v>
-      </c>
       <c r="J46" t="n">
-        <v>1.72</v>
+        <v>2.35</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>27/08/2023 12:42</t>
+          <t>27/08/2023 17:12</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.03</v>
+        <v>2.32</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>03/09/2023 13:27</t>
+          <t>03/09/2023 13:02</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>4.27</v>
+        <v>3.78</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>27/08/2023 12:42</t>
+          <t>27/08/2023 17:12</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.76</v>
+        <v>4.01</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>03/09/2023 13:18</t>
+          <t>03/09/2023 13:04</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>4.58</v>
+        <v>2.93</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>27/08/2023 12:42</t>
+          <t>27/08/2023 17:12</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>3.7</v>
+        <v>2.88</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>03/09/2023 13:27</t>
+          <t>03/09/2023 13:04</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-hannover/zyA2QCuE/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-elversberg/djbBOjAQ/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.58</v>
+        <v>2.08</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.5</v>
+        <v>4.17</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.58</v>
+        <v>3.66</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>15/09/2023 17:56</t>
+          <t>15/09/2023 18:29</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>2.83</v>
+        <v>4.83</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.79</v>
+        <v>3.64</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>15/09/2023 18:25</t>
+          <t>15/09/2023 18:29</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-greuther-furth/EmpsxAvQ/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-wehen/QR3nGSH6/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.08</v>
+        <v>2.58</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         </is>
       </c>
       <c r="N48" t="n">
-        <v>4.17</v>
+        <v>3.5</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.66</v>
+        <v>3.58</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>15/09/2023 18:29</t>
+          <t>15/09/2023 17:56</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>4.83</v>
+        <v>2.83</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>3.64</v>
+        <v>2.79</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>15/09/2023 18:29</t>
+          <t>15/09/2023 18:25</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-wehen/QR3nGSH6/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-greuther-furth/EmpsxAvQ/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>3.89</v>
+        <v>1.95</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,48 +4920,48 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>3.78</v>
+        <v>2.03</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
+          <t>16/09/2023 12:58</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>04/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
           <t>16/09/2023 12:59</t>
         </is>
       </c>
-      <c r="N49" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="O49" t="inlineStr">
+      <c r="R49" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="S49" t="inlineStr">
         <is>
           <t>04/09/2023 08:42</t>
         </is>
       </c>
-      <c r="P49" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="Q49" t="inlineStr">
+      <c r="T49" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="U49" t="inlineStr">
         <is>
           <t>16/09/2023 12:59</t>
         </is>
       </c>
-      <c r="R49" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>04/09/2023 08:42</t>
-        </is>
-      </c>
-      <c r="T49" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>16/09/2023 12:59</t>
-        </is>
-      </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-hamburger/6ux9XTns/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-kaiserslautern/Kl3jFnXC/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="G50" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
         <v>1</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Dusseldorf</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
       <c r="J50" t="n">
-        <v>3.01</v>
+        <v>3.89</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>3.37</v>
+        <v>3.78</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.39</v>
+        <v>4.26</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.45</v>
+        <v>4.17</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="R50" t="n">
-        <v>2.43</v>
+        <v>1.85</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>2.26</v>
+        <v>1.9</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-dusseldorf/zcowwjPJ/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-hamburger/6ux9XTns/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,14 +5089,14 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J51" t="n">
-        <v>1.95</v>
+        <v>3.01</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.03</v>
+        <v>3.37</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>16/09/2023 12:58</t>
+          <t>16/09/2023 12:59</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.85</v>
+        <v>3.39</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.64</v>
+        <v>3.45</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.72</v>
+        <v>2.43</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>3.83</v>
+        <v>2.26</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-kaiserslautern/Kl3jFnXC/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-dusseldorf/zcowwjPJ/</t>
         </is>
       </c>
     </row>
@@ -5541,30 +5541,30 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>4.21</v>
+        <v>2.1</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>16/09/2023 19:43</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>4.94</v>
+        <v>2.17</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5572,40 +5572,40 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>4.28</v>
+        <v>3.95</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>16/09/2023 19:43</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>4.72</v>
+        <v>4</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
+          <t>22/09/2023 18:26</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>16/09/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
           <t>22/09/2023 18:29</t>
         </is>
       </c>
-      <c r="R56" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>17/09/2023 16:13</t>
-        </is>
-      </c>
-      <c r="T56" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>22/09/2023 18:29</t>
-        </is>
-      </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-hamburger/MD9KkT8P/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-paderborn/CrSTS51C/</t>
         </is>
       </c>
     </row>
@@ -5633,30 +5633,30 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>2.1</v>
+        <v>4.21</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>16/09/2023 19:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.17</v>
+        <v>4.94</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
@@ -5664,31 +5664,31 @@
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.95</v>
+        <v>4.28</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>16/09/2023 19:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>4</v>
+        <v>4.72</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>22/09/2023 18:26</t>
+          <t>22/09/2023 18:29</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>3.23</v>
+        <v>1.75</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>16/09/2023 19:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>3.14</v>
+        <v>1.62</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-paderborn/CrSTS51C/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-hamburger/MD9KkT8P/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>16/09/2023 12:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.4</v>
+        <v>2.69</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>23/09/2023 12:51</t>
+          <t>23/09/2023 12:52</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.72</v>
+        <v>3.55</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>16/09/2023 12:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.74</v>
+        <v>3.59</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>23/09/2023 12:51</t>
+          <t>23/09/2023 12:56</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.08</v>
+        <v>3.06</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>16/09/2023 12:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>2.91</v>
+        <v>2.65</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>23/09/2023 12:51</t>
+          <t>23/09/2023 12:52</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-karlsruher/UJMYRPGI/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-nurnberg/8ALxRqWO/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J59" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>16/09/2023 12:13</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.69</v>
+        <v>2.4</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>23/09/2023 12:52</t>
+          <t>23/09/2023 12:51</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.55</v>
+        <v>3.72</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>16/09/2023 12:13</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.59</v>
+        <v>3.74</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>23/09/2023 12:56</t>
+          <t>23/09/2023 12:51</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>3.06</v>
+        <v>3.08</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>16/09/2023 12:13</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.65</v>
+        <v>2.91</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>23/09/2023 12:52</t>
+          <t>23/09/2023 12:51</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-nurnberg/8ALxRqWO/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-karlsruher/UJMYRPGI/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>1.71</v>
+        <v>1.99</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.98</v>
+        <v>2.11</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>24/09/2023 13:27</t>
+          <t>24/09/2023 13:22</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>4.24</v>
+        <v>3.65</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.87</v>
+        <v>3.37</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>24/09/2023 13:28</t>
+          <t>24/09/2023 13:24</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>4.47</v>
+        <v>3.9</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>3.78</v>
+        <v>3.88</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>24/09/2023 13:27</t>
+          <t>24/09/2023 13:24</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-hannover/pWzDWm2m/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-hansa-rostock/YiTPTon6/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="I64" t="n">
         <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>1.99</v>
+        <v>1.71</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.11</v>
+        <v>1.98</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>24/09/2023 13:22</t>
+          <t>24/09/2023 13:27</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.65</v>
+        <v>4.24</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.37</v>
+        <v>3.87</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>24/09/2023 13:24</t>
+          <t>24/09/2023 13:28</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>3.9</v>
+        <v>4.47</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>3.88</v>
+        <v>3.78</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>24/09/2023 13:24</t>
+          <t>24/09/2023 13:27</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-hansa-rostock/YiTPTon6/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-hannover/pWzDWm2m/</t>
         </is>
       </c>
     </row>
@@ -6369,30 +6369,30 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="G65" t="n">
+        <v>3</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Schalke</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
         <v>1</v>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Dusseldorf</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
       <c r="J65" t="n">
-        <v>1.74</v>
+        <v>2.39</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.97</v>
+        <v>2.13</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
@@ -6400,15 +6400,15 @@
         </is>
       </c>
       <c r="N65" t="n">
-        <v>4.51</v>
+        <v>3.85</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>4.13</v>
+        <v>3.95</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -6416,15 +6416,15 @@
         </is>
       </c>
       <c r="R65" t="n">
-        <v>4.21</v>
+        <v>2.78</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>3.58</v>
+        <v>3.27</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-dusseldorf/KlkeqRog/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-schalke/EP3bro1a/</t>
         </is>
       </c>
     </row>
@@ -6461,30 +6461,30 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>2.39</v>
+        <v>1.74</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.13</v>
+        <v>1.97</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -6492,15 +6492,15 @@
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.85</v>
+        <v>4.51</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.95</v>
+        <v>4.13</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -6508,15 +6508,15 @@
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.78</v>
+        <v>4.21</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>3.27</v>
+        <v>3.58</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-schalke/EP3bro1a/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-dusseldorf/KlkeqRog/</t>
         </is>
       </c>
     </row>
@@ -6553,71 +6553,71 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>2.1</v>
+        <v>1.69</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.18</v>
+        <v>1.78</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>30/09/2023 12:51</t>
+          <t>30/09/2023 12:59</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.58</v>
+        <v>4.2</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.56</v>
+        <v>4.17</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>30/09/2023 12:57</t>
+          <t>30/09/2023 12:59</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>3.53</v>
+        <v>4.66</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>3.41</v>
+        <v>4.4</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>30/09/2023 12:38</t>
+          <t>30/09/2023 12:59</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-braunschweig/lrdBuqoI/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-wehen/zuh7tPVB/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="G68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Braunschweig</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Holstein Kiel</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
-        <v>2</v>
-      </c>
       <c r="J68" t="n">
-        <v>1.84</v>
+        <v>2.1</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.82</v>
+        <v>2.18</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>30/09/2023 12:59</t>
+          <t>30/09/2023 12:51</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>4.23</v>
+        <v>3.58</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>4.27</v>
+        <v>3.56</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>30/09/2023 12:59</t>
+          <t>30/09/2023 12:57</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>3.83</v>
+        <v>3.53</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>4.05</v>
+        <v>3.41</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>30/09/2023 12:57</t>
+          <t>30/09/2023 12:38</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-holstein-kiel/hG22s5G5/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-braunschweig/lrdBuqoI/</t>
         </is>
       </c>
     </row>
@@ -6737,30 +6737,30 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Holstein Kiel</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
         <v>2</v>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Wehen</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
       <c r="J69" t="n">
-        <v>1.69</v>
+        <v>1.84</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
@@ -6768,15 +6768,15 @@
         </is>
       </c>
       <c r="N69" t="n">
-        <v>4.2</v>
+        <v>4.23</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>4.17</v>
+        <v>4.27</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -6784,24 +6784,24 @@
         </is>
       </c>
       <c r="R69" t="n">
-        <v>4.66</v>
+        <v>3.83</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>4.4</v>
+        <v>4.05</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>30/09/2023 12:59</t>
+          <t>30/09/2023 12:57</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-wehen/zuh7tPVB/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-holstein-kiel/hG22s5G5/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.62</v>
+        <v>2.48</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>01/10/2023 13:30</t>
+          <t>01/10/2023 13:24</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.54</v>
+        <v>3.76</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.59</v>
+        <v>3.64</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>01/10/2023 13:04</t>
+          <t>01/10/2023 13:27</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>2.54</v>
+        <v>2.49</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>2.73</v>
+        <v>2.86</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>01/10/2023 13:30</t>
+          <t>01/10/2023 13:16</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-kaiserslautern/MVQPb6ot/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-greuther-furth/MefJwNFU/</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -7021,63 +7021,63 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>2.7</v>
+        <v>2.44</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.48</v>
+        <v>2.27</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>01/10/2023 13:24</t>
+          <t>01/10/2023 13:30</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.76</v>
+        <v>3.7</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.64</v>
+        <v>3.79</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>01/10/2023 13:27</t>
+          <t>01/10/2023 13:29</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>2.49</v>
+        <v>2.85</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="T72" t="n">
-        <v>2.86</v>
+        <v>3.09</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>01/10/2023 13:16</t>
+          <t>01/10/2023 13:30</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-greuther-furth/MefJwNFU/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-magdeburg/r5eFv30O/</t>
         </is>
       </c>
     </row>
@@ -7105,30 +7105,30 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J73" t="n">
-        <v>2.44</v>
+        <v>2.76</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.27</v>
+        <v>2.62</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
@@ -7136,31 +7136,31 @@
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.7</v>
+        <v>3.54</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.79</v>
+        <v>3.59</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>01/10/2023 13:29</t>
+          <t>01/10/2023 13:04</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>2.85</v>
+        <v>2.54</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="T73" t="n">
-        <v>3.09</v>
+        <v>2.73</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-magdeburg/r5eFv30O/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-kaiserslautern/MVQPb6ot/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>1.57</v>
+        <v>2.19</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.61</v>
+        <v>2.28</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>06/10/2023 18:28</t>
+          <t>06/10/2023 18:29</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>4.73</v>
+        <v>3.6</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>4.51</v>
+        <v>3.54</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         </is>
       </c>
       <c r="R74" t="n">
-        <v>5.14</v>
+        <v>3.29</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>5.32</v>
+        <v>3.25</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-vfl-osnabruck/fqPXdpGh/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-hannover/SYGpfr0B/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>2.19</v>
+        <v>1.57</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,48 +7312,48 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.28</v>
+        <v>1.61</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
+          <t>06/10/2023 18:28</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>01/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
           <t>06/10/2023 18:29</t>
         </is>
       </c>
-      <c r="N75" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O75" t="inlineStr">
+      <c r="R75" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="S75" t="inlineStr">
         <is>
           <t>01/10/2023 12:43</t>
         </is>
       </c>
-      <c r="P75" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="Q75" t="inlineStr">
+      <c r="T75" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="U75" t="inlineStr">
         <is>
           <t>06/10/2023 18:29</t>
         </is>
       </c>
-      <c r="R75" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="S75" t="inlineStr">
-        <is>
-          <t>01/10/2023 12:43</t>
-        </is>
-      </c>
-      <c r="T75" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U75" t="inlineStr">
-        <is>
-          <t>06/10/2023 18:29</t>
-        </is>
-      </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-hannover/SYGpfr0B/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-vfl-osnabruck/fqPXdpGh/</t>
         </is>
       </c>
     </row>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -7757,63 +7757,63 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J80" t="n">
-        <v>2.14</v>
+        <v>2.69</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>30/09/2023 19:43</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1.99</v>
+        <v>2.89</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>08/10/2023 13:29</t>
+          <t>08/10/2023 13:27</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.84</v>
+        <v>3.59</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>30/09/2023 19:43</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.97</v>
+        <v>3.59</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>08/10/2023 13:29</t>
+          <t>08/10/2023 13:28</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>3.3</v>
+        <v>2.58</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>30/09/2023 19:43</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>3.63</v>
+        <v>2.48</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>08/10/2023 13:29</t>
+          <t>08/10/2023 13:27</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-hertha-berlin/0MPTcQ0n/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-paderborn/GdYMzfaj/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,63 +7941,63 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>2.69</v>
+        <v>2.14</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>30/09/2023 19:43</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.89</v>
+        <v>1.99</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>08/10/2023 13:27</t>
+          <t>08/10/2023 13:29</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.59</v>
+        <v>3.84</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>30/09/2023 19:43</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.59</v>
+        <v>3.97</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>08/10/2023 13:28</t>
+          <t>08/10/2023 13:29</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>2.58</v>
+        <v>3.3</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>30/09/2023 19:43</t>
         </is>
       </c>
       <c r="T82" t="n">
-        <v>2.48</v>
+        <v>3.63</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>08/10/2023 13:27</t>
+          <t>08/10/2023 13:29</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-paderborn/GdYMzfaj/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-hertha-berlin/0MPTcQ0n/</t>
         </is>
       </c>
     </row>
@@ -8577,30 +8577,30 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="G89" t="n">
+        <v>1</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Holstein Kiel</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
         <v>3</v>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Schalke</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
       <c r="J89" t="n">
-        <v>2.06</v>
+        <v>2.46</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>2.37</v>
+        <v>2.65</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
@@ -8608,15 +8608,15 @@
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.92</v>
+        <v>3.66</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.84</v>
+        <v>3.29</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -8624,15 +8624,15 @@
         </is>
       </c>
       <c r="R89" t="n">
-        <v>3.41</v>
+        <v>2.84</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-schalke/tduEeeyG/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-holstein-kiel/lMrMgZ5S/</t>
         </is>
       </c>
     </row>
@@ -8669,30 +8669,30 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>2.46</v>
+        <v>2.06</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>2.65</v>
+        <v>2.37</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
@@ -8700,15 +8700,15 @@
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.66</v>
+        <v>3.92</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.29</v>
+        <v>3.84</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -8716,15 +8716,15 @@
         </is>
       </c>
       <c r="R90" t="n">
-        <v>2.84</v>
+        <v>3.41</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="T90" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-holstein-kiel/lMrMgZ5S/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-schalke/tduEeeyG/</t>
         </is>
       </c>
     </row>
@@ -8826,6 +8826,834 @@
       <c r="V91" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-hertha-berlin/f3LlkgEq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45226.77083333334</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Braunschweig</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Dusseldorf</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>4</v>
+      </c>
+      <c r="J92" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>21/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>27/10/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>21/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>27/10/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>21/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>27/10/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-dusseldorf/O0duvBLl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45226.77083333334</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Greuther Furth</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>4</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>VfL Osnabruck</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:13</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>27/10/2023 18:02</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:13</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>27/10/2023 18:08</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:13</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>27/10/2023 18:30</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-vfl-osnabruck/Uwcyui6r/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45227.54166666666</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>3</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:00</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>28/10/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:00</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hertha-berlin-paderborn/veagmFb2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45227.54166666666</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Schalke</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>3</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Hannover</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:00</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:00</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:00</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-hannover/tKN0nib2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45227.54166666666</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>St. Pauli</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>2</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Karlsruher SC</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>28/10/2023 12:58</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>28/10/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>28/10/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-karlsruher/xtIdnZD8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45227.85416666666</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Kaiserslautern</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>3</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>3</v>
+      </c>
+      <c r="J97" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>21/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>28/10/2023 20:29</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>21/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>28/10/2023 20:11</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>21/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>28/10/2023 20:29</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-hamburger/AgG4pDrL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45228.5625</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Holstein Kiel</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Nurnberg</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>2</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:14</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:29</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:29</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-nurnberg/W2H0ogTE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45228.5625</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Magdeburg</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>1</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Elversberg</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:27</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:27</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:29</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-elversberg/SUA9qXcR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45228.5625</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Wehen</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Hansa Rostock</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:26</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:26</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:25</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-hansa-rostock/x40qwVze/</t>
         </is>
       </c>
     </row>

--- a/2023/germany_2-bundesliga_2023-2024.xlsx
+++ b/2023/germany_2-bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V100"/>
+  <dimension ref="A1:V102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.08</v>
+        <v>2.58</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="N47" t="n">
-        <v>4.17</v>
+        <v>3.5</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.66</v>
+        <v>3.58</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>15/09/2023 18:29</t>
+          <t>15/09/2023 17:56</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>4.83</v>
+        <v>2.83</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>3.64</v>
+        <v>2.79</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>15/09/2023 18:29</t>
+          <t>15/09/2023 18:25</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-wehen/QR3nGSH6/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-greuther-furth/EmpsxAvQ/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.58</v>
+        <v>2.08</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.5</v>
+        <v>4.17</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.58</v>
+        <v>3.66</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>15/09/2023 17:56</t>
+          <t>15/09/2023 18:29</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.83</v>
+        <v>4.83</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.79</v>
+        <v>3.64</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>15/09/2023 18:25</t>
+          <t>15/09/2023 18:29</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-greuther-furth/EmpsxAvQ/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-wehen/QR3nGSH6/</t>
         </is>
       </c>
     </row>
@@ -6185,71 +6185,71 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>2.42</v>
+        <v>1.71</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.29</v>
+        <v>1.98</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>24/09/2023 13:20</t>
+          <t>24/09/2023 13:27</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.72</v>
+        <v>4.24</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.94</v>
+        <v>3.87</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>24/09/2023 13:29</t>
+          <t>24/09/2023 13:28</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>2.8</v>
+        <v>4.47</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>2.97</v>
+        <v>3.78</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>24/09/2023 13:20</t>
+          <t>24/09/2023 13:27</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-hertha-berlin/vVTLURWa/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-hannover/pWzDWm2m/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J64" t="n">
-        <v>1.71</v>
+        <v>2.42</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.98</v>
+        <v>2.29</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>24/09/2023 13:27</t>
+          <t>24/09/2023 13:20</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>4.24</v>
+        <v>3.72</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.87</v>
+        <v>3.94</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>24/09/2023 13:28</t>
+          <t>24/09/2023 13:29</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>4.47</v>
+        <v>2.8</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>3.78</v>
+        <v>2.97</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>24/09/2023 13:27</t>
+          <t>24/09/2023 13:20</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-hannover/pWzDWm2m/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-hertha-berlin/vVTLURWa/</t>
         </is>
       </c>
     </row>
@@ -6369,30 +6369,30 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>2.39</v>
+        <v>1.74</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.13</v>
+        <v>1.97</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
@@ -6400,15 +6400,15 @@
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.85</v>
+        <v>4.51</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.95</v>
+        <v>4.13</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -6416,15 +6416,15 @@
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.78</v>
+        <v>4.21</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>3.27</v>
+        <v>3.58</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-schalke/EP3bro1a/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-dusseldorf/KlkeqRog/</t>
         </is>
       </c>
     </row>
@@ -6461,30 +6461,30 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="G66" t="n">
+        <v>3</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Schalke</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
         <v>1</v>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Dusseldorf</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
       <c r="J66" t="n">
-        <v>1.74</v>
+        <v>2.39</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>1.97</v>
+        <v>2.13</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -6492,15 +6492,15 @@
         </is>
       </c>
       <c r="N66" t="n">
-        <v>4.51</v>
+        <v>3.85</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>4.13</v>
+        <v>3.95</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -6508,15 +6508,15 @@
         </is>
       </c>
       <c r="R66" t="n">
-        <v>4.21</v>
+        <v>2.78</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>3.58</v>
+        <v>3.27</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-dusseldorf/KlkeqRog/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-schalke/EP3bro1a/</t>
         </is>
       </c>
     </row>
@@ -8209,71 +8209,71 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Wehen</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
         <v>2</v>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Greuther Furth</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
       <c r="J85" t="n">
-        <v>1.58</v>
+        <v>2.15</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>21/10/2023 12:24</t>
+          <t>21/10/2023 12:57</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>4.69</v>
+        <v>3.81</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>4.46</v>
+        <v>3.81</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>21/10/2023 12:25</t>
+          <t>21/10/2023 12:57</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>5.08</v>
+        <v>3.21</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>4.62</v>
+        <v>3.44</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>21/10/2023 12:24</t>
+          <t>21/10/2023 12:58</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-greuther-furth/r3Q8bcic/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-wehen/2TOdmXrd/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>2.81</v>
+        <v>1.58</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>3.45</v>
+        <v>1.69</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>21/10/2023 12:45</t>
+          <t>21/10/2023 12:24</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.7</v>
+        <v>4.69</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.84</v>
+        <v>4.46</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>21/10/2023 12:55</t>
+          <t>21/10/2023 12:25</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>2.42</v>
+        <v>5.08</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>2.09</v>
+        <v>4.62</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>21/10/2023 12:52</t>
+          <t>21/10/2023 12:24</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-st-pauli/25tAdyM9/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-greuther-furth/r3Q8bcic/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>2</v>
       </c>
       <c r="J87" t="n">
-        <v>2.15</v>
+        <v>2.81</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.1</v>
+        <v>3.45</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>21/10/2023 12:57</t>
+          <t>21/10/2023 12:45</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.81</v>
+        <v>3.7</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.81</v>
+        <v>3.84</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>21/10/2023 12:57</t>
+          <t>21/10/2023 12:55</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>3.21</v>
+        <v>2.42</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>3.44</v>
+        <v>2.09</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>21/10/2023 12:58</t>
+          <t>21/10/2023 12:52</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-wehen/2TOdmXrd/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-st-pauli/25tAdyM9/</t>
         </is>
       </c>
     </row>
@@ -9654,6 +9654,190 @@
       <c r="V100" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-hansa-rostock/x40qwVze/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45233.77083333334</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Dusseldorf</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>1</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Wehen</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>3</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>03/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>03/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>03/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-wehen/bJlhy957/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45233.77083333334</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Elversberg</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>St. Pauli</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>2</v>
+      </c>
+      <c r="J102" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>03/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>03/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>03/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-st-pauli/dEGIiUkl/</t>
         </is>
       </c>
     </row>

--- a/2023/germany_2-bundesliga_2023-2024.xlsx
+++ b/2023/germany_2-bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V102"/>
+  <dimension ref="A1:V106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>1.88</v>
+        <v>2.19</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>29/07/2023 20:42</t>
+          <t>01/08/2023 05:12</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>05/08/2023 12:59</t>
+          <t>05/08/2023 12:57</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.97</v>
+        <v>3.74</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>29/07/2023 20:42</t>
+          <t>01/08/2023 05:12</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.74</v>
+        <v>3.69</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>05/08/2023 12:59</t>
+          <t>05/08/2023 12:39</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.99</v>
+        <v>3.17</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>29/07/2023 20:42</t>
+          <t>01/08/2023 05:12</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>3.97</v>
+        <v>3.61</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>05/08/2023 12:59</t>
+          <t>05/08/2023 12:58</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-dusseldorf/jmIf156o/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-hansa-rostock/ShDJe1zN/</t>
         </is>
       </c>
     </row>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.19</v>
+        <v>1.88</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>01/08/2023 05:12</t>
+          <t>29/07/2023 20:42</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.08</v>
+        <v>1.96</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>05/08/2023 12:57</t>
+          <t>05/08/2023 12:59</t>
         </is>
       </c>
       <c r="N14" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>29/07/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
         <v>3.74</v>
       </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>01/08/2023 05:12</t>
-        </is>
-      </c>
-      <c r="P14" t="n">
-        <v>3.69</v>
-      </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>05/08/2023 12:39</t>
+          <t>05/08/2023 12:59</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>3.17</v>
+        <v>3.99</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>01/08/2023 05:12</t>
+          <t>29/07/2023 20:42</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>3.61</v>
+        <v>3.97</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>05/08/2023 12:58</t>
+          <t>05/08/2023 12:59</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-hansa-rostock/ShDJe1zN/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-dusseldorf/jmIf156o/</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,14 +2421,14 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>2.1</v>
+        <v>2.36</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.05</v>
+        <v>2.52</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>19/08/2023 12:25</t>
+          <t>19/08/2023 12:59</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.83</v>
+        <v>3.59</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.93</v>
+        <v>3.5</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>19/08/2023 12:25</t>
+          <t>19/08/2023 12:59</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.38</v>
+        <v>2.96</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.49</v>
+        <v>2.91</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>19/08/2023 12:25</t>
+          <t>19/08/2023 12:59</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-paderborn/CQljjubp/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-hannover/YVZpCMK3/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2.36</v>
+        <v>2.64</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>19/08/2023 12:59</t>
+          <t>19/08/2023 12:53</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.59</v>
+        <v>3.49</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2548,11 +2548,11 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>19/08/2023 12:59</t>
+          <t>19/08/2023 12:53</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.96</v>
+        <v>2.73</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.91</v>
+        <v>2.84</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>19/08/2023 12:59</t>
+          <t>19/08/2023 12:53</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-hannover/YVZpCMK3/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-st-pauli/GfutD25c/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>2.64</v>
+        <v>2.1</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,48 +2620,48 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.56</v>
+        <v>2.05</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>19/08/2023 12:53</t>
+          <t>19/08/2023 12:25</t>
         </is>
       </c>
       <c r="N24" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>11/08/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>19/08/2023 12:25</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>11/08/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
         <v>3.49</v>
       </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>11/08/2023 13:42</t>
-        </is>
-      </c>
-      <c r="P24" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>19/08/2023 12:53</t>
-        </is>
-      </c>
-      <c r="R24" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>11/08/2023 13:42</t>
-        </is>
-      </c>
-      <c r="T24" t="n">
-        <v>2.84</v>
-      </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>19/08/2023 12:53</t>
+          <t>19/08/2023 12:25</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-st-pauli/GfutD25c/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-paderborn/CQljjubp/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2.51</v>
+        <v>4.31</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.25</v>
+        <v>3.27</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>20/08/2023 13:28</t>
+          <t>20/08/2023 13:29</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.56</v>
+        <v>3.97</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.57</v>
+        <v>3.79</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>20/08/2023 13:27</t>
+          <t>20/08/2023 13:29</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>2.79</v>
+        <v>1.79</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>3.29</v>
+        <v>2.18</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-nurnberg/6qYhA0kG/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-schalke/CMYlBtzA/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>4.31</v>
+        <v>2.51</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,48 +2988,48 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>3.27</v>
+        <v>2.25</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
+          <t>20/08/2023 13:28</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>12/08/2023 13:43</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>20/08/2023 13:27</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>12/08/2023 13:43</t>
+        </is>
+      </c>
+      <c r="T28" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
           <t>20/08/2023 13:29</t>
         </is>
       </c>
-      <c r="N28" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>12/08/2023 13:43</t>
-        </is>
-      </c>
-      <c r="P28" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>20/08/2023 13:29</t>
-        </is>
-      </c>
-      <c r="R28" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>12/08/2023 13:43</t>
-        </is>
-      </c>
-      <c r="T28" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>20/08/2023 13:29</t>
-        </is>
-      </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-schalke/CMYlBtzA/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-nurnberg/6qYhA0kG/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Elversberg</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
         <v>1</v>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Hannover</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>3</v>
-      </c>
       <c r="J44" t="n">
-        <v>1.72</v>
+        <v>2.35</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>27/08/2023 12:42</t>
+          <t>27/08/2023 17:12</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.03</v>
+        <v>2.32</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>03/09/2023 13:27</t>
+          <t>03/09/2023 13:02</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>4.27</v>
+        <v>3.78</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>27/08/2023 12:42</t>
+          <t>27/08/2023 17:12</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.76</v>
+        <v>4.01</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>03/09/2023 13:18</t>
+          <t>03/09/2023 13:04</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>4.58</v>
+        <v>2.93</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>27/08/2023 12:42</t>
+          <t>27/08/2023 17:12</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>3.7</v>
+        <v>2.88</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>03/09/2023 13:27</t>
+          <t>03/09/2023 13:04</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-hannover/zyA2QCuE/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-elversberg/djbBOjAQ/</t>
         </is>
       </c>
     </row>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
-        <v>2.35</v>
+        <v>1.72</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>27/08/2023 17:12</t>
+          <t>27/08/2023 12:42</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.32</v>
+        <v>2.03</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>03/09/2023 13:02</t>
+          <t>03/09/2023 13:27</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.78</v>
+        <v>4.27</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>27/08/2023 17:12</t>
+          <t>27/08/2023 12:42</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>4.01</v>
+        <v>3.76</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>03/09/2023 13:04</t>
+          <t>03/09/2023 13:18</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>2.93</v>
+        <v>4.58</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>27/08/2023 17:12</t>
+          <t>27/08/2023 12:42</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>2.88</v>
+        <v>3.7</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>03/09/2023 13:04</t>
+          <t>03/09/2023 13:27</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-elversberg/djbBOjAQ/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-hannover/zyA2QCuE/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>1.95</v>
+        <v>3.89</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.03</v>
+        <v>3.78</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>16/09/2023 12:58</t>
+          <t>16/09/2023 12:59</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.85</v>
+        <v>4.26</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.64</v>
+        <v>4.17</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.72</v>
+        <v>1.85</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>3.83</v>
+        <v>1.9</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-kaiserslautern/Kl3jFnXC/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-hamburger/6ux9XTns/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J50" t="n">
-        <v>3.89</v>
+        <v>3.01</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>3.78</v>
+        <v>3.37</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>4.26</v>
+        <v>3.39</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>4.17</v>
+        <v>3.45</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="R50" t="n">
-        <v>1.85</v>
+        <v>2.43</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>1.9</v>
+        <v>2.26</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-hamburger/6ux9XTns/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-dusseldorf/zcowwjPJ/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,14 +5089,14 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>3.01</v>
+        <v>1.95</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,48 +5104,48 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>3.37</v>
+        <v>2.03</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
+          <t>16/09/2023 12:58</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>04/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
           <t>16/09/2023 12:59</t>
         </is>
       </c>
-      <c r="N51" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="O51" t="inlineStr">
+      <c r="R51" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="S51" t="inlineStr">
         <is>
           <t>04/09/2023 08:42</t>
         </is>
       </c>
-      <c r="P51" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q51" t="inlineStr">
+      <c r="T51" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="U51" t="inlineStr">
         <is>
           <t>16/09/2023 12:59</t>
         </is>
       </c>
-      <c r="R51" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>04/09/2023 08:42</t>
-        </is>
-      </c>
-      <c r="T51" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>16/09/2023 12:59</t>
-        </is>
-      </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-dusseldorf/zcowwjPJ/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-kaiserslautern/Kl3jFnXC/</t>
         </is>
       </c>
     </row>
@@ -5265,22 +5265,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>1.79</v>
+        <v>1.65</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,48 +5288,48 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
+          <t>17/09/2023 13:29</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>04/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>17/09/2023 13:29</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>04/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T53" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
           <t>17/09/2023 13:28</t>
         </is>
       </c>
-      <c r="N53" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>04/09/2023 08:42</t>
-        </is>
-      </c>
-      <c r="P53" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>17/09/2023 13:28</t>
-        </is>
-      </c>
-      <c r="R53" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>04/09/2023 08:42</t>
-        </is>
-      </c>
-      <c r="T53" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>17/09/2023 13:27</t>
-        </is>
-      </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-vfl-osnabruck/Yi7fE6nJ/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-holstein-kiel/ny5rH820/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>1.65</v>
+        <v>1.79</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>17/09/2023 13:29</t>
+          <t>17/09/2023 13:28</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>4.28</v>
+        <v>3.99</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,15 +5488,15 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.7</v>
+        <v>4.06</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>17/09/2023 13:29</t>
+          <t>17/09/2023 13:28</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>4.96</v>
+        <v>4.3</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>4.12</v>
+        <v>4.19</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>17/09/2023 13:28</t>
+          <t>17/09/2023 13:27</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-holstein-kiel/ny5rH820/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-vfl-osnabruck/Yi7fE6nJ/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>1.99</v>
+        <v>1.71</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.11</v>
+        <v>1.98</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>24/09/2023 13:22</t>
+          <t>24/09/2023 13:27</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.65</v>
+        <v>4.24</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.37</v>
+        <v>3.87</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>24/09/2023 13:24</t>
+          <t>24/09/2023 13:28</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>3.9</v>
+        <v>4.47</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>3.88</v>
+        <v>3.78</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>24/09/2023 13:24</t>
+          <t>24/09/2023 13:27</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-hansa-rostock/YiTPTon6/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-hannover/pWzDWm2m/</t>
         </is>
       </c>
     </row>
@@ -6185,71 +6185,71 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J63" t="n">
-        <v>1.71</v>
+        <v>2.42</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.98</v>
+        <v>2.29</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>24/09/2023 13:27</t>
+          <t>24/09/2023 13:20</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>4.24</v>
+        <v>3.72</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.87</v>
+        <v>3.94</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>24/09/2023 13:28</t>
+          <t>24/09/2023 13:29</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>4.47</v>
+        <v>2.8</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>3.78</v>
+        <v>2.97</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>24/09/2023 13:27</t>
+          <t>24/09/2023 13:20</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-hannover/pWzDWm2m/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-hertha-berlin/vVTLURWa/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>2.42</v>
+        <v>1.99</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.29</v>
+        <v>2.11</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>24/09/2023 13:20</t>
+          <t>24/09/2023 13:22</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.72</v>
+        <v>3.65</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.94</v>
+        <v>3.37</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>24/09/2023 13:29</t>
+          <t>24/09/2023 13:24</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>2.97</v>
+        <v>3.88</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>24/09/2023 13:20</t>
+          <t>24/09/2023 13:24</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-hertha-berlin/vVTLURWa/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-hansa-rostock/YiTPTon6/</t>
         </is>
       </c>
     </row>
@@ -6369,30 +6369,30 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="G65" t="n">
+        <v>3</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Schalke</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
         <v>1</v>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Dusseldorf</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
       <c r="J65" t="n">
-        <v>1.74</v>
+        <v>2.39</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.97</v>
+        <v>2.13</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
@@ -6400,15 +6400,15 @@
         </is>
       </c>
       <c r="N65" t="n">
-        <v>4.51</v>
+        <v>3.85</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>4.13</v>
+        <v>3.95</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -6416,15 +6416,15 @@
         </is>
       </c>
       <c r="R65" t="n">
-        <v>4.21</v>
+        <v>2.78</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>3.58</v>
+        <v>3.27</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-dusseldorf/KlkeqRog/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-schalke/EP3bro1a/</t>
         </is>
       </c>
     </row>
@@ -6461,30 +6461,30 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>2.39</v>
+        <v>1.74</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.13</v>
+        <v>1.97</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -6492,15 +6492,15 @@
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.85</v>
+        <v>4.51</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.95</v>
+        <v>4.13</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -6508,15 +6508,15 @@
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.78</v>
+        <v>4.21</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>3.27</v>
+        <v>3.58</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-schalke/EP3bro1a/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-dusseldorf/KlkeqRog/</t>
         </is>
       </c>
     </row>
@@ -6553,30 +6553,30 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Holstein Kiel</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
         <v>2</v>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Wehen</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
       <c r="J67" t="n">
-        <v>1.69</v>
+        <v>1.84</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6584,15 +6584,15 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>4.2</v>
+        <v>4.23</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>4.17</v>
+        <v>4.27</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -6600,24 +6600,24 @@
         </is>
       </c>
       <c r="R67" t="n">
-        <v>4.66</v>
+        <v>3.83</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>4.4</v>
+        <v>4.05</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>30/09/2023 12:59</t>
+          <t>30/09/2023 12:57</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-wehen/zuh7tPVB/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-holstein-kiel/hG22s5G5/</t>
         </is>
       </c>
     </row>
@@ -6645,71 +6645,71 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>2.1</v>
+        <v>1.69</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.18</v>
+        <v>1.78</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>30/09/2023 12:51</t>
+          <t>30/09/2023 12:59</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.58</v>
+        <v>4.2</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.56</v>
+        <v>4.17</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>30/09/2023 12:57</t>
+          <t>30/09/2023 12:59</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>3.53</v>
+        <v>4.66</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>3.41</v>
+        <v>4.4</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>30/09/2023 12:38</t>
+          <t>30/09/2023 12:59</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-braunschweig/lrdBuqoI/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-wehen/zuh7tPVB/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Braunschweig</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Holstein Kiel</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>2</v>
-      </c>
       <c r="J69" t="n">
-        <v>1.84</v>
+        <v>2.1</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.82</v>
+        <v>2.18</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>30/09/2023 12:59</t>
+          <t>30/09/2023 12:51</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>4.23</v>
+        <v>3.58</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>4.27</v>
+        <v>3.56</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>30/09/2023 12:59</t>
+          <t>30/09/2023 12:57</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.83</v>
+        <v>3.53</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>4.05</v>
+        <v>3.41</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>30/09/2023 12:57</t>
+          <t>30/09/2023 12:38</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-holstein-kiel/hG22s5G5/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-braunschweig/lrdBuqoI/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.48</v>
+        <v>2.62</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>01/10/2023 13:24</t>
+          <t>01/10/2023 13:30</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.76</v>
+        <v>3.54</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.64</v>
+        <v>3.59</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>01/10/2023 13:27</t>
+          <t>01/10/2023 13:04</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>2.49</v>
+        <v>2.54</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>2.86</v>
+        <v>2.73</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>01/10/2023 13:16</t>
+          <t>01/10/2023 13:30</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-greuther-furth/MefJwNFU/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-kaiserslautern/MVQPb6ot/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.62</v>
+        <v>2.48</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>01/10/2023 13:30</t>
+          <t>01/10/2023 13:24</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.54</v>
+        <v>3.76</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.59</v>
+        <v>3.64</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>01/10/2023 13:04</t>
+          <t>01/10/2023 13:27</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>2.54</v>
+        <v>2.49</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>2.73</v>
+        <v>2.86</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>01/10/2023 13:30</t>
+          <t>01/10/2023 13:16</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-kaiserslautern/MVQPb6ot/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-greuther-furth/MefJwNFU/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>2.19</v>
+        <v>1.57</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,48 +7220,48 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.28</v>
+        <v>1.61</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
+          <t>06/10/2023 18:28</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>01/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
           <t>06/10/2023 18:29</t>
         </is>
       </c>
-      <c r="N74" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O74" t="inlineStr">
+      <c r="R74" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="S74" t="inlineStr">
         <is>
           <t>01/10/2023 12:43</t>
         </is>
       </c>
-      <c r="P74" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="Q74" t="inlineStr">
+      <c r="T74" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="U74" t="inlineStr">
         <is>
           <t>06/10/2023 18:29</t>
         </is>
       </c>
-      <c r="R74" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="S74" t="inlineStr">
-        <is>
-          <t>01/10/2023 12:43</t>
-        </is>
-      </c>
-      <c r="T74" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U74" t="inlineStr">
-        <is>
-          <t>06/10/2023 18:29</t>
-        </is>
-      </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-hannover/SYGpfr0B/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-vfl-osnabruck/fqPXdpGh/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>1.57</v>
+        <v>2.19</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.61</v>
+        <v>2.28</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>06/10/2023 18:28</t>
+          <t>06/10/2023 18:29</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>4.73</v>
+        <v>3.6</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>4.51</v>
+        <v>3.54</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         </is>
       </c>
       <c r="R75" t="n">
-        <v>5.14</v>
+        <v>3.29</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>5.32</v>
+        <v>3.25</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
@@ -7353,7 +7353,7 @@
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-vfl-osnabruck/fqPXdpGh/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-hannover/SYGpfr0B/</t>
         </is>
       </c>
     </row>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -7757,63 +7757,63 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>2.69</v>
+        <v>2.14</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>30/09/2023 19:43</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>2.89</v>
+        <v>1.99</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>08/10/2023 13:27</t>
+          <t>08/10/2023 13:29</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.59</v>
+        <v>3.84</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>30/09/2023 19:43</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.59</v>
+        <v>3.97</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>08/10/2023 13:28</t>
+          <t>08/10/2023 13:29</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>2.58</v>
+        <v>3.3</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>30/09/2023 19:43</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>2.48</v>
+        <v>3.63</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>08/10/2023 13:27</t>
+          <t>08/10/2023 13:29</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-paderborn/GdYMzfaj/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-hertha-berlin/0MPTcQ0n/</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -7849,63 +7849,63 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J81" t="n">
-        <v>2.03</v>
+        <v>2.69</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>2.1</v>
+        <v>2.89</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
+          <t>08/10/2023 13:27</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>30/09/2023 12:43</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
           <t>08/10/2023 13:28</t>
         </is>
       </c>
-      <c r="N81" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>01/10/2023 12:43</t>
-        </is>
-      </c>
-      <c r="P81" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>08/10/2023 13:28</t>
-        </is>
-      </c>
       <c r="R81" t="n">
-        <v>3.39</v>
+        <v>2.58</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="T81" t="n">
-        <v>3.36</v>
+        <v>2.48</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>08/10/2023 13:28</t>
+          <t>08/10/2023 13:27</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-elversberg/lrIteOp5/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-paderborn/GdYMzfaj/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,63 +7941,63 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>2.14</v>
+        <v>2.03</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>30/09/2023 19:43</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>08/10/2023 13:29</t>
+          <t>08/10/2023 13:28</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.84</v>
+        <v>3.95</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>30/09/2023 19:43</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.97</v>
+        <v>3.93</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>08/10/2023 13:29</t>
+          <t>08/10/2023 13:28</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>3.3</v>
+        <v>3.39</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>30/09/2023 19:43</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="T82" t="n">
-        <v>3.63</v>
+        <v>3.36</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>08/10/2023 13:29</t>
+          <t>08/10/2023 13:28</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-hertha-berlin/0MPTcQ0n/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-elversberg/lrIteOp5/</t>
         </is>
       </c>
     </row>
@@ -8209,71 +8209,71 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="G85" t="n">
+        <v>2</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Greuther Furth</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Wehen</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>2</v>
-      </c>
       <c r="J85" t="n">
-        <v>2.15</v>
+        <v>1.58</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.1</v>
+        <v>1.69</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>21/10/2023 12:57</t>
+          <t>21/10/2023 12:24</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.81</v>
+        <v>4.69</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.81</v>
+        <v>4.46</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>21/10/2023 12:57</t>
+          <t>21/10/2023 12:25</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>3.21</v>
+        <v>5.08</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>3.44</v>
+        <v>4.62</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>21/10/2023 12:58</t>
+          <t>21/10/2023 12:24</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-wehen/2TOdmXrd/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-greuther-furth/r3Q8bcic/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J86" t="n">
-        <v>1.58</v>
+        <v>2.81</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.69</v>
+        <v>3.45</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>21/10/2023 12:24</t>
+          <t>21/10/2023 12:45</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>4.69</v>
+        <v>3.7</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>4.46</v>
+        <v>3.84</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>21/10/2023 12:25</t>
+          <t>21/10/2023 12:55</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>5.08</v>
+        <v>2.42</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>4.62</v>
+        <v>2.09</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>21/10/2023 12:24</t>
+          <t>21/10/2023 12:52</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-greuther-furth/r3Q8bcic/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-st-pauli/25tAdyM9/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>2</v>
       </c>
       <c r="J87" t="n">
-        <v>2.81</v>
+        <v>2.15</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>3.45</v>
+        <v>2.1</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>21/10/2023 12:45</t>
+          <t>21/10/2023 12:57</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.7</v>
+        <v>3.81</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.84</v>
+        <v>3.81</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>21/10/2023 12:55</t>
+          <t>21/10/2023 12:57</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>2.42</v>
+        <v>3.21</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.09</v>
+        <v>3.44</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>21/10/2023 12:52</t>
+          <t>21/10/2023 12:58</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-st-pauli/25tAdyM9/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-wehen/2TOdmXrd/</t>
         </is>
       </c>
     </row>
@@ -8577,30 +8577,30 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>2.46</v>
+        <v>2.06</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>2.65</v>
+        <v>2.37</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
@@ -8608,15 +8608,15 @@
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.66</v>
+        <v>3.92</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.29</v>
+        <v>3.84</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -8624,15 +8624,15 @@
         </is>
       </c>
       <c r="R89" t="n">
-        <v>2.84</v>
+        <v>3.41</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-holstein-kiel/lMrMgZ5S/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-schalke/tduEeeyG/</t>
         </is>
       </c>
     </row>
@@ -8669,30 +8669,30 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Holstein Kiel</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
         <v>3</v>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Schalke</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
       <c r="J90" t="n">
-        <v>2.06</v>
+        <v>2.46</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>2.37</v>
+        <v>2.65</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
@@ -8700,15 +8700,15 @@
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.92</v>
+        <v>3.66</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.84</v>
+        <v>3.29</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -8716,15 +8716,15 @@
         </is>
       </c>
       <c r="R90" t="n">
-        <v>3.41</v>
+        <v>2.84</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="T90" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-schalke/tduEeeyG/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-holstein-kiel/lMrMgZ5S/</t>
         </is>
       </c>
     </row>
@@ -8853,71 +8853,71 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>3.37</v>
+        <v>1.6</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>21/10/2023 20:43</t>
+          <t>21/10/2023 13:13</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>3.91</v>
+        <v>1.68</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>27/10/2023 18:29</t>
+          <t>27/10/2023 18:02</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.86</v>
+        <v>4.36</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>21/10/2023 20:43</t>
+          <t>21/10/2023 13:13</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.83</v>
+        <v>4.32</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>27/10/2023 18:29</t>
+          <t>27/10/2023 18:08</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>2.07</v>
+        <v>5.58</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>21/10/2023 20:43</t>
+          <t>21/10/2023 13:13</t>
         </is>
       </c>
       <c r="T92" t="n">
-        <v>1.95</v>
+        <v>5.01</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>27/10/2023 18:29</t>
+          <t>27/10/2023 18:30</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-dusseldorf/O0duvBLl/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-vfl-osnabruck/Uwcyui6r/</t>
         </is>
       </c>
     </row>
@@ -8945,71 +8945,71 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Dusseldorf</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
         <v>4</v>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>VfL Osnabruck</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
       <c r="J93" t="n">
-        <v>1.6</v>
+        <v>3.37</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>21/10/2023 13:13</t>
+          <t>21/10/2023 20:43</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.68</v>
+        <v>3.91</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>27/10/2023 18:02</t>
+          <t>27/10/2023 18:29</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>4.36</v>
+        <v>3.86</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>21/10/2023 13:13</t>
+          <t>21/10/2023 20:43</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>4.32</v>
+        <v>3.83</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>27/10/2023 18:08</t>
+          <t>27/10/2023 18:29</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>5.58</v>
+        <v>2.07</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>21/10/2023 13:13</t>
+          <t>21/10/2023 20:43</t>
         </is>
       </c>
       <c r="T93" t="n">
-        <v>5.01</v>
+        <v>1.95</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>27/10/2023 18:30</t>
+          <t>27/10/2023 18:29</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-vfl-osnabruck/Uwcyui6r/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-dusseldorf/O0duvBLl/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,11 +9152,11 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.39</v>
+        <v>1.57</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>28/10/2023 13:00</t>
+          <t>28/10/2023 12:58</t>
         </is>
       </c>
       <c r="N95" t="n">
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.77</v>
+        <v>4.36</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>28/10/2023 13:00</t>
+          <t>28/10/2023 12:59</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>3.89</v>
+        <v>4.39</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>2.91</v>
+        <v>6.01</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>28/10/2023 13:00</t>
+          <t>28/10/2023 12:59</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-hannover/tKN0nib2/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-karlsruher/xtIdnZD8/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="G96" t="n">
+        <v>3</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Hannover</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
         <v>2</v>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Karlsruher SC</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
       <c r="J96" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,11 +9244,11 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.57</v>
+        <v>2.39</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>28/10/2023 12:58</t>
+          <t>28/10/2023 13:00</t>
         </is>
       </c>
       <c r="N96" t="n">
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>4.36</v>
+        <v>3.77</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>28/10/2023 12:59</t>
+          <t>28/10/2023 13:00</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>4.39</v>
+        <v>3.89</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>6.01</v>
+        <v>2.91</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>28/10/2023 12:59</t>
+          <t>28/10/2023 13:00</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-karlsruher/xtIdnZD8/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-hannover/tKN0nib2/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="G98" t="n">
+        <v>1</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Hansa Rostock</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Nurnberg</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
-        <v>2</v>
-      </c>
       <c r="J98" t="n">
-        <v>2.01</v>
+        <v>2.22</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>2.26</v>
+        <v>2.48</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>29/10/2023 13:14</t>
+          <t>29/10/2023 13:26</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.87</v>
+        <v>3.65</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.71</v>
+        <v>3.42</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>29/10/2023 13:29</t>
+          <t>29/10/2023 13:26</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>3.62</v>
+        <v>3.28</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>3.19</v>
+        <v>3.02</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>29/10/2023 13:29</t>
+          <t>29/10/2023 13:25</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-nurnberg/W2H0ogTE/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-hansa-rostock/x40qwVze/</t>
         </is>
       </c>
     </row>
@@ -9497,62 +9497,62 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="I99" t="n">
         <v>2</v>
       </c>
       <c r="J99" t="n">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>21/10/2023 14:42</t>
+          <t>22/10/2023 13:42</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.08</v>
+        <v>2.26</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>29/10/2023 13:27</t>
+          <t>29/10/2023 13:14</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>4.03</v>
+        <v>3.87</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>21/10/2023 14:42</t>
+          <t>22/10/2023 13:42</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.87</v>
+        <v>3.71</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>29/10/2023 13:27</t>
+          <t>29/10/2023 13:29</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>3.87</v>
+        <v>3.62</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>21/10/2023 14:42</t>
+          <t>22/10/2023 13:42</t>
         </is>
       </c>
       <c r="T99" t="n">
-        <v>3.46</v>
+        <v>3.19</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-elversberg/SUA9qXcR/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-nurnberg/W2H0ogTE/</t>
         </is>
       </c>
     </row>
@@ -9589,7 +9589,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -9597,63 +9597,63 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J100" t="n">
-        <v>2.22</v>
+        <v>1.9</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>22/10/2023 13:42</t>
+          <t>21/10/2023 14:42</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.48</v>
+        <v>2.08</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:26</t>
+          <t>29/10/2023 13:27</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.65</v>
+        <v>4.03</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>22/10/2023 13:42</t>
+          <t>21/10/2023 14:42</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.42</v>
+        <v>3.87</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:26</t>
+          <t>29/10/2023 13:27</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>3.28</v>
+        <v>3.87</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>22/10/2023 13:42</t>
+          <t>21/10/2023 14:42</t>
         </is>
       </c>
       <c r="T100" t="n">
-        <v>3.02</v>
+        <v>3.46</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:25</t>
+          <t>29/10/2023 13:29</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-hansa-rostock/x40qwVze/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-elversberg/SUA9qXcR/</t>
         </is>
       </c>
     </row>
@@ -9681,22 +9681,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J101" t="n">
-        <v>1.56</v>
+        <v>3.18</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>1.55</v>
+        <v>3.25</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         </is>
       </c>
       <c r="N101" t="n">
-        <v>4.69</v>
+        <v>3.79</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,7 +9720,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>4.66</v>
+        <v>3.67</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -9728,7 +9728,7 @@
         </is>
       </c>
       <c r="R101" t="n">
-        <v>5.34</v>
+        <v>2.17</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,7 +9736,7 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>5.83</v>
+        <v>2.23</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
@@ -9745,7 +9745,7 @@
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-wehen/bJlhy957/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-st-pauli/dEGIiUkl/</t>
         </is>
       </c>
     </row>
@@ -9773,71 +9773,439 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="G102" t="n">
+        <v>1</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Wehen</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>3</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>03/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>03/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>03/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-wehen/bJlhy957/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45234.54166666666</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Kaiserslautern</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
         <v>0</v>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>St. Pauli</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Greuther Furth</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
         <v>2</v>
       </c>
-      <c r="J102" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="K102" t="inlineStr">
+      <c r="J103" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>28/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>28/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>3</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>28/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-greuther-furth/4GyvaCcE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45234.54166666666</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Nurnberg</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>1</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Schalke</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>2</v>
+      </c>
+      <c r="J104" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K104" t="inlineStr">
         <is>
           <t>29/10/2023 13:42</t>
         </is>
       </c>
-      <c r="L102" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>03/11/2023 18:29</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="O102" t="inlineStr">
+      <c r="L104" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="O104" t="inlineStr">
         <is>
           <t>29/10/2023 13:42</t>
         </is>
       </c>
-      <c r="P102" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="Q102" t="inlineStr">
-        <is>
-          <t>03/11/2023 18:29</t>
-        </is>
-      </c>
-      <c r="R102" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="S102" t="inlineStr">
+      <c r="P104" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="S104" t="inlineStr">
         <is>
           <t>29/10/2023 13:42</t>
         </is>
       </c>
-      <c r="T102" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="U102" t="inlineStr">
-        <is>
-          <t>03/11/2023 18:29</t>
-        </is>
-      </c>
-      <c r="V102" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-st-pauli/dEGIiUkl/</t>
+      <c r="T104" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-schalke/INHEhAzr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45234.54166666666</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>VfL Osnabruck</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>1</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Holstein Kiel</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:54</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T105" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:54</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-holstein-kiel/EkBNjl5f/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45234.85416666666</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>2</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Magdeburg</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>04/11/2023 20:24</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>04/11/2023 20:26</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>04/11/2023 20:26</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-magdeburg/KSklxkj1/</t>
         </is>
       </c>
     </row>

--- a/2023/germany_2-bundesliga_2023-2024.xlsx
+++ b/2023/germany_2-bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V106"/>
+  <dimension ref="A1:V109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5265,22 +5265,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,48 +5288,48 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
+          <t>17/09/2023 13:20</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>04/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
           <t>17/09/2023 13:29</t>
         </is>
       </c>
-      <c r="N53" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="O53" t="inlineStr">
+      <c r="R53" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="S53" t="inlineStr">
         <is>
           <t>04/09/2023 08:42</t>
         </is>
       </c>
-      <c r="P53" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>17/09/2023 13:29</t>
-        </is>
-      </c>
-      <c r="R53" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>04/09/2023 08:42</t>
-        </is>
-      </c>
       <c r="T53" t="n">
-        <v>4.12</v>
+        <v>4.39</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>17/09/2023 13:28</t>
+          <t>17/09/2023 13:23</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-holstein-kiel/ny5rH820/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hertha-berlin-braunschweig/6PmoIlmf/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.78</v>
+        <v>1.93</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>17/09/2023 13:20</t>
+          <t>17/09/2023 13:29</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>4.48</v>
+        <v>4.28</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         </is>
       </c>
       <c r="R54" t="n">
-        <v>5.2</v>
+        <v>4.96</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>4.39</v>
+        <v>4.12</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>17/09/2023 13:23</t>
+          <t>17/09/2023 13:28</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hertha-berlin-braunschweig/6PmoIlmf/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-holstein-kiel/ny5rH820/</t>
         </is>
       </c>
     </row>
@@ -10206,6 +10206,282 @@
       <c r="V106" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-magdeburg/KSklxkj1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45235.5625</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Hansa Rostock</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:23</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:26</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T107" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:23</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-hertha-berlin/0rVncjSQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45235.5625</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Hannover</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>2</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Braunschweig</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:04</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:28</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:28</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-braunschweig/nuRrbWCK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45235.5625</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Karlsruher SC</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>3</v>
+      </c>
+      <c r="J109" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:04</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T109" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:56</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-paderborn/QPxz0hr8/</t>
         </is>
       </c>
     </row>

--- a/2023/germany_2-bundesliga_2023-2024.xlsx
+++ b/2023/germany_2-bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V109"/>
+  <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2.19</v>
+        <v>1.88</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>01/08/2023 05:12</t>
+          <t>29/07/2023 20:42</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.08</v>
+        <v>1.96</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>05/08/2023 12:57</t>
+          <t>05/08/2023 12:59</t>
         </is>
       </c>
       <c r="N13" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>29/07/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
         <v>3.74</v>
       </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>01/08/2023 05:12</t>
-        </is>
-      </c>
-      <c r="P13" t="n">
-        <v>3.69</v>
-      </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>05/08/2023 12:39</t>
+          <t>05/08/2023 12:59</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.17</v>
+        <v>3.99</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>01/08/2023 05:12</t>
+          <t>29/07/2023 20:42</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>3.61</v>
+        <v>3.97</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>05/08/2023 12:58</t>
+          <t>05/08/2023 12:59</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-hansa-rostock/ShDJe1zN/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-dusseldorf/jmIf156o/</t>
         </is>
       </c>
     </row>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1.88</v>
+        <v>2.43</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>29/07/2023 20:42</t>
+          <t>30/07/2023 13:42</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.96</v>
+        <v>2.69</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>05/08/2023 12:59</t>
+          <t>05/08/2023 12:57</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.97</v>
+        <v>3.66</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>29/07/2023 20:42</t>
+          <t>30/07/2023 13:42</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.74</v>
+        <v>3.88</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>05/08/2023 12:59</t>
+          <t>05/08/2023 12:52</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>3.99</v>
+        <v>2.89</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>29/07/2023 20:42</t>
+          <t>30/07/2023 13:42</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>3.97</v>
+        <v>2.51</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>05/08/2023 12:59</t>
+          <t>05/08/2023 12:57</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-dusseldorf/jmIf156o/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-greuther-furth/x4K6b3j4/</t>
         </is>
       </c>
     </row>
@@ -1769,30 +1769,30 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Hansa Rostock</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
         <v>2</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Greuther Furth</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
       <c r="J15" t="n">
-        <v>2.43</v>
+        <v>2.19</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>30/07/2023 13:42</t>
+          <t>01/08/2023 05:12</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.69</v>
+        <v>2.08</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1800,40 +1800,40 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.66</v>
+        <v>3.74</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>30/07/2023 13:42</t>
+          <t>01/08/2023 05:12</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.88</v>
+        <v>3.69</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>05/08/2023 12:52</t>
+          <t>05/08/2023 12:39</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.89</v>
+        <v>3.17</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>30/07/2023 13:42</t>
+          <t>01/08/2023 05:12</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.51</v>
+        <v>3.61</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>05/08/2023 12:57</t>
+          <t>05/08/2023 12:58</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-greuther-furth/x4K6b3j4/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-hansa-rostock/ShDJe1zN/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>4.31</v>
+        <v>2.51</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,48 +2804,48 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>3.27</v>
+        <v>2.25</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
+          <t>20/08/2023 13:28</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>12/08/2023 13:43</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>20/08/2023 13:27</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>12/08/2023 13:43</t>
+        </is>
+      </c>
+      <c r="T26" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
           <t>20/08/2023 13:29</t>
         </is>
       </c>
-      <c r="N26" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>12/08/2023 13:43</t>
-        </is>
-      </c>
-      <c r="P26" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>20/08/2023 13:29</t>
-        </is>
-      </c>
-      <c r="R26" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>12/08/2023 13:43</t>
-        </is>
-      </c>
-      <c r="T26" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>20/08/2023 13:29</t>
-        </is>
-      </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-schalke/CMYlBtzA/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-nurnberg/6qYhA0kG/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2.51</v>
+        <v>4.31</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.25</v>
+        <v>3.27</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>20/08/2023 13:28</t>
+          <t>20/08/2023 13:29</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.56</v>
+        <v>3.97</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.57</v>
+        <v>3.79</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>20/08/2023 13:27</t>
+          <t>20/08/2023 13:29</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>2.79</v>
+        <v>1.79</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>3.29</v>
+        <v>2.18</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-nurnberg/6qYhA0kG/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-schalke/CMYlBtzA/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>20/08/2023 15:12</t>
+          <t>19/08/2023 12:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.02</v>
+        <v>2.17</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>25/08/2023 18:29</t>
+          <t>25/08/2023 18:25</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>4.41</v>
+        <v>4.19</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>20/08/2023 15:12</t>
+          <t>19/08/2023 12:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>4.09</v>
+        <v>3.74</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>25/08/2023 18:29</t>
+          <t>25/08/2023 18:24</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>4.78</v>
+        <v>4.04</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>20/08/2023 15:12</t>
+          <t>19/08/2023 12:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>3.45</v>
+        <v>3.33</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>25/08/2023 18:29</t>
+          <t>25/08/2023 18:28</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-holstein-kiel/2BR18vKS/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-kaiserslautern/jyCy2xcd/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>19/08/2023 12:12</t>
+          <t>20/08/2023 15:12</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.17</v>
+        <v>2.02</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>25/08/2023 18:25</t>
+          <t>25/08/2023 18:29</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>4.19</v>
+        <v>4.41</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>19/08/2023 12:12</t>
+          <t>20/08/2023 15:12</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.74</v>
+        <v>4.09</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>25/08/2023 18:24</t>
+          <t>25/08/2023 18:29</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>4.04</v>
+        <v>4.78</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>19/08/2023 12:12</t>
+          <t>20/08/2023 15:12</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.33</v>
+        <v>3.45</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>25/08/2023 18:28</t>
+          <t>25/08/2023 18:29</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-kaiserslautern/jyCy2xcd/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-holstein-kiel/2BR18vKS/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="G44" t="n">
+        <v>2</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Hansa Rostock</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Elversberg</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
       <c r="J44" t="n">
-        <v>2.35</v>
+        <v>1.43</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>27/08/2023 17:12</t>
+          <t>27/08/2023 12:42</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.32</v>
+        <v>1.47</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>03/09/2023 13:02</t>
+          <t>03/09/2023 13:28</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.78</v>
+        <v>5.19</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>27/08/2023 17:12</t>
+          <t>27/08/2023 12:42</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>4.01</v>
+        <v>4.91</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>03/09/2023 13:04</t>
+          <t>03/09/2023 13:28</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.93</v>
+        <v>7.01</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>27/08/2023 17:12</t>
+          <t>27/08/2023 12:42</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.88</v>
+        <v>6.7</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>03/09/2023 13:04</t>
+          <t>03/09/2023 13:28</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-elversberg/djbBOjAQ/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-hansa-rostock/YcA45B3l/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>1.43</v>
+        <v>2.35</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>27/08/2023 12:42</t>
+          <t>27/08/2023 17:12</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.47</v>
+        <v>2.32</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>03/09/2023 13:28</t>
+          <t>03/09/2023 13:02</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>5.19</v>
+        <v>3.78</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>27/08/2023 12:42</t>
+          <t>27/08/2023 17:12</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>4.91</v>
+        <v>4.01</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>03/09/2023 13:28</t>
+          <t>03/09/2023 13:04</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>7.01</v>
+        <v>2.93</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>27/08/2023 12:42</t>
+          <t>27/08/2023 17:12</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>6.7</v>
+        <v>2.88</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>03/09/2023 13:28</t>
+          <t>03/09/2023 13:04</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-hansa-rostock/YcA45B3l/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-elversberg/djbBOjAQ/</t>
         </is>
       </c>
     </row>
@@ -5265,22 +5265,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>1.59</v>
+        <v>1.79</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>17/09/2023 13:20</t>
+          <t>17/09/2023 13:28</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>4.48</v>
+        <v>3.99</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>4.2</v>
+        <v>4.06</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>17/09/2023 13:29</t>
+          <t>17/09/2023 13:28</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>4.39</v>
+        <v>4.19</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>17/09/2023 13:23</t>
+          <t>17/09/2023 13:27</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hertha-berlin-braunschweig/6PmoIlmf/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-vfl-osnabruck/Yi7fE6nJ/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,48 +5380,48 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
+          <t>17/09/2023 13:20</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>04/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
           <t>17/09/2023 13:29</t>
         </is>
       </c>
-      <c r="N54" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="O54" t="inlineStr">
+      <c r="R54" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="S54" t="inlineStr">
         <is>
           <t>04/09/2023 08:42</t>
         </is>
       </c>
-      <c r="P54" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>17/09/2023 13:29</t>
-        </is>
-      </c>
-      <c r="R54" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>04/09/2023 08:42</t>
-        </is>
-      </c>
       <c r="T54" t="n">
-        <v>4.12</v>
+        <v>4.39</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>17/09/2023 13:28</t>
+          <t>17/09/2023 13:23</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-holstein-kiel/ny5rH820/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hertha-berlin-braunschweig/6PmoIlmf/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>1.79</v>
+        <v>1.65</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,48 +5472,48 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
+          <t>17/09/2023 13:29</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>04/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>17/09/2023 13:29</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>04/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T55" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
           <t>17/09/2023 13:28</t>
         </is>
       </c>
-      <c r="N55" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>04/09/2023 08:42</t>
-        </is>
-      </c>
-      <c r="P55" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>17/09/2023 13:28</t>
-        </is>
-      </c>
-      <c r="R55" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>04/09/2023 08:42</t>
-        </is>
-      </c>
-      <c r="T55" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="U55" t="inlineStr">
-        <is>
-          <t>17/09/2023 13:27</t>
-        </is>
-      </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-vfl-osnabruck/Yi7fE6nJ/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-holstein-kiel/ny5rH820/</t>
         </is>
       </c>
     </row>
@@ -5541,30 +5541,30 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>2.1</v>
+        <v>4.21</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>16/09/2023 19:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2.17</v>
+        <v>4.94</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5572,31 +5572,31 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.95</v>
+        <v>4.28</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>16/09/2023 19:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>4</v>
+        <v>4.72</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>22/09/2023 18:26</t>
+          <t>22/09/2023 18:29</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>3.23</v>
+        <v>1.75</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>16/09/2023 19:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="T56" t="n">
-        <v>3.14</v>
+        <v>1.62</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-paderborn/CrSTS51C/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-hamburger/MD9KkT8P/</t>
         </is>
       </c>
     </row>
@@ -5633,30 +5633,30 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>4.21</v>
+        <v>2.1</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>16/09/2023 19:43</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>4.94</v>
+        <v>2.17</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
@@ -5664,40 +5664,40 @@
         </is>
       </c>
       <c r="N57" t="n">
-        <v>4.28</v>
+        <v>3.95</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>16/09/2023 19:43</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>4.72</v>
+        <v>4</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
+          <t>22/09/2023 18:26</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>16/09/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
           <t>22/09/2023 18:29</t>
         </is>
       </c>
-      <c r="R57" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>17/09/2023 16:13</t>
-        </is>
-      </c>
-      <c r="T57" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>22/09/2023 18:29</t>
-        </is>
-      </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-hamburger/MD9KkT8P/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-paderborn/CrSTS51C/</t>
         </is>
       </c>
     </row>
@@ -6553,30 +6553,30 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="G67" t="n">
+        <v>2</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Wehen</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Holstein Kiel</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
-        <v>2</v>
-      </c>
       <c r="J67" t="n">
-        <v>1.84</v>
+        <v>1.69</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6584,15 +6584,15 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>4.23</v>
+        <v>4.2</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>4.27</v>
+        <v>4.17</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -6600,24 +6600,24 @@
         </is>
       </c>
       <c r="R67" t="n">
-        <v>3.83</v>
+        <v>4.66</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>4.05</v>
+        <v>4.4</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>30/09/2023 12:57</t>
+          <t>30/09/2023 12:59</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-holstein-kiel/hG22s5G5/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-wehen/zuh7tPVB/</t>
         </is>
       </c>
     </row>
@@ -6645,71 +6645,71 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.78</v>
+        <v>2.18</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>30/09/2023 12:59</t>
+          <t>30/09/2023 12:51</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>4.2</v>
+        <v>3.58</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>4.17</v>
+        <v>3.56</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>30/09/2023 12:59</t>
+          <t>30/09/2023 12:57</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>4.66</v>
+        <v>3.53</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>4.4</v>
+        <v>3.41</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>30/09/2023 12:59</t>
+          <t>30/09/2023 12:38</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-wehen/zuh7tPVB/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-braunschweig/lrdBuqoI/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>2.1</v>
+        <v>1.84</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.18</v>
+        <v>1.82</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>30/09/2023 12:51</t>
+          <t>30/09/2023 12:59</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.58</v>
+        <v>4.23</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,32 +6776,32 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.56</v>
+        <v>4.27</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
+          <t>30/09/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>24/09/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
           <t>30/09/2023 12:57</t>
         </is>
       </c>
-      <c r="R69" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>24/09/2023 12:42</t>
-        </is>
-      </c>
-      <c r="T69" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>30/09/2023 12:38</t>
-        </is>
-      </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-braunschweig/lrdBuqoI/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-holstein-kiel/hG22s5G5/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.62</v>
+        <v>2.48</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>01/10/2023 13:30</t>
+          <t>01/10/2023 13:24</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.54</v>
+        <v>3.76</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.59</v>
+        <v>3.64</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>01/10/2023 13:04</t>
+          <t>01/10/2023 13:27</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>2.54</v>
+        <v>2.49</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>2.73</v>
+        <v>2.86</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>01/10/2023 13:30</t>
+          <t>01/10/2023 13:16</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-kaiserslautern/MVQPb6ot/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-greuther-furth/MefJwNFU/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J73" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.48</v>
+        <v>2.62</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>01/10/2023 13:24</t>
+          <t>01/10/2023 13:30</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.76</v>
+        <v>3.54</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.64</v>
+        <v>3.59</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>01/10/2023 13:27</t>
+          <t>01/10/2023 13:04</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>2.49</v>
+        <v>2.54</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>2.86</v>
+        <v>2.73</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>01/10/2023 13:16</t>
+          <t>01/10/2023 13:30</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-greuther-furth/MefJwNFU/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-kaiserslautern/MVQPb6ot/</t>
         </is>
       </c>
     </row>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -7757,63 +7757,63 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J80" t="n">
-        <v>2.14</v>
+        <v>2.69</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>30/09/2023 19:43</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1.99</v>
+        <v>2.89</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>08/10/2023 13:29</t>
+          <t>08/10/2023 13:27</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.84</v>
+        <v>3.59</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>30/09/2023 19:43</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.97</v>
+        <v>3.59</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>08/10/2023 13:29</t>
+          <t>08/10/2023 13:28</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>3.3</v>
+        <v>2.58</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>30/09/2023 19:43</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>3.63</v>
+        <v>2.48</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>08/10/2023 13:29</t>
+          <t>08/10/2023 13:27</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-hertha-berlin/0MPTcQ0n/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-paderborn/GdYMzfaj/</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -7849,38 +7849,38 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>2.69</v>
+        <v>2.03</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>2.89</v>
+        <v>2.1</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>08/10/2023 13:27</t>
+          <t>08/10/2023 13:28</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.59</v>
+        <v>3.95</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.59</v>
+        <v>3.93</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -7888,24 +7888,24 @@
         </is>
       </c>
       <c r="R81" t="n">
-        <v>2.58</v>
+        <v>3.39</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="T81" t="n">
-        <v>2.48</v>
+        <v>3.36</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>08/10/2023 13:27</t>
+          <t>08/10/2023 13:28</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-paderborn/GdYMzfaj/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-elversberg/lrIteOp5/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,63 +7941,63 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>2.03</v>
+        <v>2.14</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 19:43</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.1</v>
+        <v>1.99</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>08/10/2023 13:28</t>
+          <t>08/10/2023 13:29</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.95</v>
+        <v>3.84</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 19:43</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.93</v>
+        <v>3.97</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>08/10/2023 13:28</t>
+          <t>08/10/2023 13:29</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>3.39</v>
+        <v>3.3</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 19:43</t>
         </is>
       </c>
       <c r="T82" t="n">
-        <v>3.36</v>
+        <v>3.63</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>08/10/2023 13:28</t>
+          <t>08/10/2023 13:29</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-elversberg/lrIteOp5/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-hertha-berlin/0MPTcQ0n/</t>
         </is>
       </c>
     </row>
@@ -8209,71 +8209,71 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Wehen</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
         <v>2</v>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Greuther Furth</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
       <c r="J85" t="n">
-        <v>1.58</v>
+        <v>2.15</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>21/10/2023 12:24</t>
+          <t>21/10/2023 12:57</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>4.69</v>
+        <v>3.81</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>4.46</v>
+        <v>3.81</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>21/10/2023 12:25</t>
+          <t>21/10/2023 12:57</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>5.08</v>
+        <v>3.21</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>4.62</v>
+        <v>3.44</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>21/10/2023 12:24</t>
+          <t>21/10/2023 12:58</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-greuther-furth/r3Q8bcic/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-wehen/2TOdmXrd/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>2.81</v>
+        <v>1.58</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>3.45</v>
+        <v>1.69</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>21/10/2023 12:45</t>
+          <t>21/10/2023 12:24</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.7</v>
+        <v>4.69</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.84</v>
+        <v>4.46</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>21/10/2023 12:55</t>
+          <t>21/10/2023 12:25</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>2.42</v>
+        <v>5.08</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>2.09</v>
+        <v>4.62</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>21/10/2023 12:52</t>
+          <t>21/10/2023 12:24</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-st-pauli/25tAdyM9/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-greuther-furth/r3Q8bcic/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>2</v>
       </c>
       <c r="J87" t="n">
-        <v>2.15</v>
+        <v>2.81</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.1</v>
+        <v>3.45</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>21/10/2023 12:57</t>
+          <t>21/10/2023 12:45</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.81</v>
+        <v>3.7</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.81</v>
+        <v>3.84</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>21/10/2023 12:57</t>
+          <t>21/10/2023 12:55</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>3.21</v>
+        <v>2.42</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>3.44</v>
+        <v>2.09</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>21/10/2023 12:58</t>
+          <t>21/10/2023 12:52</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-wehen/2TOdmXrd/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-st-pauli/25tAdyM9/</t>
         </is>
       </c>
     </row>
@@ -8577,30 +8577,30 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="G89" t="n">
+        <v>1</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Holstein Kiel</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
         <v>3</v>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Schalke</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
       <c r="J89" t="n">
-        <v>2.06</v>
+        <v>2.46</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>2.37</v>
+        <v>2.65</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
@@ -8608,15 +8608,15 @@
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.92</v>
+        <v>3.66</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.84</v>
+        <v>3.29</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -8624,15 +8624,15 @@
         </is>
       </c>
       <c r="R89" t="n">
-        <v>3.41</v>
+        <v>2.84</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-schalke/tduEeeyG/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-holstein-kiel/lMrMgZ5S/</t>
         </is>
       </c>
     </row>
@@ -8669,30 +8669,30 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>2.46</v>
+        <v>2.06</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>2.65</v>
+        <v>2.37</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
@@ -8700,15 +8700,15 @@
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.66</v>
+        <v>3.92</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.29</v>
+        <v>3.84</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -8716,15 +8716,15 @@
         </is>
       </c>
       <c r="R90" t="n">
-        <v>2.84</v>
+        <v>3.41</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="T90" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-holstein-kiel/lMrMgZ5S/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-schalke/tduEeeyG/</t>
         </is>
       </c>
     </row>
@@ -8853,71 +8853,71 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Dusseldorf</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
         <v>4</v>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>VfL Osnabruck</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
       <c r="J92" t="n">
-        <v>1.6</v>
+        <v>3.37</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>21/10/2023 13:13</t>
+          <t>21/10/2023 20:43</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1.68</v>
+        <v>3.91</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>27/10/2023 18:02</t>
+          <t>27/10/2023 18:29</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>4.36</v>
+        <v>3.86</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>21/10/2023 13:13</t>
+          <t>21/10/2023 20:43</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>4.32</v>
+        <v>3.83</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>27/10/2023 18:08</t>
+          <t>27/10/2023 18:29</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>5.58</v>
+        <v>2.07</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>21/10/2023 13:13</t>
+          <t>21/10/2023 20:43</t>
         </is>
       </c>
       <c r="T92" t="n">
-        <v>5.01</v>
+        <v>1.95</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>27/10/2023 18:30</t>
+          <t>27/10/2023 18:29</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-vfl-osnabruck/Uwcyui6r/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-dusseldorf/O0duvBLl/</t>
         </is>
       </c>
     </row>
@@ -8945,71 +8945,71 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>3.37</v>
+        <v>1.6</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>21/10/2023 20:43</t>
+          <t>21/10/2023 13:13</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>3.91</v>
+        <v>1.68</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>27/10/2023 18:29</t>
+          <t>27/10/2023 18:02</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.86</v>
+        <v>4.36</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>21/10/2023 20:43</t>
+          <t>21/10/2023 13:13</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.83</v>
+        <v>4.32</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>27/10/2023 18:29</t>
+          <t>27/10/2023 18:08</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>2.07</v>
+        <v>5.58</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>21/10/2023 20:43</t>
+          <t>21/10/2023 13:13</t>
         </is>
       </c>
       <c r="T93" t="n">
-        <v>1.95</v>
+        <v>5.01</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>27/10/2023 18:29</t>
+          <t>27/10/2023 18:30</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-dusseldorf/O0duvBLl/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-vfl-osnabruck/Uwcyui6r/</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -9045,14 +9045,14 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J94" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.27</v>
+        <v>2.39</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.88</v>
+        <v>4.19</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.65</v>
+        <v>3.77</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>28/10/2023 12:58</t>
+          <t>28/10/2023 13:00</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>3.48</v>
+        <v>3.89</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>3.19</v>
+        <v>2.91</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hertha-berlin-paderborn/veagmFb2/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-hannover/tKN0nib2/</t>
         </is>
       </c>
     </row>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -9229,14 +9229,14 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.39</v>
+        <v>2.27</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="N96" t="n">
-        <v>4.19</v>
+        <v>3.88</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,32 +9260,32 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.77</v>
+        <v>3.65</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
+          <t>28/10/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
           <t>28/10/2023 13:00</t>
         </is>
       </c>
-      <c r="R96" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="S96" t="inlineStr">
-        <is>
-          <t>22/10/2023 13:42</t>
-        </is>
-      </c>
-      <c r="T96" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="U96" t="inlineStr">
-        <is>
-          <t>28/10/2023 13:00</t>
-        </is>
-      </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-hannover/tKN0nib2/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hertha-berlin-paderborn/veagmFb2/</t>
         </is>
       </c>
     </row>
@@ -9497,71 +9497,71 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="I99" t="n">
         <v>2</v>
       </c>
       <c r="J99" t="n">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>22/10/2023 13:42</t>
+          <t>21/10/2023 14:42</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.26</v>
+        <v>2.08</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>29/10/2023 13:14</t>
+          <t>29/10/2023 13:27</t>
         </is>
       </c>
       <c r="N99" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
         <v>3.87</v>
       </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>22/10/2023 13:42</t>
-        </is>
-      </c>
-      <c r="P99" t="n">
-        <v>3.71</v>
-      </c>
       <c r="Q99" t="inlineStr">
         <is>
+          <t>29/10/2023 13:27</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
           <t>29/10/2023 13:29</t>
         </is>
       </c>
-      <c r="R99" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="S99" t="inlineStr">
-        <is>
-          <t>22/10/2023 13:42</t>
-        </is>
-      </c>
-      <c r="T99" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="U99" t="inlineStr">
-        <is>
-          <t>29/10/2023 13:29</t>
-        </is>
-      </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-nurnberg/W2H0ogTE/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-elversberg/SUA9qXcR/</t>
         </is>
       </c>
     </row>
@@ -9589,62 +9589,62 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="I100" t="n">
         <v>2</v>
       </c>
       <c r="J100" t="n">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>21/10/2023 14:42</t>
+          <t>22/10/2023 13:42</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.08</v>
+        <v>2.26</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:27</t>
+          <t>29/10/2023 13:14</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>4.03</v>
+        <v>3.87</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>21/10/2023 14:42</t>
+          <t>22/10/2023 13:42</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.87</v>
+        <v>3.71</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:27</t>
+          <t>29/10/2023 13:29</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>3.87</v>
+        <v>3.62</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>21/10/2023 14:42</t>
+          <t>22/10/2023 13:42</t>
         </is>
       </c>
       <c r="T100" t="n">
-        <v>3.46</v>
+        <v>3.19</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-elversberg/SUA9qXcR/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-nurnberg/W2H0ogTE/</t>
         </is>
       </c>
     </row>
@@ -9681,22 +9681,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J101" t="n">
-        <v>3.18</v>
+        <v>1.56</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>3.25</v>
+        <v>1.55</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.79</v>
+        <v>4.69</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,7 +9720,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.67</v>
+        <v>4.66</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -9728,7 +9728,7 @@
         </is>
       </c>
       <c r="R101" t="n">
-        <v>2.17</v>
+        <v>5.34</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,7 +9736,7 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>2.23</v>
+        <v>5.83</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
@@ -9745,7 +9745,7 @@
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-st-pauli/dEGIiUkl/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-wehen/bJlhy957/</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9773,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J102" t="n">
-        <v>1.56</v>
+        <v>3.18</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.55</v>
+        <v>3.25</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
@@ -9804,7 +9804,7 @@
         </is>
       </c>
       <c r="N102" t="n">
-        <v>4.69</v>
+        <v>3.79</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>4.66</v>
+        <v>3.67</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         </is>
       </c>
       <c r="R102" t="n">
-        <v>5.34</v>
+        <v>2.17</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,7 +9828,7 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>5.83</v>
+        <v>2.23</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-wehen/bJlhy957/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-st-pauli/dEGIiUkl/</t>
         </is>
       </c>
     </row>
@@ -10482,6 +10482,190 @@
       <c r="V109" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-paderborn/QPxz0hr8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45240.77083333334</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Schalke</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>1</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Elversberg</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>2</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>10/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>4</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>10/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T110" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>10/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-elversberg/htARk8K0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45240.77083333334</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>St. Pauli</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Hannover</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>10/11/2023 18:07</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>10/11/2023 18:21</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T111" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>10/11/2023 18:21</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-hannover/bwDZmnkD/</t>
         </is>
       </c>
     </row>

--- a/2023/germany_2-bundesliga_2023-2024.xlsx
+++ b/2023/germany_2-bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V111"/>
+  <dimension ref="A1:V114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5725,30 +5725,30 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.69</v>
+        <v>2.57</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
@@ -5756,31 +5756,31 @@
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.55</v>
+        <v>3.76</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.59</v>
+        <v>3.72</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>23/09/2023 12:56</t>
+          <t>23/09/2023 12:51</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.06</v>
+        <v>2.83</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-nurnberg/8ALxRqWO/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-elversberg/bZ0nomHt/</t>
         </is>
       </c>
     </row>
@@ -5909,30 +5909,30 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.57</v>
+        <v>2.69</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -5940,31 +5940,31 @@
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.76</v>
+        <v>3.55</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.72</v>
+        <v>3.59</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>23/09/2023 12:51</t>
+          <t>23/09/2023 12:56</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>2.83</v>
+        <v>3.06</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-elversberg/bZ0nomHt/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-nurnberg/8ALxRqWO/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.48</v>
+        <v>2.62</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>01/10/2023 13:24</t>
+          <t>01/10/2023 13:30</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.76</v>
+        <v>3.54</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.64</v>
+        <v>3.59</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>01/10/2023 13:27</t>
+          <t>01/10/2023 13:04</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>2.49</v>
+        <v>2.54</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>2.86</v>
+        <v>2.73</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>01/10/2023 13:16</t>
+          <t>01/10/2023 13:30</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-greuther-furth/MefJwNFU/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-kaiserslautern/MVQPb6ot/</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -7021,63 +7021,63 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>2.44</v>
+        <v>2.7</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.27</v>
+        <v>2.48</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>01/10/2023 13:30</t>
+          <t>01/10/2023 13:24</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.7</v>
+        <v>3.76</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.79</v>
+        <v>3.64</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>01/10/2023 13:29</t>
+          <t>01/10/2023 13:27</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>2.85</v>
+        <v>2.49</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="T72" t="n">
-        <v>3.09</v>
+        <v>2.86</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>01/10/2023 13:30</t>
+          <t>01/10/2023 13:16</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-magdeburg/r5eFv30O/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-greuther-furth/MefJwNFU/</t>
         </is>
       </c>
     </row>
@@ -7105,30 +7105,30 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>2.76</v>
+        <v>2.44</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.62</v>
+        <v>2.27</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
@@ -7136,31 +7136,31 @@
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.54</v>
+        <v>3.7</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.59</v>
+        <v>3.79</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>01/10/2023 13:04</t>
+          <t>01/10/2023 13:29</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>2.54</v>
+        <v>2.85</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="T73" t="n">
-        <v>2.73</v>
+        <v>3.09</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-kaiserslautern/MVQPb6ot/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-magdeburg/r5eFv30O/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,22 +7389,22 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>1.78</v>
+        <v>4.37</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 12:14</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.79</v>
+        <v>4.07</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
@@ -7412,40 +7412,40 @@
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.95</v>
+        <v>4.31</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 12:14</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.79</v>
+        <v>4.43</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>07/10/2023 12:59</t>
+          <t>07/10/2023 12:21</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>4.59</v>
+        <v>1.72</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 12:14</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>4.84</v>
+        <v>1.82</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>07/10/2023 12:59</t>
+          <t>07/10/2023 12:58</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-hansa-rostock/YXrIyzpp/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-hamburger/UaxRZDEd/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,14 +7481,14 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>2.26</v>
+        <v>1.78</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.52</v>
+        <v>1.79</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.86</v>
+        <v>3.95</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.7</v>
+        <v>3.79</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.97</v>
+        <v>4.59</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.72</v>
+        <v>4.84</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>07/10/2023 12:33</t>
+          <t>07/10/2023 12:59</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-karlsruher/d8Llg2FH/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-hansa-rostock/YXrIyzpp/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,22 +7573,22 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>4.37</v>
+        <v>2.26</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>30/09/2023 12:14</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>4.07</v>
+        <v>2.52</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
@@ -7596,40 +7596,40 @@
         </is>
       </c>
       <c r="N78" t="n">
-        <v>4.31</v>
+        <v>3.86</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>30/09/2023 12:14</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>4.43</v>
+        <v>3.7</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>07/10/2023 12:21</t>
+          <t>07/10/2023 12:59</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>1.72</v>
+        <v>2.97</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>30/09/2023 12:14</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>1.82</v>
+        <v>2.72</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>07/10/2023 12:58</t>
+          <t>07/10/2023 12:33</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-hamburger/UaxRZDEd/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-karlsruher/d8Llg2FH/</t>
         </is>
       </c>
     </row>
@@ -8025,46 +8025,46 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.8</v>
+        <v>2.19</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>20/10/2023 18:12</t>
+          <t>20/10/2023 18:29</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>4.07</v>
+        <v>4.04</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>4.14</v>
+        <v>3.8</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -8072,24 +8072,24 @@
         </is>
       </c>
       <c r="R83" t="n">
-        <v>4</v>
+        <v>3.41</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>4.31</v>
+        <v>3.23</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>20/10/2023 18:12</t>
+          <t>20/10/2023 18:27</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-braunschweig/YgKhlDTk/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-magdeburg/zJvIfFjM/</t>
         </is>
       </c>
     </row>
@@ -8117,71 +8117,71 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.19</v>
+        <v>1.8</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
+          <t>20/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>10/10/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
           <t>20/10/2023 18:29</t>
         </is>
       </c>
-      <c r="N84" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>09/10/2023 16:12</t>
-        </is>
-      </c>
-      <c r="P84" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>20/10/2023 18:29</t>
-        </is>
-      </c>
       <c r="R84" t="n">
-        <v>3.41</v>
+        <v>4</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="T84" t="n">
-        <v>3.23</v>
+        <v>4.31</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>20/10/2023 18:27</t>
+          <t>20/10/2023 18:12</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-magdeburg/zJvIfFjM/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-braunschweig/YgKhlDTk/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J86" t="n">
-        <v>1.58</v>
+        <v>2.81</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.69</v>
+        <v>3.45</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>21/10/2023 12:24</t>
+          <t>21/10/2023 12:45</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>4.69</v>
+        <v>3.7</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>4.46</v>
+        <v>3.84</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>21/10/2023 12:25</t>
+          <t>21/10/2023 12:55</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>5.08</v>
+        <v>2.42</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>4.62</v>
+        <v>2.09</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>21/10/2023 12:24</t>
+          <t>21/10/2023 12:52</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-greuther-furth/r3Q8bcic/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-st-pauli/25tAdyM9/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,14 +8401,14 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>2.81</v>
+        <v>1.58</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>3.45</v>
+        <v>1.69</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>21/10/2023 12:45</t>
+          <t>21/10/2023 12:24</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.7</v>
+        <v>4.69</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.84</v>
+        <v>4.46</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>21/10/2023 12:55</t>
+          <t>21/10/2023 12:25</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>2.42</v>
+        <v>5.08</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.09</v>
+        <v>4.62</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>21/10/2023 12:52</t>
+          <t>21/10/2023 12:24</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-st-pauli/25tAdyM9/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-greuther-furth/r3Q8bcic/</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -9045,14 +9045,14 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.39</v>
+        <v>2.27</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         </is>
       </c>
       <c r="N94" t="n">
-        <v>4.19</v>
+        <v>3.88</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,32 +9076,32 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.77</v>
+        <v>3.65</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
+          <t>28/10/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
           <t>28/10/2023 13:00</t>
         </is>
       </c>
-      <c r="R94" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="S94" t="inlineStr">
-        <is>
-          <t>22/10/2023 13:42</t>
-        </is>
-      </c>
-      <c r="T94" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="U94" t="inlineStr">
-        <is>
-          <t>28/10/2023 13:00</t>
-        </is>
-      </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-hannover/tKN0nib2/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hertha-berlin-paderborn/veagmFb2/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="G95" t="n">
+        <v>3</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Hannover</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
         <v>2</v>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Karlsruher SC</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
       <c r="J95" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,11 +9152,11 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.57</v>
+        <v>2.39</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>28/10/2023 12:58</t>
+          <t>28/10/2023 13:00</t>
         </is>
       </c>
       <c r="N95" t="n">
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>4.36</v>
+        <v>3.77</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>28/10/2023 12:59</t>
+          <t>28/10/2023 13:00</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>4.39</v>
+        <v>3.89</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>6.01</v>
+        <v>2.91</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>28/10/2023 12:59</t>
+          <t>28/10/2023 13:00</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-karlsruher/xtIdnZD8/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-hannover/tKN0nib2/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>2.05</v>
+        <v>1.76</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.27</v>
+        <v>1.57</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>28/10/2023 13:00</t>
+          <t>28/10/2023 12:58</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.88</v>
+        <v>4.19</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.65</v>
+        <v>4.36</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>28/10/2023 12:58</t>
+          <t>28/10/2023 12:59</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>3.48</v>
+        <v>4.39</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>3.19</v>
+        <v>6.01</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>28/10/2023 13:00</t>
+          <t>28/10/2023 12:59</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hertha-berlin-paderborn/veagmFb2/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-karlsruher/xtIdnZD8/</t>
         </is>
       </c>
     </row>
@@ -9497,62 +9497,62 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="I99" t="n">
         <v>2</v>
       </c>
       <c r="J99" t="n">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>21/10/2023 14:42</t>
+          <t>22/10/2023 13:42</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.08</v>
+        <v>2.26</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>29/10/2023 13:27</t>
+          <t>29/10/2023 13:14</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>4.03</v>
+        <v>3.87</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>21/10/2023 14:42</t>
+          <t>22/10/2023 13:42</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.87</v>
+        <v>3.71</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>29/10/2023 13:27</t>
+          <t>29/10/2023 13:29</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>3.87</v>
+        <v>3.62</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>21/10/2023 14:42</t>
+          <t>22/10/2023 13:42</t>
         </is>
       </c>
       <c r="T99" t="n">
-        <v>3.46</v>
+        <v>3.19</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-elversberg/SUA9qXcR/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-nurnberg/W2H0ogTE/</t>
         </is>
       </c>
     </row>
@@ -9589,71 +9589,71 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="I100" t="n">
         <v>2</v>
       </c>
       <c r="J100" t="n">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>22/10/2023 13:42</t>
+          <t>21/10/2023 14:42</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.26</v>
+        <v>2.08</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:14</t>
+          <t>29/10/2023 13:27</t>
         </is>
       </c>
       <c r="N100" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
         <v>3.87</v>
       </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>22/10/2023 13:42</t>
-        </is>
-      </c>
-      <c r="P100" t="n">
-        <v>3.71</v>
-      </c>
       <c r="Q100" t="inlineStr">
         <is>
+          <t>29/10/2023 13:27</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
           <t>29/10/2023 13:29</t>
         </is>
       </c>
-      <c r="R100" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="S100" t="inlineStr">
-        <is>
-          <t>22/10/2023 13:42</t>
-        </is>
-      </c>
-      <c r="T100" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="U100" t="inlineStr">
-        <is>
-          <t>29/10/2023 13:29</t>
-        </is>
-      </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-nurnberg/W2H0ogTE/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-elversberg/SUA9qXcR/</t>
         </is>
       </c>
     </row>
@@ -9865,30 +9865,30 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>2.39</v>
+        <v>2.43</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>28/10/2023 20:43</t>
+          <t>29/10/2023 13:42</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>2.32</v>
+        <v>2.83</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
@@ -9896,40 +9896,40 @@
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.57</v>
+        <v>3.85</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>28/10/2023 20:43</t>
+          <t>29/10/2023 13:42</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.58</v>
+        <v>3.66</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>04/11/2023 12:58</t>
+          <t>04/11/2023 12:54</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>3</v>
+        <v>2.72</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>28/10/2023 20:43</t>
+          <t>29/10/2023 13:42</t>
         </is>
       </c>
       <c r="T103" t="n">
-        <v>3.16</v>
+        <v>2.5</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>04/11/2023 12:59</t>
+          <t>04/11/2023 12:54</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-greuther-furth/4GyvaCcE/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-holstein-kiel/EkBNjl5f/</t>
         </is>
       </c>
     </row>
@@ -10049,30 +10049,30 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J105" t="n">
-        <v>2.43</v>
+        <v>2.39</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>29/10/2023 13:42</t>
+          <t>28/10/2023 20:43</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>2.83</v>
+        <v>2.32</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
@@ -10080,40 +10080,40 @@
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.85</v>
+        <v>3.57</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>29/10/2023 13:42</t>
+          <t>28/10/2023 20:43</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.66</v>
+        <v>3.58</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>04/11/2023 12:54</t>
+          <t>04/11/2023 12:58</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>29/10/2023 13:42</t>
+          <t>28/10/2023 20:43</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>2.5</v>
+        <v>3.16</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>04/11/2023 12:54</t>
+          <t>04/11/2023 12:59</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-holstein-kiel/EkBNjl5f/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-greuther-furth/4GyvaCcE/</t>
         </is>
       </c>
     </row>
@@ -10233,22 +10233,22 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>2.66</v>
+        <v>1.58</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.86</v>
+        <v>1.55</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>05/11/2023 13:23</t>
+          <t>05/11/2023 13:04</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.5</v>
+        <v>4.59</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.58</v>
+        <v>4.36</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>05/11/2023 13:26</t>
+          <t>05/11/2023 13:28</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>2.7</v>
+        <v>5.16</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>2.51</v>
+        <v>6.53</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>05/11/2023 13:23</t>
+          <t>05/11/2023 13:28</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-hertha-berlin/0rVncjSQ/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-braunschweig/nuRrbWCK/</t>
         </is>
       </c>
     </row>
@@ -10325,22 +10325,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>1.58</v>
+        <v>2.66</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>1.55</v>
+        <v>2.86</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>05/11/2023 13:04</t>
+          <t>05/11/2023 13:23</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>4.59</v>
+        <v>3.5</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>4.36</v>
+        <v>3.58</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>05/11/2023 13:28</t>
+          <t>05/11/2023 13:26</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>5.16</v>
+        <v>2.7</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>6.53</v>
+        <v>2.51</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>05/11/2023 13:28</t>
+          <t>05/11/2023 13:23</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-braunschweig/nuRrbWCK/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-hertha-berlin/0rVncjSQ/</t>
         </is>
       </c>
     </row>
@@ -10666,6 +10666,282 @@
       <c r="V111" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-hannover/bwDZmnkD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45241.54166666666</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Holstein Kiel</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>4</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>2</v>
+      </c>
+      <c r="J112" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>04/11/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>04/11/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:55</t>
+        </is>
+      </c>
+      <c r="R112" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>04/11/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T112" t="n">
+        <v>2</v>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:55</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-hamburger/vZkMBksK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45241.54166666666</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Braunschweig</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>3</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>VfL Osnabruck</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>2</v>
+      </c>
+      <c r="J113" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R113" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T113" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-vfl-osnabruck/htWd5mKm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45241.54166666666</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>1</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Nurnberg</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>3</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T114" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-nurnberg/0riICVRD/</t>
         </is>
       </c>
     </row>

--- a/2023/germany_2-bundesliga_2023-2024.xlsx
+++ b/2023/germany_2-bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V114"/>
+  <dimension ref="A1:V115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8209,71 +8209,71 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="I85" t="n">
         <v>2</v>
       </c>
       <c r="J85" t="n">
-        <v>2.15</v>
+        <v>2.81</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.1</v>
+        <v>3.45</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>21/10/2023 12:57</t>
+          <t>21/10/2023 12:45</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.81</v>
+        <v>3.7</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.81</v>
+        <v>3.84</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>21/10/2023 12:57</t>
+          <t>21/10/2023 12:55</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>3.21</v>
+        <v>2.42</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>3.44</v>
+        <v>2.09</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>21/10/2023 12:58</t>
+          <t>21/10/2023 12:52</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-wehen/2TOdmXrd/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-st-pauli/25tAdyM9/</t>
         </is>
       </c>
     </row>
@@ -8301,71 +8301,71 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>2</v>
       </c>
       <c r="J86" t="n">
-        <v>2.81</v>
+        <v>2.15</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>3.45</v>
+        <v>2.1</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>21/10/2023 12:45</t>
+          <t>21/10/2023 12:57</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.7</v>
+        <v>3.81</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.84</v>
+        <v>3.81</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>21/10/2023 12:55</t>
+          <t>21/10/2023 12:57</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>2.42</v>
+        <v>3.21</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="T86" t="n">
-        <v>2.09</v>
+        <v>3.44</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>21/10/2023 12:52</t>
+          <t>21/10/2023 12:58</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-st-pauli/25tAdyM9/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-wehen/2TOdmXrd/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J98" t="n">
-        <v>2.22</v>
+        <v>2.01</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>2.48</v>
+        <v>2.26</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>29/10/2023 13:26</t>
+          <t>29/10/2023 13:14</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.65</v>
+        <v>3.87</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.42</v>
+        <v>3.71</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>29/10/2023 13:26</t>
+          <t>29/10/2023 13:29</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>3.28</v>
+        <v>3.62</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>3.02</v>
+        <v>3.19</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>29/10/2023 13:25</t>
+          <t>29/10/2023 13:29</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-hansa-rostock/x40qwVze/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-nurnberg/W2H0ogTE/</t>
         </is>
       </c>
     </row>
@@ -9497,71 +9497,71 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="I99" t="n">
         <v>2</v>
       </c>
       <c r="J99" t="n">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>22/10/2023 13:42</t>
+          <t>21/10/2023 14:42</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.26</v>
+        <v>2.08</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>29/10/2023 13:14</t>
+          <t>29/10/2023 13:27</t>
         </is>
       </c>
       <c r="N99" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
         <v>3.87</v>
       </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>22/10/2023 13:42</t>
-        </is>
-      </c>
-      <c r="P99" t="n">
-        <v>3.71</v>
-      </c>
       <c r="Q99" t="inlineStr">
         <is>
+          <t>29/10/2023 13:27</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
           <t>29/10/2023 13:29</t>
         </is>
       </c>
-      <c r="R99" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="S99" t="inlineStr">
-        <is>
-          <t>22/10/2023 13:42</t>
-        </is>
-      </c>
-      <c r="T99" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="U99" t="inlineStr">
-        <is>
-          <t>29/10/2023 13:29</t>
-        </is>
-      </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-nurnberg/W2H0ogTE/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-elversberg/SUA9qXcR/</t>
         </is>
       </c>
     </row>
@@ -9589,7 +9589,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -9597,63 +9597,63 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>1.9</v>
+        <v>2.22</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>21/10/2023 14:42</t>
+          <t>22/10/2023 13:42</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.08</v>
+        <v>2.48</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:27</t>
+          <t>29/10/2023 13:26</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>4.03</v>
+        <v>3.65</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>21/10/2023 14:42</t>
+          <t>22/10/2023 13:42</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.87</v>
+        <v>3.42</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:27</t>
+          <t>29/10/2023 13:26</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>3.87</v>
+        <v>3.28</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>21/10/2023 14:42</t>
+          <t>22/10/2023 13:42</t>
         </is>
       </c>
       <c r="T100" t="n">
-        <v>3.46</v>
+        <v>3.02</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:29</t>
+          <t>29/10/2023 13:25</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-elversberg/SUA9qXcR/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-hansa-rostock/x40qwVze/</t>
         </is>
       </c>
     </row>
@@ -9681,22 +9681,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J101" t="n">
-        <v>1.56</v>
+        <v>3.18</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>1.55</v>
+        <v>3.25</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         </is>
       </c>
       <c r="N101" t="n">
-        <v>4.69</v>
+        <v>3.79</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,7 +9720,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>4.66</v>
+        <v>3.67</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -9728,7 +9728,7 @@
         </is>
       </c>
       <c r="R101" t="n">
-        <v>5.34</v>
+        <v>2.17</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,7 +9736,7 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>5.83</v>
+        <v>2.23</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
@@ -9745,7 +9745,7 @@
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-wehen/bJlhy957/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-st-pauli/dEGIiUkl/</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9773,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J102" t="n">
-        <v>3.18</v>
+        <v>1.56</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>3.25</v>
+        <v>1.55</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
@@ -9804,7 +9804,7 @@
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.79</v>
+        <v>4.69</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.67</v>
+        <v>4.66</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         </is>
       </c>
       <c r="R102" t="n">
-        <v>2.17</v>
+        <v>5.34</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,7 +9828,7 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>2.23</v>
+        <v>5.83</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-st-pauli/dEGIiUkl/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-wehen/bJlhy957/</t>
         </is>
       </c>
     </row>
@@ -9865,30 +9865,30 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J103" t="n">
-        <v>2.43</v>
+        <v>2.39</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>29/10/2023 13:42</t>
+          <t>28/10/2023 20:43</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>2.83</v>
+        <v>2.32</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
@@ -9896,40 +9896,40 @@
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.85</v>
+        <v>3.57</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>29/10/2023 13:42</t>
+          <t>28/10/2023 20:43</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.66</v>
+        <v>3.58</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>04/11/2023 12:54</t>
+          <t>04/11/2023 12:58</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>29/10/2023 13:42</t>
+          <t>28/10/2023 20:43</t>
         </is>
       </c>
       <c r="T103" t="n">
-        <v>2.5</v>
+        <v>3.16</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>04/11/2023 12:54</t>
+          <t>04/11/2023 12:59</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-holstein-kiel/EkBNjl5f/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-greuther-furth/4GyvaCcE/</t>
         </is>
       </c>
     </row>
@@ -10049,30 +10049,30 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>2.39</v>
+        <v>2.43</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>28/10/2023 20:43</t>
+          <t>29/10/2023 13:42</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>2.32</v>
+        <v>2.83</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
@@ -10080,40 +10080,40 @@
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.57</v>
+        <v>3.85</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>28/10/2023 20:43</t>
+          <t>29/10/2023 13:42</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.58</v>
+        <v>3.66</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>04/11/2023 12:58</t>
+          <t>04/11/2023 12:54</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>3</v>
+        <v>2.72</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>28/10/2023 20:43</t>
+          <t>29/10/2023 13:42</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>3.16</v>
+        <v>2.5</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>04/11/2023 12:59</t>
+          <t>04/11/2023 12:54</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-greuther-furth/4GyvaCcE/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-holstein-kiel/EkBNjl5f/</t>
         </is>
       </c>
     </row>
@@ -10785,22 +10785,22 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="G113" t="n">
+        <v>1</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Nurnberg</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
         <v>3</v>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>VfL Osnabruck</t>
-        </is>
-      </c>
-      <c r="I113" t="n">
-        <v>2</v>
-      </c>
       <c r="J113" t="n">
-        <v>2.16</v>
+        <v>1.95</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>2.45</v>
+        <v>2.27</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.79</v>
+        <v>3.96</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -10824,32 +10824,32 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.38</v>
+        <v>3.86</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
+          <t>11/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R113" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T113" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
           <t>11/11/2023 12:59</t>
         </is>
       </c>
-      <c r="R113" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="S113" t="inlineStr">
-        <is>
-          <t>05/11/2023 13:42</t>
-        </is>
-      </c>
-      <c r="T113" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="U113" t="inlineStr">
-        <is>
-          <t>11/11/2023 12:59</t>
-        </is>
-      </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-vfl-osnabruck/htWd5mKm/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-nurnberg/0riICVRD/</t>
         </is>
       </c>
     </row>
@@ -10877,22 +10877,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J114" t="n">
-        <v>1.95</v>
+        <v>2.16</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>2.27</v>
+        <v>2.45</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.96</v>
+        <v>3.79</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,15 +10916,15 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.86</v>
+        <v>3.38</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>11/11/2023 12:58</t>
+          <t>11/11/2023 12:59</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>3.73</v>
+        <v>3.19</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>3.04</v>
+        <v>3.09</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
@@ -10941,7 +10941,99 @@
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-nurnberg/0riICVRD/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-vfl-osnabruck/htWd5mKm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45241.85416666666</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>2</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Karlsruher SC</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>2</v>
+      </c>
+      <c r="J115" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>11/11/2023 20:28</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>11/11/2023 20:28</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T115" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>11/11/2023 20:28</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hertha-berlin-karlsruher/n39VlSZ6/</t>
         </is>
       </c>
     </row>

--- a/2023/germany_2-bundesliga_2023-2024.xlsx
+++ b/2023/germany_2-bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V115"/>
+  <dimension ref="A1:V118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5265,22 +5265,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>1.79</v>
+        <v>1.65</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,48 +5288,48 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
+          <t>17/09/2023 13:29</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>04/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>17/09/2023 13:29</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>04/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T53" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
           <t>17/09/2023 13:28</t>
         </is>
       </c>
-      <c r="N53" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>04/09/2023 08:42</t>
-        </is>
-      </c>
-      <c r="P53" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>17/09/2023 13:28</t>
-        </is>
-      </c>
-      <c r="R53" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>04/09/2023 08:42</t>
-        </is>
-      </c>
-      <c r="T53" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>17/09/2023 13:27</t>
-        </is>
-      </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-vfl-osnabruck/Yi7fE6nJ/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-holstein-kiel/ny5rH820/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>1.59</v>
+        <v>1.79</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>17/09/2023 13:20</t>
+          <t>17/09/2023 13:28</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>4.48</v>
+        <v>3.99</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>4.2</v>
+        <v>4.06</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>17/09/2023 13:29</t>
+          <t>17/09/2023 13:28</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>4.39</v>
+        <v>4.19</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>17/09/2023 13:23</t>
+          <t>17/09/2023 13:27</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hertha-berlin-braunschweig/6PmoIlmf/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-vfl-osnabruck/Yi7fE6nJ/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,48 +5472,48 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
+          <t>17/09/2023 13:20</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>04/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
           <t>17/09/2023 13:29</t>
         </is>
       </c>
-      <c r="N55" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="O55" t="inlineStr">
+      <c r="R55" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="S55" t="inlineStr">
         <is>
           <t>04/09/2023 08:42</t>
         </is>
       </c>
-      <c r="P55" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>17/09/2023 13:29</t>
-        </is>
-      </c>
-      <c r="R55" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>04/09/2023 08:42</t>
-        </is>
-      </c>
       <c r="T55" t="n">
-        <v>4.12</v>
+        <v>4.39</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>17/09/2023 13:28</t>
+          <t>17/09/2023 13:23</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-holstein-kiel/ny5rH820/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hertha-berlin-braunschweig/6PmoIlmf/</t>
         </is>
       </c>
     </row>
@@ -5541,30 +5541,30 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>4.21</v>
+        <v>2.1</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>16/09/2023 19:43</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>4.94</v>
+        <v>2.17</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5572,40 +5572,40 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>4.28</v>
+        <v>3.95</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>16/09/2023 19:43</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>4.72</v>
+        <v>4</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
+          <t>22/09/2023 18:26</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>16/09/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
           <t>22/09/2023 18:29</t>
         </is>
       </c>
-      <c r="R56" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>17/09/2023 16:13</t>
-        </is>
-      </c>
-      <c r="T56" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>22/09/2023 18:29</t>
-        </is>
-      </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-hamburger/MD9KkT8P/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-paderborn/CrSTS51C/</t>
         </is>
       </c>
     </row>
@@ -5633,30 +5633,30 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>2.1</v>
+        <v>4.21</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>16/09/2023 19:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.17</v>
+        <v>4.94</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
@@ -5664,31 +5664,31 @@
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.95</v>
+        <v>4.28</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>16/09/2023 19:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>4</v>
+        <v>4.72</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>22/09/2023 18:26</t>
+          <t>22/09/2023 18:29</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>3.23</v>
+        <v>1.75</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>16/09/2023 19:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>3.14</v>
+        <v>1.62</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-paderborn/CrSTS51C/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-hamburger/MD9KkT8P/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>16/09/2023 12:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.4</v>
+        <v>2.69</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>23/09/2023 12:51</t>
+          <t>23/09/2023 12:52</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.72</v>
+        <v>3.55</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>16/09/2023 12:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.74</v>
+        <v>3.59</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>23/09/2023 12:51</t>
+          <t>23/09/2023 12:56</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>3.08</v>
+        <v>3.06</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>16/09/2023 12:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.91</v>
+        <v>2.65</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>23/09/2023 12:51</t>
+          <t>23/09/2023 12:52</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-karlsruher/UJMYRPGI/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-nurnberg/8ALxRqWO/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J60" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>16/09/2023 12:13</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.69</v>
+        <v>2.4</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>23/09/2023 12:52</t>
+          <t>23/09/2023 12:51</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.55</v>
+        <v>3.72</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>16/09/2023 12:13</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.59</v>
+        <v>3.74</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>23/09/2023 12:56</t>
+          <t>23/09/2023 12:51</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>3.06</v>
+        <v>3.08</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>16/09/2023 12:13</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.65</v>
+        <v>2.91</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>23/09/2023 12:52</t>
+          <t>23/09/2023 12:51</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-nurnberg/8ALxRqWO/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-karlsruher/UJMYRPGI/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,14 +7481,14 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1.78</v>
+        <v>2.26</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.79</v>
+        <v>2.52</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.95</v>
+        <v>3.86</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.79</v>
+        <v>3.7</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         </is>
       </c>
       <c r="R77" t="n">
-        <v>4.59</v>
+        <v>2.97</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>4.84</v>
+        <v>2.72</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>07/10/2023 12:59</t>
+          <t>07/10/2023 12:33</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-hansa-rostock/YXrIyzpp/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-karlsruher/d8Llg2FH/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,14 +7573,14 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>2.26</v>
+        <v>1.78</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.52</v>
+        <v>1.79</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.86</v>
+        <v>3.95</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.7</v>
+        <v>3.79</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         </is>
       </c>
       <c r="R78" t="n">
-        <v>2.97</v>
+        <v>4.59</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.72</v>
+        <v>4.84</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>07/10/2023 12:33</t>
+          <t>07/10/2023 12:59</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-karlsruher/d8Llg2FH/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-hansa-rostock/YXrIyzpp/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.19</v>
+        <v>1.8</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
+          <t>20/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>10/10/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
           <t>20/10/2023 18:29</t>
         </is>
       </c>
-      <c r="N83" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>09/10/2023 16:12</t>
-        </is>
-      </c>
-      <c r="P83" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>20/10/2023 18:29</t>
-        </is>
-      </c>
       <c r="R83" t="n">
-        <v>3.41</v>
+        <v>4</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>3.23</v>
+        <v>4.31</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>20/10/2023 18:27</t>
+          <t>20/10/2023 18:12</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-magdeburg/zJvIfFjM/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-braunschweig/YgKhlDTk/</t>
         </is>
       </c>
     </row>
@@ -8117,46 +8117,46 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.8</v>
+        <v>2.19</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>20/10/2023 18:12</t>
+          <t>20/10/2023 18:29</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>4.07</v>
+        <v>4.04</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>4.14</v>
+        <v>3.8</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -8164,24 +8164,24 @@
         </is>
       </c>
       <c r="R84" t="n">
-        <v>4</v>
+        <v>3.41</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="T84" t="n">
-        <v>4.31</v>
+        <v>3.23</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>20/10/2023 18:12</t>
+          <t>20/10/2023 18:27</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-braunschweig/YgKhlDTk/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-magdeburg/zJvIfFjM/</t>
         </is>
       </c>
     </row>
@@ -8301,71 +8301,71 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="G86" t="n">
+        <v>2</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Greuther Furth</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Wehen</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
-        <v>2</v>
-      </c>
       <c r="J86" t="n">
-        <v>2.15</v>
+        <v>1.58</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.1</v>
+        <v>1.69</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>21/10/2023 12:57</t>
+          <t>21/10/2023 12:24</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.81</v>
+        <v>4.69</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.81</v>
+        <v>4.46</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>21/10/2023 12:57</t>
+          <t>21/10/2023 12:25</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>3.21</v>
+        <v>5.08</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="T86" t="n">
-        <v>3.44</v>
+        <v>4.62</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>21/10/2023 12:58</t>
+          <t>21/10/2023 12:24</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-wehen/2TOdmXrd/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-greuther-furth/r3Q8bcic/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Wehen</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
         <v>2</v>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Greuther Furth</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
       <c r="J87" t="n">
-        <v>1.58</v>
+        <v>2.15</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>21/10/2023 12:24</t>
+          <t>21/10/2023 12:57</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>4.69</v>
+        <v>3.81</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>4.46</v>
+        <v>3.81</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>21/10/2023 12:25</t>
+          <t>21/10/2023 12:57</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>5.08</v>
+        <v>3.21</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>4.62</v>
+        <v>3.44</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>21/10/2023 12:24</t>
+          <t>21/10/2023 12:58</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-greuther-furth/r3Q8bcic/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-wehen/2TOdmXrd/</t>
         </is>
       </c>
     </row>
@@ -8853,71 +8853,71 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>3.37</v>
+        <v>1.6</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>21/10/2023 20:43</t>
+          <t>21/10/2023 13:13</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>3.91</v>
+        <v>1.68</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>27/10/2023 18:29</t>
+          <t>27/10/2023 18:02</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.86</v>
+        <v>4.36</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>21/10/2023 20:43</t>
+          <t>21/10/2023 13:13</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.83</v>
+        <v>4.32</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>27/10/2023 18:29</t>
+          <t>27/10/2023 18:08</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>2.07</v>
+        <v>5.58</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>21/10/2023 20:43</t>
+          <t>21/10/2023 13:13</t>
         </is>
       </c>
       <c r="T92" t="n">
-        <v>1.95</v>
+        <v>5.01</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>27/10/2023 18:29</t>
+          <t>27/10/2023 18:30</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-dusseldorf/O0duvBLl/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-vfl-osnabruck/Uwcyui6r/</t>
         </is>
       </c>
     </row>
@@ -8945,71 +8945,71 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Dusseldorf</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
         <v>4</v>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>VfL Osnabruck</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
       <c r="J93" t="n">
-        <v>1.6</v>
+        <v>3.37</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>21/10/2023 13:13</t>
+          <t>21/10/2023 20:43</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.68</v>
+        <v>3.91</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>27/10/2023 18:02</t>
+          <t>27/10/2023 18:29</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>4.36</v>
+        <v>3.86</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>21/10/2023 13:13</t>
+          <t>21/10/2023 20:43</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>4.32</v>
+        <v>3.83</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>27/10/2023 18:08</t>
+          <t>27/10/2023 18:29</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>5.58</v>
+        <v>2.07</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>21/10/2023 13:13</t>
+          <t>21/10/2023 20:43</t>
         </is>
       </c>
       <c r="T93" t="n">
-        <v>5.01</v>
+        <v>1.95</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>27/10/2023 18:30</t>
+          <t>27/10/2023 18:29</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-vfl-osnabruck/Uwcyui6r/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-dusseldorf/O0duvBLl/</t>
         </is>
       </c>
     </row>
@@ -9037,22 +9037,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="I94" t="n">
         <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>2.05</v>
+        <v>1.76</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.27</v>
+        <v>1.57</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>28/10/2023 13:00</t>
+          <t>28/10/2023 12:58</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.88</v>
+        <v>4.19</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.65</v>
+        <v>4.36</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>28/10/2023 12:58</t>
+          <t>28/10/2023 12:59</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>3.48</v>
+        <v>4.39</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>3.19</v>
+        <v>6.01</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>28/10/2023 13:00</t>
+          <t>28/10/2023 12:59</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hertha-berlin-paderborn/veagmFb2/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-karlsruher/xtIdnZD8/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>1.76</v>
+        <v>2.05</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,48 +9244,48 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.57</v>
+        <v>2.27</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
+          <t>28/10/2023 13:00</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
           <t>28/10/2023 12:58</t>
         </is>
       </c>
-      <c r="N96" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="O96" t="inlineStr">
+      <c r="R96" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="S96" t="inlineStr">
         <is>
           <t>22/10/2023 13:42</t>
         </is>
       </c>
-      <c r="P96" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="Q96" t="inlineStr">
-        <is>
-          <t>28/10/2023 12:59</t>
-        </is>
-      </c>
-      <c r="R96" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="S96" t="inlineStr">
-        <is>
-          <t>22/10/2023 13:42</t>
-        </is>
-      </c>
       <c r="T96" t="n">
-        <v>6.01</v>
+        <v>3.19</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>28/10/2023 12:59</t>
+          <t>28/10/2023 13:00</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-karlsruher/xtIdnZD8/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hertha-berlin-paderborn/veagmFb2/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="G98" t="n">
+        <v>1</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Hansa Rostock</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Nurnberg</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
-        <v>2</v>
-      </c>
       <c r="J98" t="n">
-        <v>2.01</v>
+        <v>2.22</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>2.26</v>
+        <v>2.48</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>29/10/2023 13:14</t>
+          <t>29/10/2023 13:26</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.87</v>
+        <v>3.65</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.71</v>
+        <v>3.42</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>29/10/2023 13:29</t>
+          <t>29/10/2023 13:26</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>3.62</v>
+        <v>3.28</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>3.19</v>
+        <v>3.02</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>29/10/2023 13:29</t>
+          <t>29/10/2023 13:25</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-nurnberg/W2H0ogTE/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-hansa-rostock/x40qwVze/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J100" t="n">
-        <v>2.22</v>
+        <v>2.01</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.48</v>
+        <v>2.26</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:26</t>
+          <t>29/10/2023 13:14</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.65</v>
+        <v>3.87</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.42</v>
+        <v>3.71</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:26</t>
+          <t>29/10/2023 13:29</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>3.28</v>
+        <v>3.62</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>3.02</v>
+        <v>3.19</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:25</t>
+          <t>29/10/2023 13:29</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-hansa-rostock/x40qwVze/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-nurnberg/W2H0ogTE/</t>
         </is>
       </c>
     </row>
@@ -9681,22 +9681,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J101" t="n">
-        <v>3.18</v>
+        <v>1.56</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>3.25</v>
+        <v>1.55</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.79</v>
+        <v>4.69</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,7 +9720,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.67</v>
+        <v>4.66</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -9728,7 +9728,7 @@
         </is>
       </c>
       <c r="R101" t="n">
-        <v>2.17</v>
+        <v>5.34</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,7 +9736,7 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>2.23</v>
+        <v>5.83</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
@@ -9745,7 +9745,7 @@
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-st-pauli/dEGIiUkl/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-wehen/bJlhy957/</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9773,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J102" t="n">
-        <v>1.56</v>
+        <v>3.18</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.55</v>
+        <v>3.25</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
@@ -9804,7 +9804,7 @@
         </is>
       </c>
       <c r="N102" t="n">
-        <v>4.69</v>
+        <v>3.79</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>4.66</v>
+        <v>3.67</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         </is>
       </c>
       <c r="R102" t="n">
-        <v>5.34</v>
+        <v>2.17</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,7 +9828,7 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>5.83</v>
+        <v>2.23</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-wehen/bJlhy957/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-st-pauli/dEGIiUkl/</t>
         </is>
       </c>
     </row>
@@ -9957,7 +9957,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G104" t="n">
@@ -9965,14 +9965,14 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>2.24</v>
+        <v>2.43</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2.11</v>
+        <v>2.83</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
@@ -9988,7 +9988,7 @@
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.83</v>
+        <v>3.85</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.8</v>
+        <v>3.66</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>04/11/2023 12:59</t>
+          <t>04/11/2023 12:54</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>3.01</v>
+        <v>2.72</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>3.43</v>
+        <v>2.5</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>04/11/2023 12:59</t>
+          <t>04/11/2023 12:54</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-schalke/INHEhAzr/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-holstein-kiel/EkBNjl5f/</t>
         </is>
       </c>
     </row>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -10057,14 +10057,14 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J105" t="n">
-        <v>2.43</v>
+        <v>2.24</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>2.83</v>
+        <v>2.11</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.85</v>
+        <v>3.83</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -10088,15 +10088,15 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.66</v>
+        <v>3.8</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>04/11/2023 12:54</t>
+          <t>04/11/2023 12:59</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>2.72</v>
+        <v>3.01</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -10104,16 +10104,16 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>2.5</v>
+        <v>3.43</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>04/11/2023 12:54</t>
+          <t>04/11/2023 12:59</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-holstein-kiel/EkBNjl5f/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-schalke/INHEhAzr/</t>
         </is>
       </c>
     </row>
@@ -10693,30 +10693,30 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="I112" t="n">
         <v>2</v>
       </c>
       <c r="J112" t="n">
-        <v>3.04</v>
+        <v>2.16</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>04/11/2023 20:42</t>
+          <t>05/11/2023 13:42</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>3.52</v>
+        <v>2.45</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
@@ -10728,36 +10728,36 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>04/11/2023 20:42</t>
+          <t>05/11/2023 13:42</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>4.07</v>
+        <v>3.38</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>11/11/2023 12:55</t>
+          <t>11/11/2023 12:59</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>2.28</v>
+        <v>3.19</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>04/11/2023 20:42</t>
+          <t>05/11/2023 13:42</t>
         </is>
       </c>
       <c r="T112" t="n">
-        <v>2</v>
+        <v>3.09</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>11/11/2023 12:55</t>
+          <t>11/11/2023 12:59</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-hamburger/vZkMBksK/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-vfl-osnabruck/htWd5mKm/</t>
         </is>
       </c>
     </row>
@@ -10785,30 +10785,30 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J113" t="n">
-        <v>1.95</v>
+        <v>3.04</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>05/11/2023 13:42</t>
+          <t>04/11/2023 20:42</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>2.27</v>
+        <v>3.52</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
@@ -10816,40 +10816,40 @@
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.96</v>
+        <v>3.79</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>05/11/2023 13:42</t>
+          <t>04/11/2023 20:42</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.86</v>
+        <v>4.07</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>11/11/2023 12:58</t>
+          <t>11/11/2023 12:55</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>3.73</v>
+        <v>2.28</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>05/11/2023 13:42</t>
+          <t>04/11/2023 20:42</t>
         </is>
       </c>
       <c r="T113" t="n">
-        <v>3.04</v>
+        <v>2</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>11/11/2023 12:59</t>
+          <t>11/11/2023 12:55</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-nurnberg/0riICVRD/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-hamburger/vZkMBksK/</t>
         </is>
       </c>
     </row>
@@ -10877,22 +10877,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="G114" t="n">
+        <v>1</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Nurnberg</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
         <v>3</v>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>VfL Osnabruck</t>
-        </is>
-      </c>
-      <c r="I114" t="n">
-        <v>2</v>
-      </c>
       <c r="J114" t="n">
-        <v>2.16</v>
+        <v>1.95</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>2.45</v>
+        <v>2.27</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.79</v>
+        <v>3.96</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,32 +10916,32 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.38</v>
+        <v>3.86</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
+          <t>11/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T114" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
           <t>11/11/2023 12:59</t>
         </is>
       </c>
-      <c r="R114" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="S114" t="inlineStr">
-        <is>
-          <t>05/11/2023 13:42</t>
-        </is>
-      </c>
-      <c r="T114" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="U114" t="inlineStr">
-        <is>
-          <t>11/11/2023 12:59</t>
-        </is>
-      </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-vfl-osnabruck/htWd5mKm/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-nurnberg/0riICVRD/</t>
         </is>
       </c>
     </row>
@@ -11034,6 +11034,282 @@
       <c r="V115" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/germany/2-bundesliga/hertha-berlin-karlsruher/n39VlSZ6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45242.5625</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Greuther Furth</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>1</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Dusseldorf</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:29</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:57</t>
+        </is>
+      </c>
+      <c r="R116" t="n">
+        <v>3</v>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T116" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:29</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-dusseldorf/AHth6T4s/</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45242.5625</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Magdeburg</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>1</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Hansa Rostock</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>2</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:23</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:29</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T117" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:29</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-hansa-rostock/88fQA9dQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45242.5625</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Wehen</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>2</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Kaiserslautern</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:27</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:28</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T118" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:27</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-kaiserslautern/6qz147Zg/</t>
         </is>
       </c>
     </row>

--- a/2023/germany_2-bundesliga_2023-2024.xlsx
+++ b/2023/germany_2-bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V118"/>
+  <dimension ref="A1:V120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,14 +1961,14 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.48</v>
+        <v>1.78</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>06/08/2023 13:26</t>
+          <t>06/08/2023 13:23</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.78</v>
+        <v>3.87</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.45</v>
+        <v>4.02</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>06/08/2023 13:28</t>
+          <t>06/08/2023 13:27</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3.73</v>
+        <v>3.49</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.98</v>
+        <v>4.53</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-hannover/bJ8FdsLG/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-braunschweig/KS9BcN5A/</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,14 +2053,14 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.78</v>
+        <v>2.48</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>06/08/2023 13:23</t>
+          <t>06/08/2023 13:26</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.87</v>
+        <v>3.78</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>4.02</v>
+        <v>3.45</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>06/08/2023 13:27</t>
+          <t>06/08/2023 13:28</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>3.49</v>
+        <v>3.73</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>4.53</v>
+        <v>2.98</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-braunschweig/KS9BcN5A/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-hannover/bJ8FdsLG/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>19/08/2023 12:12</t>
+          <t>20/08/2023 15:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.17</v>
+        <v>2.02</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>25/08/2023 18:25</t>
+          <t>25/08/2023 18:29</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>4.19</v>
+        <v>4.41</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>19/08/2023 12:12</t>
+          <t>20/08/2023 15:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.74</v>
+        <v>4.09</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>25/08/2023 18:24</t>
+          <t>25/08/2023 18:29</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>4.04</v>
+        <v>4.78</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>19/08/2023 12:12</t>
+          <t>20/08/2023 15:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>3.33</v>
+        <v>3.45</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>25/08/2023 18:28</t>
+          <t>25/08/2023 18:29</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-kaiserslautern/jyCy2xcd/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-holstein-kiel/2BR18vKS/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>20/08/2023 15:12</t>
+          <t>19/08/2023 12:12</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.02</v>
+        <v>2.17</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>25/08/2023 18:29</t>
+          <t>25/08/2023 18:25</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>4.41</v>
+        <v>4.19</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>20/08/2023 15:12</t>
+          <t>19/08/2023 12:12</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>4.09</v>
+        <v>3.74</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>25/08/2023 18:29</t>
+          <t>25/08/2023 18:24</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>4.78</v>
+        <v>4.04</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>20/08/2023 15:12</t>
+          <t>19/08/2023 12:12</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.45</v>
+        <v>3.33</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>25/08/2023 18:29</t>
+          <t>25/08/2023 18:28</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-holstein-kiel/2BR18vKS/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-kaiserslautern/jyCy2xcd/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>2.01</v>
+        <v>2.18</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.41</v>
+        <v>2.2</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>26/08/2023 12:57</t>
+          <t>26/08/2023 12:59</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.89</v>
+        <v>3.7</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.56</v>
+        <v>3.54</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>26/08/2023 12:58</t>
+          <t>26/08/2023 12:59</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.61</v>
+        <v>3.22</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.01</v>
+        <v>3.44</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>26/08/2023 12:58</t>
+          <t>26/08/2023 12:59</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hertha-berlin-greuther-furth/4KDT3bSq/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-vfl-osnabruck/06gSOa49/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J32" t="n">
-        <v>2.18</v>
+        <v>2.91</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.2</v>
+        <v>2.83</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>26/08/2023 12:59</t>
+          <t>26/08/2023 12:51</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.7</v>
+        <v>3.64</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.54</v>
+        <v>3.88</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>26/08/2023 12:59</t>
+          <t>26/08/2023 12:58</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>3.22</v>
+        <v>2.44</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>3.44</v>
+        <v>2.4</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>26/08/2023 12:59</t>
+          <t>26/08/2023 12:58</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-vfl-osnabruck/06gSOa49/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-dusseldorf/f7B06ilr/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="G33" t="n">
+        <v>5</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Greuther Furth</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Dusseldorf</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>5</v>
-      </c>
       <c r="J33" t="n">
-        <v>2.91</v>
+        <v>2.01</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.83</v>
+        <v>2.41</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>26/08/2023 12:51</t>
+          <t>26/08/2023 12:57</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.64</v>
+        <v>3.89</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.88</v>
+        <v>3.56</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="R33" t="n">
-        <v>2.44</v>
+        <v>3.61</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>2.4</v>
+        <v>3.01</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-dusseldorf/f7B06ilr/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hertha-berlin-greuther-furth/4KDT3bSq/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>1.43</v>
+        <v>1.72</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.47</v>
+        <v>2.03</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>03/09/2023 13:28</t>
+          <t>03/09/2023 13:27</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>5.19</v>
+        <v>4.27</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>4.91</v>
+        <v>3.76</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>03/09/2023 13:28</t>
+          <t>03/09/2023 13:18</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>7.01</v>
+        <v>4.58</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>6.7</v>
+        <v>3.7</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>03/09/2023 13:28</t>
+          <t>03/09/2023 13:27</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-hansa-rostock/YcA45B3l/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-hannover/zyA2QCuE/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Hansa Rostock</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Elversberg</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
       <c r="J45" t="n">
-        <v>2.35</v>
+        <v>1.43</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>27/08/2023 17:12</t>
+          <t>27/08/2023 12:42</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.32</v>
+        <v>1.47</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>03/09/2023 13:02</t>
+          <t>03/09/2023 13:28</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.78</v>
+        <v>5.19</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>27/08/2023 17:12</t>
+          <t>27/08/2023 12:42</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>4.01</v>
+        <v>4.91</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>03/09/2023 13:04</t>
+          <t>03/09/2023 13:28</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.93</v>
+        <v>7.01</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>27/08/2023 17:12</t>
+          <t>27/08/2023 12:42</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.88</v>
+        <v>6.7</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>03/09/2023 13:04</t>
+          <t>03/09/2023 13:28</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-elversberg/djbBOjAQ/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-hansa-rostock/YcA45B3l/</t>
         </is>
       </c>
     </row>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Elversberg</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
         <v>1</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Hannover</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>3</v>
-      </c>
       <c r="J46" t="n">
-        <v>1.72</v>
+        <v>2.35</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>27/08/2023 12:42</t>
+          <t>27/08/2023 17:12</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.03</v>
+        <v>2.32</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>03/09/2023 13:27</t>
+          <t>03/09/2023 13:02</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>4.27</v>
+        <v>3.78</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>27/08/2023 12:42</t>
+          <t>27/08/2023 17:12</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.76</v>
+        <v>4.01</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>03/09/2023 13:18</t>
+          <t>03/09/2023 13:04</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>4.58</v>
+        <v>2.93</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>27/08/2023 12:42</t>
+          <t>27/08/2023 17:12</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>3.7</v>
+        <v>2.88</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>03/09/2023 13:27</t>
+          <t>03/09/2023 13:04</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-hannover/zyA2QCuE/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-elversberg/djbBOjAQ/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.58</v>
+        <v>2.08</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.5</v>
+        <v>4.17</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.58</v>
+        <v>3.66</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>15/09/2023 17:56</t>
+          <t>15/09/2023 18:29</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>2.83</v>
+        <v>4.83</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.79</v>
+        <v>3.64</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>15/09/2023 18:25</t>
+          <t>15/09/2023 18:29</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-greuther-furth/EmpsxAvQ/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-wehen/QR3nGSH6/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.08</v>
+        <v>2.58</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         </is>
       </c>
       <c r="N48" t="n">
-        <v>4.17</v>
+        <v>3.5</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.66</v>
+        <v>3.58</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>15/09/2023 18:29</t>
+          <t>15/09/2023 17:56</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>4.83</v>
+        <v>2.83</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>3.64</v>
+        <v>2.79</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>15/09/2023 18:29</t>
+          <t>15/09/2023 18:25</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-wehen/QR3nGSH6/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-greuther-furth/EmpsxAvQ/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>3.89</v>
+        <v>1.95</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,48 +4920,48 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>3.78</v>
+        <v>2.03</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
+          <t>16/09/2023 12:58</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>04/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
           <t>16/09/2023 12:59</t>
         </is>
       </c>
-      <c r="N49" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="O49" t="inlineStr">
+      <c r="R49" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="S49" t="inlineStr">
         <is>
           <t>04/09/2023 08:42</t>
         </is>
       </c>
-      <c r="P49" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="Q49" t="inlineStr">
+      <c r="T49" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="U49" t="inlineStr">
         <is>
           <t>16/09/2023 12:59</t>
         </is>
       </c>
-      <c r="R49" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>04/09/2023 08:42</t>
-        </is>
-      </c>
-      <c r="T49" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>16/09/2023 12:59</t>
-        </is>
-      </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-hamburger/6ux9XTns/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-kaiserslautern/Kl3jFnXC/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>1.95</v>
+        <v>3.89</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.03</v>
+        <v>3.78</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>16/09/2023 12:58</t>
+          <t>16/09/2023 12:59</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.85</v>
+        <v>4.26</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.64</v>
+        <v>4.17</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.72</v>
+        <v>1.85</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>3.83</v>
+        <v>1.9</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-kaiserslautern/Kl3jFnXC/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-hamburger/6ux9XTns/</t>
         </is>
       </c>
     </row>
@@ -5265,22 +5265,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>1.65</v>
+        <v>1.79</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>17/09/2023 13:29</t>
+          <t>17/09/2023 13:28</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>4.28</v>
+        <v>3.99</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.7</v>
+        <v>4.06</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>17/09/2023 13:29</t>
+          <t>17/09/2023 13:28</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>4.96</v>
+        <v>4.3</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>4.12</v>
+        <v>4.19</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>17/09/2023 13:28</t>
+          <t>17/09/2023 13:27</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-holstein-kiel/ny5rH820/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-vfl-osnabruck/Yi7fE6nJ/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>1.79</v>
+        <v>1.59</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>17/09/2023 13:28</t>
+          <t>17/09/2023 13:20</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.99</v>
+        <v>4.48</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>4.06</v>
+        <v>4.2</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>17/09/2023 13:28</t>
+          <t>17/09/2023 13:29</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>4.19</v>
+        <v>4.39</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>17/09/2023 13:27</t>
+          <t>17/09/2023 13:23</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-vfl-osnabruck/Yi7fE6nJ/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hertha-berlin-braunschweig/6PmoIlmf/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.78</v>
+        <v>1.93</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>17/09/2023 13:20</t>
+          <t>17/09/2023 13:29</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>4.48</v>
+        <v>4.28</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="R55" t="n">
-        <v>5.2</v>
+        <v>4.96</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>4.39</v>
+        <v>4.12</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>17/09/2023 13:23</t>
+          <t>17/09/2023 13:28</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hertha-berlin-braunschweig/6PmoIlmf/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-holstein-kiel/ny5rH820/</t>
         </is>
       </c>
     </row>
@@ -5725,30 +5725,30 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.57</v>
+        <v>2.69</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
@@ -5756,31 +5756,31 @@
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.76</v>
+        <v>3.55</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.72</v>
+        <v>3.59</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>23/09/2023 12:51</t>
+          <t>23/09/2023 12:56</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>2.83</v>
+        <v>3.06</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-elversberg/bZ0nomHt/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-nurnberg/8ALxRqWO/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J59" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>16/09/2023 12:13</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.69</v>
+        <v>2.4</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>23/09/2023 12:52</t>
+          <t>23/09/2023 12:51</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.55</v>
+        <v>3.72</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>16/09/2023 12:13</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.59</v>
+        <v>3.74</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>23/09/2023 12:56</t>
+          <t>23/09/2023 12:51</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>3.06</v>
+        <v>3.08</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>16/09/2023 12:13</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.65</v>
+        <v>2.91</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>23/09/2023 12:52</t>
+          <t>23/09/2023 12:51</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-nurnberg/8ALxRqWO/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-karlsruher/UJMYRPGI/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>2.24</v>
+        <v>2.38</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>16/09/2023 12:13</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.4</v>
+        <v>2.57</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
+          <t>23/09/2023 12:52</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>17/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
           <t>23/09/2023 12:51</t>
         </is>
       </c>
-      <c r="N60" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>16/09/2023 12:13</t>
-        </is>
-      </c>
-      <c r="P60" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>23/09/2023 12:51</t>
-        </is>
-      </c>
       <c r="R60" t="n">
-        <v>3.08</v>
+        <v>2.83</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>16/09/2023 12:13</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.91</v>
+        <v>2.7</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>23/09/2023 12:51</t>
+          <t>23/09/2023 12:52</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-karlsruher/UJMYRPGI/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-elversberg/bZ0nomHt/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>1.71</v>
+        <v>1.99</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.98</v>
+        <v>2.11</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>24/09/2023 13:27</t>
+          <t>24/09/2023 13:22</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>4.24</v>
+        <v>3.65</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.87</v>
+        <v>3.37</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>24/09/2023 13:28</t>
+          <t>24/09/2023 13:24</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>4.47</v>
+        <v>3.9</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>3.78</v>
+        <v>3.88</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>24/09/2023 13:27</t>
+          <t>24/09/2023 13:24</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-hannover/pWzDWm2m/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-hansa-rostock/YiTPTon6/</t>
         </is>
       </c>
     </row>
@@ -6185,71 +6185,71 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>2.42</v>
+        <v>1.71</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.29</v>
+        <v>1.98</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>24/09/2023 13:20</t>
+          <t>24/09/2023 13:27</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.72</v>
+        <v>4.24</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.94</v>
+        <v>3.87</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>24/09/2023 13:29</t>
+          <t>24/09/2023 13:28</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>2.8</v>
+        <v>4.47</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>2.97</v>
+        <v>3.78</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>24/09/2023 13:20</t>
+          <t>24/09/2023 13:27</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-hertha-berlin/vVTLURWa/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-hannover/pWzDWm2m/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="G64" t="n">
+        <v>2</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>3</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Hansa Rostock</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
       <c r="J64" t="n">
-        <v>1.99</v>
+        <v>2.42</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.11</v>
+        <v>2.29</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>24/09/2023 13:22</t>
+          <t>24/09/2023 13:20</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.65</v>
+        <v>3.72</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.37</v>
+        <v>3.94</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>24/09/2023 13:24</t>
+          <t>24/09/2023 13:29</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>3.88</v>
+        <v>2.97</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>24/09/2023 13:24</t>
+          <t>24/09/2023 13:20</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-hansa-rostock/YiTPTon6/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-hertha-berlin/vVTLURWa/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,22 +7389,22 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>4.37</v>
+        <v>2.26</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>30/09/2023 12:14</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>4.07</v>
+        <v>2.52</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
@@ -7412,40 +7412,40 @@
         </is>
       </c>
       <c r="N76" t="n">
-        <v>4.31</v>
+        <v>3.86</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>30/09/2023 12:14</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>4.43</v>
+        <v>3.7</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>07/10/2023 12:21</t>
+          <t>07/10/2023 12:59</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>1.72</v>
+        <v>2.97</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>30/09/2023 12:14</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>1.82</v>
+        <v>2.72</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>07/10/2023 12:58</t>
+          <t>07/10/2023 12:33</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-hamburger/UaxRZDEd/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-karlsruher/d8Llg2FH/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,22 +7481,22 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>2.26</v>
+        <v>4.37</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 12:14</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.52</v>
+        <v>4.07</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -7504,40 +7504,40 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.86</v>
+        <v>4.31</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 12:14</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.7</v>
+        <v>4.43</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>07/10/2023 12:59</t>
+          <t>07/10/2023 12:21</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.97</v>
+        <v>1.72</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 12:14</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.72</v>
+        <v>1.82</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>07/10/2023 12:33</t>
+          <t>07/10/2023 12:58</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-karlsruher/d8Llg2FH/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-hamburger/UaxRZDEd/</t>
         </is>
       </c>
     </row>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -7757,63 +7757,63 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>2.69</v>
+        <v>2.14</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>30/09/2023 19:43</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>2.89</v>
+        <v>1.99</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>08/10/2023 13:27</t>
+          <t>08/10/2023 13:29</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.59</v>
+        <v>3.84</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>30/09/2023 19:43</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.59</v>
+        <v>3.97</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>08/10/2023 13:28</t>
+          <t>08/10/2023 13:29</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>2.58</v>
+        <v>3.3</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>30/09/2023 19:43</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>2.48</v>
+        <v>3.63</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>08/10/2023 13:27</t>
+          <t>08/10/2023 13:29</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-paderborn/GdYMzfaj/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-hertha-berlin/0MPTcQ0n/</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -7849,63 +7849,63 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J81" t="n">
-        <v>2.03</v>
+        <v>2.69</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>2.1</v>
+        <v>2.89</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
+          <t>08/10/2023 13:27</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>30/09/2023 12:43</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
           <t>08/10/2023 13:28</t>
         </is>
       </c>
-      <c r="N81" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>01/10/2023 12:43</t>
-        </is>
-      </c>
-      <c r="P81" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>08/10/2023 13:28</t>
-        </is>
-      </c>
       <c r="R81" t="n">
-        <v>3.39</v>
+        <v>2.58</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="T81" t="n">
-        <v>3.36</v>
+        <v>2.48</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>08/10/2023 13:28</t>
+          <t>08/10/2023 13:27</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-elversberg/lrIteOp5/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-paderborn/GdYMzfaj/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,63 +7941,63 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>2.14</v>
+        <v>2.03</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>30/09/2023 19:43</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>08/10/2023 13:29</t>
+          <t>08/10/2023 13:28</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.84</v>
+        <v>3.95</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>30/09/2023 19:43</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.97</v>
+        <v>3.93</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>08/10/2023 13:29</t>
+          <t>08/10/2023 13:28</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>3.3</v>
+        <v>3.39</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>30/09/2023 19:43</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="T82" t="n">
-        <v>3.63</v>
+        <v>3.36</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>08/10/2023 13:29</t>
+          <t>08/10/2023 13:28</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-hertha-berlin/0MPTcQ0n/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-elversberg/lrIteOp5/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>2.81</v>
+        <v>1.58</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>3.45</v>
+        <v>1.69</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>21/10/2023 12:45</t>
+          <t>21/10/2023 12:24</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.7</v>
+        <v>4.69</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.84</v>
+        <v>4.46</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>21/10/2023 12:55</t>
+          <t>21/10/2023 12:25</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.42</v>
+        <v>5.08</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.09</v>
+        <v>4.62</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>21/10/2023 12:52</t>
+          <t>21/10/2023 12:24</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-st-pauli/25tAdyM9/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-greuther-furth/r3Q8bcic/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J86" t="n">
-        <v>1.58</v>
+        <v>2.81</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.69</v>
+        <v>3.45</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>21/10/2023 12:24</t>
+          <t>21/10/2023 12:45</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>4.69</v>
+        <v>3.7</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>4.46</v>
+        <v>3.84</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>21/10/2023 12:25</t>
+          <t>21/10/2023 12:55</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>5.08</v>
+        <v>2.42</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>4.62</v>
+        <v>2.09</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>21/10/2023 12:24</t>
+          <t>21/10/2023 12:52</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-greuther-furth/r3Q8bcic/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-st-pauli/25tAdyM9/</t>
         </is>
       </c>
     </row>
@@ -8577,30 +8577,30 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>2.46</v>
+        <v>2.06</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>2.65</v>
+        <v>2.37</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
@@ -8608,15 +8608,15 @@
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.66</v>
+        <v>3.92</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.29</v>
+        <v>3.84</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -8624,15 +8624,15 @@
         </is>
       </c>
       <c r="R89" t="n">
-        <v>2.84</v>
+        <v>3.41</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-holstein-kiel/lMrMgZ5S/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-schalke/tduEeeyG/</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -8677,14 +8677,14 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>2.06</v>
+        <v>2.65</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>2.37</v>
+        <v>2.56</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>22/10/2023 13:29</t>
+          <t>22/10/2023 13:28</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.92</v>
+        <v>3.7</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.84</v>
+        <v>3.55</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>22/10/2023 13:29</t>
+          <t>22/10/2023 13:28</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>3.41</v>
+        <v>2.56</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>22/10/2023 13:29</t>
+          <t>22/10/2023 13:28</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-schalke/tduEeeyG/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-hertha-berlin/f3LlkgEq/</t>
         </is>
       </c>
     </row>
@@ -8761,71 +8761,71 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="G91" t="n">
+        <v>1</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Holstein Kiel</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
         <v>3</v>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Hertha Berlin</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
       <c r="J91" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
         <v>2.65</v>
       </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>10/10/2023 11:42</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>2.56</v>
-      </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>22/10/2023 13:28</t>
+          <t>22/10/2023 13:29</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.7</v>
+        <v>3.66</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.55</v>
+        <v>3.29</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>22/10/2023 13:28</t>
+          <t>22/10/2023 13:29</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>2.56</v>
+        <v>2.84</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="T91" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>22/10/2023 13:28</t>
+          <t>22/10/2023 13:29</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-hertha-berlin/f3LlkgEq/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-holstein-kiel/lMrMgZ5S/</t>
         </is>
       </c>
     </row>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -9137,14 +9137,14 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.39</v>
+        <v>2.27</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         </is>
       </c>
       <c r="N95" t="n">
-        <v>4.19</v>
+        <v>3.88</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,32 +9168,32 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.77</v>
+        <v>3.65</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
+          <t>28/10/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
           <t>28/10/2023 13:00</t>
         </is>
       </c>
-      <c r="R95" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="S95" t="inlineStr">
-        <is>
-          <t>22/10/2023 13:42</t>
-        </is>
-      </c>
-      <c r="T95" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="U95" t="inlineStr">
-        <is>
-          <t>28/10/2023 13:00</t>
-        </is>
-      </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-hannover/tKN0nib2/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hertha-berlin-paderborn/veagmFb2/</t>
         </is>
       </c>
     </row>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -9229,14 +9229,14 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J96" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.27</v>
+        <v>2.39</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.88</v>
+        <v>4.19</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.65</v>
+        <v>3.77</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>28/10/2023 12:58</t>
+          <t>28/10/2023 13:00</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>3.48</v>
+        <v>3.89</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>3.19</v>
+        <v>2.91</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hertha-berlin-paderborn/veagmFb2/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-hannover/tKN0nib2/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J98" t="n">
-        <v>2.22</v>
+        <v>2.01</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>2.48</v>
+        <v>2.26</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>29/10/2023 13:26</t>
+          <t>29/10/2023 13:14</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.65</v>
+        <v>3.87</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.42</v>
+        <v>3.71</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>29/10/2023 13:26</t>
+          <t>29/10/2023 13:29</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>3.28</v>
+        <v>3.62</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>3.02</v>
+        <v>3.19</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>29/10/2023 13:25</t>
+          <t>29/10/2023 13:29</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-hansa-rostock/x40qwVze/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-nurnberg/W2H0ogTE/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="G100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Hansa Rostock</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>Nurnberg</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
-        <v>2</v>
-      </c>
       <c r="J100" t="n">
-        <v>2.01</v>
+        <v>2.22</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.26</v>
+        <v>2.48</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:14</t>
+          <t>29/10/2023 13:26</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.87</v>
+        <v>3.65</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.71</v>
+        <v>3.42</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:29</t>
+          <t>29/10/2023 13:26</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>3.62</v>
+        <v>3.28</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>3.19</v>
+        <v>3.02</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:29</t>
+          <t>29/10/2023 13:25</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-nurnberg/W2H0ogTE/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-hansa-rostock/x40qwVze/</t>
         </is>
       </c>
     </row>
@@ -9957,7 +9957,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="G104" t="n">
@@ -9965,14 +9965,14 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J104" t="n">
-        <v>2.43</v>
+        <v>2.24</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2.83</v>
+        <v>2.11</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
@@ -9988,7 +9988,7 @@
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.85</v>
+        <v>3.83</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.66</v>
+        <v>3.8</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>04/11/2023 12:54</t>
+          <t>04/11/2023 12:59</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>2.72</v>
+        <v>3.01</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>2.5</v>
+        <v>3.43</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>04/11/2023 12:54</t>
+          <t>04/11/2023 12:59</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-holstein-kiel/EkBNjl5f/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-schalke/INHEhAzr/</t>
         </is>
       </c>
     </row>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -10057,14 +10057,14 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>2.24</v>
+        <v>2.43</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>2.11</v>
+        <v>2.83</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.83</v>
+        <v>3.85</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -10088,15 +10088,15 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.8</v>
+        <v>3.66</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>04/11/2023 12:59</t>
+          <t>04/11/2023 12:54</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>3.01</v>
+        <v>2.72</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -10104,16 +10104,16 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>3.43</v>
+        <v>2.5</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>04/11/2023 12:59</t>
+          <t>04/11/2023 12:54</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-schalke/INHEhAzr/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-holstein-kiel/EkBNjl5f/</t>
         </is>
       </c>
     </row>
@@ -10233,22 +10233,22 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J107" t="n">
-        <v>1.58</v>
+        <v>2.01</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>1.55</v>
+        <v>2.23</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
@@ -10264,7 +10264,7 @@
         </is>
       </c>
       <c r="N107" t="n">
-        <v>4.59</v>
+        <v>4.05</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>4.36</v>
+        <v>3.68</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>05/11/2023 13:28</t>
+          <t>05/11/2023 12:58</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>5.16</v>
+        <v>3.37</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>6.53</v>
+        <v>3.24</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>05/11/2023 13:28</t>
+          <t>05/11/2023 12:56</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-braunschweig/nuRrbWCK/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-paderborn/QPxz0hr8/</t>
         </is>
       </c>
     </row>
@@ -10417,22 +10417,22 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="G109" t="n">
+        <v>2</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Braunschweig</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Paderborn</t>
-        </is>
-      </c>
-      <c r="I109" t="n">
-        <v>3</v>
-      </c>
       <c r="J109" t="n">
-        <v>2.01</v>
+        <v>1.58</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,7 +10440,7 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>2.23</v>
+        <v>1.55</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         </is>
       </c>
       <c r="N109" t="n">
-        <v>4.05</v>
+        <v>4.59</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.68</v>
+        <v>4.36</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>05/11/2023 12:58</t>
+          <t>05/11/2023 13:28</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>3.37</v>
+        <v>5.16</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>3.24</v>
+        <v>6.53</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>05/11/2023 12:56</t>
+          <t>05/11/2023 13:28</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-paderborn/QPxz0hr8/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-braunschweig/nuRrbWCK/</t>
         </is>
       </c>
     </row>
@@ -11061,7 +11061,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="G116" t="n">
@@ -11069,54 +11069,54 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J116" t="n">
-        <v>2.37</v>
+        <v>1.84</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>04/11/2023 13:42</t>
+          <t>05/11/2023 13:42</t>
         </is>
       </c>
       <c r="L116" t="n">
-        <v>2.25</v>
+        <v>1.78</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
+          <t>12/11/2023 13:23</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
           <t>12/11/2023 13:29</t>
         </is>
       </c>
-      <c r="N116" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="O116" t="inlineStr">
-        <is>
-          <t>04/11/2023 13:42</t>
-        </is>
-      </c>
-      <c r="P116" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Q116" t="inlineStr">
-        <is>
-          <t>12/11/2023 12:57</t>
-        </is>
-      </c>
       <c r="R116" t="n">
-        <v>3</v>
+        <v>4.13</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>04/11/2023 13:42</t>
+          <t>05/11/2023 13:42</t>
         </is>
       </c>
       <c r="T116" t="n">
-        <v>3.28</v>
+        <v>4.47</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-dusseldorf/AHth6T4s/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-hansa-rostock/88fQA9dQ/</t>
         </is>
       </c>
     </row>
@@ -11153,7 +11153,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G117" t="n">
@@ -11161,63 +11161,63 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>1.84</v>
+        <v>2.37</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>05/11/2023 13:42</t>
+          <t>04/11/2023 13:42</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>1.78</v>
+        <v>2.25</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>12/11/2023 13:23</t>
+          <t>12/11/2023 13:29</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>4.02</v>
+        <v>3.54</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>05/11/2023 13:42</t>
+          <t>04/11/2023 13:42</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>4.12</v>
+        <v>3.7</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
+          <t>12/11/2023 12:57</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
+        <v>3</v>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T117" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
           <t>12/11/2023 13:29</t>
         </is>
       </c>
-      <c r="R117" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="S117" t="inlineStr">
-        <is>
-          <t>05/11/2023 13:42</t>
-        </is>
-      </c>
-      <c r="T117" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="U117" t="inlineStr">
-        <is>
-          <t>12/11/2023 13:29</t>
-        </is>
-      </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-hansa-rostock/88fQA9dQ/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-dusseldorf/AHth6T4s/</t>
         </is>
       </c>
     </row>
@@ -11310,6 +11310,190 @@
       <c r="V118" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-kaiserslautern/6qz147Zg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45254.77083333334</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>2</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Braunschweig</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>24/11/2023 18:10</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>24/11/2023 18:11</t>
+        </is>
+      </c>
+      <c r="R119" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T119" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>24/11/2023 18:11</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-braunschweig/06Z43Rl0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45254.77083333334</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Hannover</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>2</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>2</v>
+      </c>
+      <c r="J120" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>24/11/2023 18:08</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P120" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>24/11/2023 18:08</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T120" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>24/11/2023 18:08</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-hertha-berlin/dnGG8MQu/</t>
         </is>
       </c>
     </row>

--- a/2023/germany_2-bundesliga_2023-2024.xlsx
+++ b/2023/germany_2-bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V120"/>
+  <dimension ref="A1:V127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2.42</v>
+        <v>2.53</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,48 +1148,48 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.35</v>
+        <v>2.57</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
+          <t>30/07/2023 13:26</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>08/07/2023 18:28</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>30/07/2023 13:26</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>08/07/2023 18:28</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
           <t>30/07/2023 13:28</t>
         </is>
       </c>
-      <c r="N8" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>08/07/2023 18:28</t>
-        </is>
-      </c>
-      <c r="P8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>30/07/2023 13:27</t>
-        </is>
-      </c>
-      <c r="R8" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>08/07/2023 18:28</t>
-        </is>
-      </c>
-      <c r="T8" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>30/07/2023 13:28</t>
-        </is>
-      </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-nurnberg/jqSGBlF0/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-paderborn/OMeKCUaf/</t>
         </is>
       </c>
     </row>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>2.53</v>
+        <v>2.5</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.57</v>
+        <v>2.35</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>30/07/2023 13:26</t>
+          <t>30/07/2023 13:29</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.61</v>
+        <v>3.8</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.7</v>
+        <v>3.72</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>30/07/2023 13:26</t>
+          <t>30/07/2023 13:28</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>2.78</v>
+        <v>2.67</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>2.71</v>
+        <v>2.99</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>30/07/2023 13:28</t>
+          <t>30/07/2023 13:29</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-paderborn/OMeKCUaf/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-holstein-kiel/UZQKA8U6/</t>
         </is>
       </c>
     </row>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Nurnberg</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Holstein Kiel</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
       <c r="J10" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1336,11 +1336,11 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>30/07/2023 13:29</t>
+          <t>30/07/2023 13:28</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.8</v>
+        <v>3.33</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,32 +1348,32 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.72</v>
+        <v>3.25</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
+          <t>30/07/2023 13:27</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>08/07/2023 18:28</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
           <t>30/07/2023 13:28</t>
         </is>
       </c>
-      <c r="R10" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>08/07/2023 18:28</t>
-        </is>
-      </c>
-      <c r="T10" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>30/07/2023 13:29</t>
-        </is>
-      </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-holstein-kiel/UZQKA8U6/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-nurnberg/jqSGBlF0/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,14 +1961,14 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.78</v>
+        <v>2.48</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>06/08/2023 13:23</t>
+          <t>06/08/2023 13:26</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.87</v>
+        <v>3.78</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>4.02</v>
+        <v>3.45</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>06/08/2023 13:27</t>
+          <t>06/08/2023 13:28</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3.49</v>
+        <v>3.73</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>4.53</v>
+        <v>2.98</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-braunschweig/KS9BcN5A/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-hannover/bJ8FdsLG/</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,14 +2053,14 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.48</v>
+        <v>1.78</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>06/08/2023 13:26</t>
+          <t>06/08/2023 13:23</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.78</v>
+        <v>3.87</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.45</v>
+        <v>4.02</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>06/08/2023 13:28</t>
+          <t>06/08/2023 13:27</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>3.73</v>
+        <v>3.49</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.98</v>
+        <v>4.53</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-hannover/bJ8FdsLG/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-braunschweig/KS9BcN5A/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>20/08/2023 15:12</t>
+          <t>19/08/2023 12:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.02</v>
+        <v>2.17</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>25/08/2023 18:29</t>
+          <t>25/08/2023 18:25</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>4.41</v>
+        <v>4.19</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>20/08/2023 15:12</t>
+          <t>19/08/2023 12:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>4.09</v>
+        <v>3.74</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>25/08/2023 18:29</t>
+          <t>25/08/2023 18:24</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>4.78</v>
+        <v>4.04</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>20/08/2023 15:12</t>
+          <t>19/08/2023 12:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>3.45</v>
+        <v>3.33</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>25/08/2023 18:29</t>
+          <t>25/08/2023 18:28</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-holstein-kiel/2BR18vKS/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-kaiserslautern/jyCy2xcd/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>19/08/2023 12:12</t>
+          <t>20/08/2023 15:12</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.17</v>
+        <v>2.02</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>25/08/2023 18:25</t>
+          <t>25/08/2023 18:29</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>4.19</v>
+        <v>4.41</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>19/08/2023 12:12</t>
+          <t>20/08/2023 15:12</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.74</v>
+        <v>4.09</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>25/08/2023 18:24</t>
+          <t>25/08/2023 18:29</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>4.04</v>
+        <v>4.78</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>19/08/2023 12:12</t>
+          <t>20/08/2023 15:12</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.33</v>
+        <v>3.45</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>25/08/2023 18:28</t>
+          <t>25/08/2023 18:29</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-kaiserslautern/jyCy2xcd/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-holstein-kiel/2BR18vKS/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.18</v>
+        <v>2.01</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.2</v>
+        <v>2.41</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>26/08/2023 12:59</t>
+          <t>26/08/2023 12:57</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.7</v>
+        <v>3.89</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.54</v>
+        <v>3.56</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>26/08/2023 12:59</t>
+          <t>26/08/2023 12:58</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.22</v>
+        <v>3.61</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.44</v>
+        <v>3.01</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>26/08/2023 12:59</t>
+          <t>26/08/2023 12:58</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-vfl-osnabruck/06gSOa49/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hertha-berlin-greuther-furth/4KDT3bSq/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>2.91</v>
+        <v>2.18</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.83</v>
+        <v>2.2</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>26/08/2023 12:51</t>
+          <t>26/08/2023 12:59</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.64</v>
+        <v>3.7</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.88</v>
+        <v>3.54</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>26/08/2023 12:58</t>
+          <t>26/08/2023 12:59</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>2.44</v>
+        <v>3.22</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>2.4</v>
+        <v>3.44</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>26/08/2023 12:58</t>
+          <t>26/08/2023 12:59</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-dusseldorf/f7B06ilr/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-vfl-osnabruck/06gSOa49/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Dusseldorf</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
         <v>5</v>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Greuther Furth</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
       <c r="J33" t="n">
-        <v>2.01</v>
+        <v>2.91</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.41</v>
+        <v>2.83</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>26/08/2023 12:57</t>
+          <t>26/08/2023 12:51</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.89</v>
+        <v>3.64</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.56</v>
+        <v>3.88</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="R33" t="n">
-        <v>3.61</v>
+        <v>2.44</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>3.01</v>
+        <v>2.4</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hertha-berlin-greuther-furth/4KDT3bSq/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-dusseldorf/f7B06ilr/</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,14 +4905,14 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J49" t="n">
-        <v>1.95</v>
+        <v>3.01</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.03</v>
+        <v>3.37</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>16/09/2023 12:58</t>
+          <t>16/09/2023 12:59</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.85</v>
+        <v>3.39</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.64</v>
+        <v>3.45</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.72</v>
+        <v>2.43</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>3.83</v>
+        <v>2.26</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-kaiserslautern/Kl3jFnXC/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-dusseldorf/zcowwjPJ/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="G50" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
         <v>1</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Dusseldorf</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
       <c r="J50" t="n">
-        <v>3.01</v>
+        <v>3.89</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>3.37</v>
+        <v>3.78</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.39</v>
+        <v>4.26</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.45</v>
+        <v>4.17</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="R50" t="n">
-        <v>2.43</v>
+        <v>1.85</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>2.26</v>
+        <v>1.9</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-dusseldorf/zcowwjPJ/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-hamburger/6ux9XTns/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>3.89</v>
+        <v>1.95</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,48 +5104,48 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>3.78</v>
+        <v>2.03</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
+          <t>16/09/2023 12:58</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>04/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
           <t>16/09/2023 12:59</t>
         </is>
       </c>
-      <c r="N51" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="O51" t="inlineStr">
+      <c r="R51" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="S51" t="inlineStr">
         <is>
           <t>04/09/2023 08:42</t>
         </is>
       </c>
-      <c r="P51" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="Q51" t="inlineStr">
+      <c r="T51" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="U51" t="inlineStr">
         <is>
           <t>16/09/2023 12:59</t>
         </is>
       </c>
-      <c r="R51" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>04/09/2023 08:42</t>
-        </is>
-      </c>
-      <c r="T51" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>16/09/2023 12:59</t>
-        </is>
-      </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-hamburger/6ux9XTns/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-kaiserslautern/Kl3jFnXC/</t>
         </is>
       </c>
     </row>
@@ -6093,71 +6093,71 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="G62" t="n">
+        <v>2</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
         <v>3</v>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Hansa Rostock</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
       <c r="J62" t="n">
-        <v>1.99</v>
+        <v>2.42</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.11</v>
+        <v>2.29</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>24/09/2023 13:22</t>
+          <t>24/09/2023 13:20</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.65</v>
+        <v>3.72</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.37</v>
+        <v>3.94</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>24/09/2023 13:24</t>
+          <t>24/09/2023 13:29</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="T62" t="n">
-        <v>3.88</v>
+        <v>2.97</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>24/09/2023 13:24</t>
+          <t>24/09/2023 13:20</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-hansa-rostock/YiTPTon6/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-hertha-berlin/vVTLURWa/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>1.71</v>
+        <v>1.99</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.98</v>
+        <v>2.11</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>24/09/2023 13:27</t>
+          <t>24/09/2023 13:22</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>4.24</v>
+        <v>3.65</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.87</v>
+        <v>3.37</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>24/09/2023 13:28</t>
+          <t>24/09/2023 13:24</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>4.47</v>
+        <v>3.9</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>3.78</v>
+        <v>3.88</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>24/09/2023 13:27</t>
+          <t>24/09/2023 13:24</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-hannover/pWzDWm2m/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-hansa-rostock/YiTPTon6/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>2.42</v>
+        <v>1.71</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.29</v>
+        <v>1.98</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>24/09/2023 13:20</t>
+          <t>24/09/2023 13:27</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.72</v>
+        <v>4.24</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.94</v>
+        <v>3.87</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>24/09/2023 13:29</t>
+          <t>24/09/2023 13:28</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.8</v>
+        <v>4.47</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>2.97</v>
+        <v>3.78</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>24/09/2023 13:20</t>
+          <t>24/09/2023 13:27</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-hertha-berlin/vVTLURWa/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-hannover/pWzDWm2m/</t>
         </is>
       </c>
     </row>
@@ -6553,30 +6553,30 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Holstein Kiel</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
         <v>2</v>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Wehen</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
       <c r="J67" t="n">
-        <v>1.69</v>
+        <v>1.84</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6584,15 +6584,15 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>4.2</v>
+        <v>4.23</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>4.17</v>
+        <v>4.27</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -6600,24 +6600,24 @@
         </is>
       </c>
       <c r="R67" t="n">
-        <v>4.66</v>
+        <v>3.83</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>4.4</v>
+        <v>4.05</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>30/09/2023 12:59</t>
+          <t>30/09/2023 12:57</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-wehen/zuh7tPVB/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-holstein-kiel/hG22s5G5/</t>
         </is>
       </c>
     </row>
@@ -6645,71 +6645,71 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>2.1</v>
+        <v>1.69</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.18</v>
+        <v>1.78</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>30/09/2023 12:51</t>
+          <t>30/09/2023 12:59</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.58</v>
+        <v>4.2</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.56</v>
+        <v>4.17</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>30/09/2023 12:57</t>
+          <t>30/09/2023 12:59</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>3.53</v>
+        <v>4.66</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>3.41</v>
+        <v>4.4</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>30/09/2023 12:38</t>
+          <t>30/09/2023 12:59</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-braunschweig/lrdBuqoI/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-wehen/zuh7tPVB/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Braunschweig</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Holstein Kiel</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>2</v>
-      </c>
       <c r="J69" t="n">
-        <v>1.84</v>
+        <v>2.1</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.82</v>
+        <v>2.18</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>30/09/2023 12:59</t>
+          <t>30/09/2023 12:51</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>4.23</v>
+        <v>3.58</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>4.27</v>
+        <v>3.56</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>30/09/2023 12:59</t>
+          <t>30/09/2023 12:57</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.83</v>
+        <v>3.53</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>4.05</v>
+        <v>3.41</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>30/09/2023 12:57</t>
+          <t>30/09/2023 12:38</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-holstein-kiel/hG22s5G5/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-braunschweig/lrdBuqoI/</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -7021,63 +7021,63 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>2.7</v>
+        <v>2.44</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.48</v>
+        <v>2.27</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>01/10/2023 13:24</t>
+          <t>01/10/2023 13:30</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.76</v>
+        <v>3.7</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.64</v>
+        <v>3.79</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>01/10/2023 13:27</t>
+          <t>01/10/2023 13:29</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>2.49</v>
+        <v>2.85</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="T72" t="n">
-        <v>2.86</v>
+        <v>3.09</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>01/10/2023 13:16</t>
+          <t>01/10/2023 13:30</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-greuther-furth/MefJwNFU/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-magdeburg/r5eFv30O/</t>
         </is>
       </c>
     </row>
@@ -7105,7 +7105,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -7113,63 +7113,63 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>2.44</v>
+        <v>2.7</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.27</v>
+        <v>2.48</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>01/10/2023 13:30</t>
+          <t>01/10/2023 13:24</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.7</v>
+        <v>3.76</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.79</v>
+        <v>3.64</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>01/10/2023 13:29</t>
+          <t>01/10/2023 13:27</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>2.85</v>
+        <v>2.49</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="T73" t="n">
-        <v>3.09</v>
+        <v>2.86</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>01/10/2023 13:30</t>
+          <t>01/10/2023 13:16</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-magdeburg/r5eFv30O/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-greuther-furth/MefJwNFU/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,14 +7389,14 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>2.26</v>
+        <v>1.78</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,7 +7404,7 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.52</v>
+        <v>1.79</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.86</v>
+        <v>3.95</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.7</v>
+        <v>3.79</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         </is>
       </c>
       <c r="R76" t="n">
-        <v>2.97</v>
+        <v>4.59</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>2.72</v>
+        <v>4.84</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>07/10/2023 12:33</t>
+          <t>07/10/2023 12:59</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-karlsruher/d8Llg2FH/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-hansa-rostock/YXrIyzpp/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,22 +7481,22 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>4.37</v>
+        <v>2.26</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>30/09/2023 12:14</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>4.07</v>
+        <v>2.52</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -7504,40 +7504,40 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>4.31</v>
+        <v>3.86</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>30/09/2023 12:14</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>4.43</v>
+        <v>3.7</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>07/10/2023 12:21</t>
+          <t>07/10/2023 12:59</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>1.72</v>
+        <v>2.97</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>30/09/2023 12:14</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>1.82</v>
+        <v>2.72</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>07/10/2023 12:58</t>
+          <t>07/10/2023 12:33</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-hamburger/UaxRZDEd/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-karlsruher/d8Llg2FH/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,22 +7573,22 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>1.78</v>
+        <v>4.37</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 12:14</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.79</v>
+        <v>4.07</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
@@ -7596,40 +7596,40 @@
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.95</v>
+        <v>4.31</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 12:14</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.79</v>
+        <v>4.43</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>07/10/2023 12:59</t>
+          <t>07/10/2023 12:21</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>4.59</v>
+        <v>1.72</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 12:14</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>4.84</v>
+        <v>1.82</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>07/10/2023 12:59</t>
+          <t>07/10/2023 12:58</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-hansa-rostock/YXrIyzpp/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-hamburger/UaxRZDEd/</t>
         </is>
       </c>
     </row>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -7757,63 +7757,63 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J80" t="n">
-        <v>2.14</v>
+        <v>2.69</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>30/09/2023 19:43</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1.99</v>
+        <v>2.89</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>08/10/2023 13:29</t>
+          <t>08/10/2023 13:27</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.84</v>
+        <v>3.59</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>30/09/2023 19:43</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.97</v>
+        <v>3.59</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>08/10/2023 13:29</t>
+          <t>08/10/2023 13:28</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>3.3</v>
+        <v>2.58</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>30/09/2023 19:43</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>3.63</v>
+        <v>2.48</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>08/10/2023 13:29</t>
+          <t>08/10/2023 13:27</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-hertha-berlin/0MPTcQ0n/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-paderborn/GdYMzfaj/</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -7849,38 +7849,38 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>2.69</v>
+        <v>2.03</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>2.89</v>
+        <v>2.1</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>08/10/2023 13:27</t>
+          <t>08/10/2023 13:28</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.59</v>
+        <v>3.95</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.59</v>
+        <v>3.93</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -7888,24 +7888,24 @@
         </is>
       </c>
       <c r="R81" t="n">
-        <v>2.58</v>
+        <v>3.39</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="T81" t="n">
-        <v>2.48</v>
+        <v>3.36</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>08/10/2023 13:27</t>
+          <t>08/10/2023 13:28</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-paderborn/GdYMzfaj/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-elversberg/lrIteOp5/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,63 +7941,63 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>2.03</v>
+        <v>2.14</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 19:43</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.1</v>
+        <v>1.99</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>08/10/2023 13:28</t>
+          <t>08/10/2023 13:29</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.95</v>
+        <v>3.84</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 19:43</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.93</v>
+        <v>3.97</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>08/10/2023 13:28</t>
+          <t>08/10/2023 13:29</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>3.39</v>
+        <v>3.3</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 19:43</t>
         </is>
       </c>
       <c r="T82" t="n">
-        <v>3.36</v>
+        <v>3.63</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>08/10/2023 13:28</t>
+          <t>08/10/2023 13:29</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-elversberg/lrIteOp5/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-hertha-berlin/0MPTcQ0n/</t>
         </is>
       </c>
     </row>
@@ -8577,30 +8577,30 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="G89" t="n">
+        <v>1</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Holstein Kiel</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
         <v>3</v>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Schalke</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
       <c r="J89" t="n">
-        <v>2.06</v>
+        <v>2.46</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>2.37</v>
+        <v>2.65</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
@@ -8608,15 +8608,15 @@
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.92</v>
+        <v>3.66</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.84</v>
+        <v>3.29</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -8624,15 +8624,15 @@
         </is>
       </c>
       <c r="R89" t="n">
-        <v>3.41</v>
+        <v>2.84</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-schalke/tduEeeyG/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-holstein-kiel/lMrMgZ5S/</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -8677,14 +8677,14 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>2.65</v>
+        <v>2.06</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>2.56</v>
+        <v>2.37</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>22/10/2023 13:28</t>
+          <t>22/10/2023 13:29</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.7</v>
+        <v>3.92</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.55</v>
+        <v>3.84</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>22/10/2023 13:28</t>
+          <t>22/10/2023 13:29</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>2.56</v>
+        <v>3.41</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>22/10/2023 13:28</t>
+          <t>22/10/2023 13:29</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-hertha-berlin/f3LlkgEq/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-schalke/tduEeeyG/</t>
         </is>
       </c>
     </row>
@@ -8761,71 +8761,71 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="G91" t="n">
+        <v>3</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
         <v>1</v>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Holstein Kiel</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
-        <v>3</v>
-      </c>
       <c r="J91" t="n">
-        <v>2.46</v>
+        <v>2.65</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>22/10/2023 13:29</t>
+          <t>22/10/2023 13:28</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.66</v>
+        <v>3.7</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.29</v>
+        <v>3.55</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>22/10/2023 13:29</t>
+          <t>22/10/2023 13:28</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>2.84</v>
+        <v>2.56</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="T91" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>22/10/2023 13:29</t>
+          <t>22/10/2023 13:28</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-holstein-kiel/lMrMgZ5S/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-hertha-berlin/f3LlkgEq/</t>
         </is>
       </c>
     </row>
@@ -8853,71 +8853,71 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Dusseldorf</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
         <v>4</v>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>VfL Osnabruck</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
       <c r="J92" t="n">
-        <v>1.6</v>
+        <v>3.37</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>21/10/2023 13:13</t>
+          <t>21/10/2023 20:43</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1.68</v>
+        <v>3.91</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>27/10/2023 18:02</t>
+          <t>27/10/2023 18:29</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>4.36</v>
+        <v>3.86</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>21/10/2023 13:13</t>
+          <t>21/10/2023 20:43</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>4.32</v>
+        <v>3.83</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>27/10/2023 18:08</t>
+          <t>27/10/2023 18:29</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>5.58</v>
+        <v>2.07</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>21/10/2023 13:13</t>
+          <t>21/10/2023 20:43</t>
         </is>
       </c>
       <c r="T92" t="n">
-        <v>5.01</v>
+        <v>1.95</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>27/10/2023 18:30</t>
+          <t>27/10/2023 18:29</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-vfl-osnabruck/Uwcyui6r/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-dusseldorf/O0duvBLl/</t>
         </is>
       </c>
     </row>
@@ -8945,71 +8945,71 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>3.37</v>
+        <v>1.6</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>21/10/2023 20:43</t>
+          <t>21/10/2023 13:13</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>3.91</v>
+        <v>1.68</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>27/10/2023 18:29</t>
+          <t>27/10/2023 18:02</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.86</v>
+        <v>4.36</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>21/10/2023 20:43</t>
+          <t>21/10/2023 13:13</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.83</v>
+        <v>4.32</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>27/10/2023 18:29</t>
+          <t>27/10/2023 18:08</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>2.07</v>
+        <v>5.58</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>21/10/2023 20:43</t>
+          <t>21/10/2023 13:13</t>
         </is>
       </c>
       <c r="T93" t="n">
-        <v>1.95</v>
+        <v>5.01</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>27/10/2023 18:29</t>
+          <t>27/10/2023 18:30</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-dusseldorf/O0duvBLl/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-vfl-osnabruck/Uwcyui6r/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="G98" t="n">
+        <v>1</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Hansa Rostock</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Nurnberg</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
-        <v>2</v>
-      </c>
       <c r="J98" t="n">
-        <v>2.01</v>
+        <v>2.22</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>2.26</v>
+        <v>2.48</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>29/10/2023 13:14</t>
+          <t>29/10/2023 13:26</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.87</v>
+        <v>3.65</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.71</v>
+        <v>3.42</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>29/10/2023 13:29</t>
+          <t>29/10/2023 13:26</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>3.62</v>
+        <v>3.28</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>3.19</v>
+        <v>3.02</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>29/10/2023 13:29</t>
+          <t>29/10/2023 13:25</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-nurnberg/W2H0ogTE/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-hansa-rostock/x40qwVze/</t>
         </is>
       </c>
     </row>
@@ -9497,62 +9497,62 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="I99" t="n">
         <v>2</v>
       </c>
       <c r="J99" t="n">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>21/10/2023 14:42</t>
+          <t>22/10/2023 13:42</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.08</v>
+        <v>2.26</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>29/10/2023 13:27</t>
+          <t>29/10/2023 13:14</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>4.03</v>
+        <v>3.87</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>21/10/2023 14:42</t>
+          <t>22/10/2023 13:42</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.87</v>
+        <v>3.71</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>29/10/2023 13:27</t>
+          <t>29/10/2023 13:29</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>3.87</v>
+        <v>3.62</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>21/10/2023 14:42</t>
+          <t>22/10/2023 13:42</t>
         </is>
       </c>
       <c r="T99" t="n">
-        <v>3.46</v>
+        <v>3.19</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-elversberg/SUA9qXcR/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-nurnberg/W2H0ogTE/</t>
         </is>
       </c>
     </row>
@@ -9589,7 +9589,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -9597,63 +9597,63 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J100" t="n">
-        <v>2.22</v>
+        <v>1.9</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>22/10/2023 13:42</t>
+          <t>21/10/2023 14:42</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.48</v>
+        <v>2.08</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:26</t>
+          <t>29/10/2023 13:27</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.65</v>
+        <v>4.03</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>22/10/2023 13:42</t>
+          <t>21/10/2023 14:42</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.42</v>
+        <v>3.87</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:26</t>
+          <t>29/10/2023 13:27</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>3.28</v>
+        <v>3.87</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>22/10/2023 13:42</t>
+          <t>21/10/2023 14:42</t>
         </is>
       </c>
       <c r="T100" t="n">
-        <v>3.02</v>
+        <v>3.46</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:25</t>
+          <t>29/10/2023 13:29</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-hansa-rostock/x40qwVze/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-elversberg/SUA9qXcR/</t>
         </is>
       </c>
     </row>
@@ -10233,22 +10233,22 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="G107" t="n">
+        <v>2</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Braunschweig</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Paderborn</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
-        <v>3</v>
-      </c>
       <c r="J107" t="n">
-        <v>2.01</v>
+        <v>1.58</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.23</v>
+        <v>1.55</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
@@ -10264,7 +10264,7 @@
         </is>
       </c>
       <c r="N107" t="n">
-        <v>4.05</v>
+        <v>4.59</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.68</v>
+        <v>4.36</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>05/11/2023 12:58</t>
+          <t>05/11/2023 13:28</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>3.37</v>
+        <v>5.16</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>3.24</v>
+        <v>6.53</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>05/11/2023 12:56</t>
+          <t>05/11/2023 13:28</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-paderborn/QPxz0hr8/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-braunschweig/nuRrbWCK/</t>
         </is>
       </c>
     </row>
@@ -10417,22 +10417,22 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J109" t="n">
-        <v>1.58</v>
+        <v>2.01</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,7 +10440,7 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>1.55</v>
+        <v>2.23</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         </is>
       </c>
       <c r="N109" t="n">
-        <v>4.59</v>
+        <v>4.05</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>4.36</v>
+        <v>3.68</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>05/11/2023 13:28</t>
+          <t>05/11/2023 12:58</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>5.16</v>
+        <v>3.37</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>6.53</v>
+        <v>3.24</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>05/11/2023 13:28</t>
+          <t>05/11/2023 12:56</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-braunschweig/nuRrbWCK/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-paderborn/QPxz0hr8/</t>
         </is>
       </c>
     </row>
@@ -10693,22 +10693,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="G112" t="n">
+        <v>1</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Nurnberg</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
         <v>3</v>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>VfL Osnabruck</t>
-        </is>
-      </c>
-      <c r="I112" t="n">
-        <v>2</v>
-      </c>
       <c r="J112" t="n">
-        <v>2.16</v>
+        <v>1.95</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>2.45</v>
+        <v>2.27</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
@@ -10724,7 +10724,7 @@
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.79</v>
+        <v>3.96</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -10732,32 +10732,32 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.38</v>
+        <v>3.86</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
+          <t>11/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R112" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T112" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
           <t>11/11/2023 12:59</t>
         </is>
       </c>
-      <c r="R112" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="S112" t="inlineStr">
-        <is>
-          <t>05/11/2023 13:42</t>
-        </is>
-      </c>
-      <c r="T112" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="U112" t="inlineStr">
-        <is>
-          <t>11/11/2023 12:59</t>
-        </is>
-      </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-vfl-osnabruck/htWd5mKm/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-nurnberg/0riICVRD/</t>
         </is>
       </c>
     </row>
@@ -10877,22 +10877,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J114" t="n">
-        <v>1.95</v>
+        <v>2.16</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>2.27</v>
+        <v>2.45</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.96</v>
+        <v>3.79</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,15 +10916,15 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.86</v>
+        <v>3.38</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>11/11/2023 12:58</t>
+          <t>11/11/2023 12:59</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>3.73</v>
+        <v>3.19</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>3.04</v>
+        <v>3.09</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-nurnberg/0riICVRD/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-vfl-osnabruck/htWd5mKm/</t>
         </is>
       </c>
     </row>
@@ -11061,7 +11061,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G116" t="n">
@@ -11069,63 +11069,63 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>1.84</v>
+        <v>2.37</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>05/11/2023 13:42</t>
+          <t>04/11/2023 13:42</t>
         </is>
       </c>
       <c r="L116" t="n">
-        <v>1.78</v>
+        <v>2.25</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>12/11/2023 13:23</t>
+          <t>12/11/2023 13:29</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>4.02</v>
+        <v>3.54</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>05/11/2023 13:42</t>
+          <t>04/11/2023 13:42</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>4.12</v>
+        <v>3.7</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
+          <t>12/11/2023 12:57</t>
+        </is>
+      </c>
+      <c r="R116" t="n">
+        <v>3</v>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T116" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
           <t>12/11/2023 13:29</t>
         </is>
       </c>
-      <c r="R116" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="S116" t="inlineStr">
-        <is>
-          <t>05/11/2023 13:42</t>
-        </is>
-      </c>
-      <c r="T116" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="U116" t="inlineStr">
-        <is>
-          <t>12/11/2023 13:29</t>
-        </is>
-      </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-hansa-rostock/88fQA9dQ/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-dusseldorf/AHth6T4s/</t>
         </is>
       </c>
     </row>
@@ -11153,7 +11153,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="G117" t="n">
@@ -11161,54 +11161,54 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J117" t="n">
-        <v>2.37</v>
+        <v>1.84</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>04/11/2023 13:42</t>
+          <t>05/11/2023 13:42</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>2.25</v>
+        <v>1.78</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
+          <t>12/11/2023 13:23</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
           <t>12/11/2023 13:29</t>
         </is>
       </c>
-      <c r="N117" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="O117" t="inlineStr">
-        <is>
-          <t>04/11/2023 13:42</t>
-        </is>
-      </c>
-      <c r="P117" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Q117" t="inlineStr">
-        <is>
-          <t>12/11/2023 12:57</t>
-        </is>
-      </c>
       <c r="R117" t="n">
-        <v>3</v>
+        <v>4.13</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>04/11/2023 13:42</t>
+          <t>05/11/2023 13:42</t>
         </is>
       </c>
       <c r="T117" t="n">
-        <v>3.28</v>
+        <v>4.47</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-dusseldorf/AHth6T4s/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-hansa-rostock/88fQA9dQ/</t>
         </is>
       </c>
     </row>
@@ -11494,6 +11494,650 @@
       <c r="V120" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-hertha-berlin/dnGG8MQu/</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45255.54166666666</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Hansa Rostock</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>2</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>St. Pauli</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>3</v>
+      </c>
+      <c r="J121" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:56</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P121" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R121" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T121" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:56</t>
+        </is>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-st-pauli/hE9P60eh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45255.54166666666</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Elversberg</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>4</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P122" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R122" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T122" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-paderborn/W48T5KAb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45255.54166666666</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>VfL Osnabruck</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Magdeburg</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>2</v>
+      </c>
+      <c r="J123" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P123" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R123" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T123" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V123" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-magdeburg/0vDX4vQ4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45255.85416666666</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Dusseldorf</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>5</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Schalke</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>3</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>25/11/2023 20:28</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P124" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>25/11/2023 20:28</t>
+        </is>
+      </c>
+      <c r="R124" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T124" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>25/11/2023 20:29</t>
+        </is>
+      </c>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-schalke/vcY82o46/</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45256.5625</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Greuther Furth</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>2</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Wehen</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:29</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P125" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:29</t>
+        </is>
+      </c>
+      <c r="R125" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T125" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:28</t>
+        </is>
+      </c>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-wehen/AkKK7ttn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45256.5625</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Kaiserslautern</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Holstein Kiel</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>3</v>
+      </c>
+      <c r="J126" t="n">
+        <v>2</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:29</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P126" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:29</t>
+        </is>
+      </c>
+      <c r="R126" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T126" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:29</t>
+        </is>
+      </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-holstein-kiel/pA390PYI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45256.5625</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Karlsruher SC</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>4</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Nurnberg</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:26</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P127" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:29</t>
+        </is>
+      </c>
+      <c r="R127" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T127" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:26</t>
+        </is>
+      </c>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-nurnberg/6J4515JC/</t>
         </is>
       </c>
     </row>

--- a/2023/germany_2-bundesliga_2023-2024.xlsx
+++ b/2023/germany_2-bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V127"/>
+  <dimension ref="A1:V129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,7 +665,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -673,14 +673,14 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>3.22</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>3.27</v>
+        <v>3.09</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>29/07/2023 12:59</t>
+          <t>29/07/2023 12:33</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.57</v>
+        <v>3.69</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.12</v>
+        <v>3.75</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>29/07/2023 12:57</t>
+          <t>29/07/2023 12:58</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.33</v>
+        <v>2.18</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>2.5</v>
+        <v>2.28</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>29/07/2023 12:59</t>
+          <t>29/07/2023 12:33</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-st-pauli/j9cCEjVs/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-magdeburg/x0US8naJ/</t>
         </is>
       </c>
     </row>
@@ -757,22 +757,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>3.22</v>
+        <v>1.98</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,15 +780,15 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>3.09</v>
+        <v>1.96</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>29/07/2023 12:33</t>
+          <t>29/07/2023 12:58</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.69</v>
+        <v>3.78</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.75</v>
+        <v>4.09</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.18</v>
+        <v>3.7</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>2.28</v>
+        <v>3.65</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>29/07/2023 12:33</t>
+          <t>29/07/2023 12:58</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-magdeburg/x0US8naJ/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-elversberg/pWdGDApl/</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>St. Pauli</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
         <v>2</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Karlsruher SC</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>3</v>
-      </c>
       <c r="J5" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3.19</v>
+        <v>3.27</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.58</v>
+        <v>3.57</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,32 +888,32 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.84</v>
+        <v>3.12</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
+          <t>29/07/2023 12:57</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>08/07/2023 18:28</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
           <t>29/07/2023 12:59</t>
         </is>
       </c>
-      <c r="R5" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>08/07/2023 18:28</t>
-        </is>
-      </c>
-      <c r="T5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>29/07/2023 12:59</t>
-        </is>
-      </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-karlsruher/OdQO9SqD/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-st-pauli/j9cCEjVs/</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -949,14 +949,14 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>1.98</v>
+        <v>2.75</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.96</v>
+        <v>3.19</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>29/07/2023 12:58</t>
+          <t>29/07/2023 12:59</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.78</v>
+        <v>3.58</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>4.09</v>
+        <v>3.84</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>29/07/2023 12:58</t>
+          <t>29/07/2023 12:59</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>3.7</v>
+        <v>2.52</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>3.65</v>
+        <v>2.2</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>29/07/2023 12:58</t>
+          <t>29/07/2023 12:59</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-elversberg/pWdGDApl/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-karlsruher/OdQO9SqD/</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2.53</v>
+        <v>2.42</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.57</v>
+        <v>2.35</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>30/07/2023 13:26</t>
+          <t>30/07/2023 13:28</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.61</v>
+        <v>3.33</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>30/07/2023 13:26</t>
+          <t>30/07/2023 13:27</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>2.78</v>
+        <v>3.07</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.71</v>
+        <v>3.39</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-paderborn/OMeKCUaf/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-nurnberg/jqSGBlF0/</t>
         </is>
       </c>
     </row>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Holstein Kiel</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
       <c r="J9" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.35</v>
+        <v>2.57</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>30/07/2023 13:29</t>
+          <t>30/07/2023 13:26</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.8</v>
+        <v>3.61</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,32 +1256,32 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.72</v>
+        <v>3.7</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
+          <t>30/07/2023 13:26</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>08/07/2023 18:28</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
           <t>30/07/2023 13:28</t>
         </is>
       </c>
-      <c r="R9" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>08/07/2023 18:28</t>
-        </is>
-      </c>
-      <c r="T9" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>30/07/2023 13:29</t>
-        </is>
-      </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-holstein-kiel/UZQKA8U6/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-paderborn/OMeKCUaf/</t>
         </is>
       </c>
     </row>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1336,44 +1336,44 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
+          <t>30/07/2023 13:29</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>08/07/2023 18:28</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
           <t>30/07/2023 13:28</t>
         </is>
       </c>
-      <c r="N10" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="R10" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>08/07/2023 18:28</t>
         </is>
       </c>
-      <c r="P10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>30/07/2023 13:27</t>
-        </is>
-      </c>
-      <c r="R10" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>08/07/2023 18:28</t>
-        </is>
-      </c>
       <c r="T10" t="n">
-        <v>3.39</v>
+        <v>2.99</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>30/07/2023 13:28</t>
+          <t>30/07/2023 13:29</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-nurnberg/jqSGBlF0/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-holstein-kiel/UZQKA8U6/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,14 +1961,14 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>2.93</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1980,11 +1980,11 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>06/08/2023 13:26</t>
+          <t>06/08/2023 13:27</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.78</v>
+        <v>3.97</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.45</v>
+        <v>4.14</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3.73</v>
+        <v>2.28</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.98</v>
+        <v>2.62</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>06/08/2023 13:29</t>
+          <t>06/08/2023 13:28</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-hannover/bJ8FdsLG/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-hamburger/O0G2aqyb/</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,14 +2053,14 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.78</v>
+        <v>2.48</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>06/08/2023 13:23</t>
+          <t>06/08/2023 13:26</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.87</v>
+        <v>3.78</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>4.02</v>
+        <v>3.45</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>06/08/2023 13:27</t>
+          <t>06/08/2023 13:28</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>3.49</v>
+        <v>3.73</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>4.53</v>
+        <v>2.98</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-braunschweig/KS9BcN5A/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-hannover/bJ8FdsLG/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>2.93</v>
+        <v>2.05</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,48 +2160,48 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.48</v>
+        <v>1.78</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
+          <t>06/08/2023 13:23</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>30/07/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
           <t>06/08/2023 13:27</t>
         </is>
       </c>
-      <c r="N19" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="O19" t="inlineStr">
+      <c r="R19" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="S19" t="inlineStr">
         <is>
           <t>30/07/2023 13:42</t>
         </is>
       </c>
-      <c r="P19" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>06/08/2023 13:28</t>
-        </is>
-      </c>
-      <c r="R19" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>30/07/2023 13:42</t>
-        </is>
-      </c>
       <c r="T19" t="n">
-        <v>2.62</v>
+        <v>4.53</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>06/08/2023 13:28</t>
+          <t>06/08/2023 13:29</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-hamburger/O0G2aqyb/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-braunschweig/KS9BcN5A/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>19/08/2023 12:12</t>
+          <t>20/08/2023 15:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.17</v>
+        <v>2.02</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>25/08/2023 18:25</t>
+          <t>25/08/2023 18:29</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>4.19</v>
+        <v>4.41</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>19/08/2023 12:12</t>
+          <t>20/08/2023 15:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.74</v>
+        <v>4.09</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>25/08/2023 18:24</t>
+          <t>25/08/2023 18:29</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>4.04</v>
+        <v>4.78</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>19/08/2023 12:12</t>
+          <t>20/08/2023 15:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>3.33</v>
+        <v>3.45</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>25/08/2023 18:28</t>
+          <t>25/08/2023 18:29</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-kaiserslautern/jyCy2xcd/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-holstein-kiel/2BR18vKS/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>20/08/2023 15:12</t>
+          <t>19/08/2023 12:12</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.02</v>
+        <v>2.17</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>25/08/2023 18:29</t>
+          <t>25/08/2023 18:25</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>4.41</v>
+        <v>4.19</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>20/08/2023 15:12</t>
+          <t>19/08/2023 12:12</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>4.09</v>
+        <v>3.74</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>25/08/2023 18:29</t>
+          <t>25/08/2023 18:24</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>4.78</v>
+        <v>4.04</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>20/08/2023 15:12</t>
+          <t>19/08/2023 12:12</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.45</v>
+        <v>3.33</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>25/08/2023 18:29</t>
+          <t>25/08/2023 18:28</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-holstein-kiel/2BR18vKS/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-kaiserslautern/jyCy2xcd/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Elversberg</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
         <v>1</v>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Hannover</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>3</v>
-      </c>
       <c r="J44" t="n">
-        <v>1.72</v>
+        <v>2.35</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>27/08/2023 12:42</t>
+          <t>27/08/2023 17:12</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.03</v>
+        <v>2.32</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>03/09/2023 13:27</t>
+          <t>03/09/2023 13:02</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>4.27</v>
+        <v>3.78</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>27/08/2023 12:42</t>
+          <t>27/08/2023 17:12</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.76</v>
+        <v>4.01</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>03/09/2023 13:18</t>
+          <t>03/09/2023 13:04</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>4.58</v>
+        <v>2.93</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>27/08/2023 12:42</t>
+          <t>27/08/2023 17:12</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>3.7</v>
+        <v>2.88</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>03/09/2023 13:27</t>
+          <t>03/09/2023 13:04</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-hannover/zyA2QCuE/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-elversberg/djbBOjAQ/</t>
         </is>
       </c>
     </row>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
-        <v>2.35</v>
+        <v>1.72</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>27/08/2023 17:12</t>
+          <t>27/08/2023 12:42</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.32</v>
+        <v>2.03</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>03/09/2023 13:02</t>
+          <t>03/09/2023 13:27</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.78</v>
+        <v>4.27</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>27/08/2023 17:12</t>
+          <t>27/08/2023 12:42</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>4.01</v>
+        <v>3.76</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>03/09/2023 13:04</t>
+          <t>03/09/2023 13:18</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>2.93</v>
+        <v>4.58</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>27/08/2023 17:12</t>
+          <t>27/08/2023 12:42</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>2.88</v>
+        <v>3.7</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>03/09/2023 13:04</t>
+          <t>03/09/2023 13:27</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-elversberg/djbBOjAQ/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-hannover/zyA2QCuE/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="G49" t="n">
+        <v>2</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
         <v>1</v>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Dusseldorf</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>3</v>
-      </c>
       <c r="J49" t="n">
-        <v>3.01</v>
+        <v>3.89</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>3.37</v>
+        <v>3.78</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.39</v>
+        <v>4.26</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.45</v>
+        <v>4.17</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         </is>
       </c>
       <c r="R49" t="n">
-        <v>2.43</v>
+        <v>1.85</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>2.26</v>
+        <v>1.9</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-dusseldorf/zcowwjPJ/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-hamburger/6ux9XTns/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J50" t="n">
-        <v>3.89</v>
+        <v>3.01</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>3.78</v>
+        <v>3.37</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>4.26</v>
+        <v>3.39</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>4.17</v>
+        <v>3.45</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="R50" t="n">
-        <v>1.85</v>
+        <v>2.43</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>1.9</v>
+        <v>2.26</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-hamburger/6ux9XTns/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-dusseldorf/zcowwjPJ/</t>
         </is>
       </c>
     </row>
@@ -5265,22 +5265,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>1.79</v>
+        <v>1.65</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,48 +5288,48 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
+          <t>17/09/2023 13:29</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>04/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>17/09/2023 13:29</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>04/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T53" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
           <t>17/09/2023 13:28</t>
         </is>
       </c>
-      <c r="N53" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>04/09/2023 08:42</t>
-        </is>
-      </c>
-      <c r="P53" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>17/09/2023 13:28</t>
-        </is>
-      </c>
-      <c r="R53" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>04/09/2023 08:42</t>
-        </is>
-      </c>
-      <c r="T53" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>17/09/2023 13:27</t>
-        </is>
-      </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-vfl-osnabruck/Yi7fE6nJ/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-holstein-kiel/ny5rH820/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>1.59</v>
+        <v>1.79</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>17/09/2023 13:20</t>
+          <t>17/09/2023 13:28</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>4.48</v>
+        <v>3.99</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>4.2</v>
+        <v>4.06</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>17/09/2023 13:29</t>
+          <t>17/09/2023 13:28</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>4.39</v>
+        <v>4.19</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>17/09/2023 13:23</t>
+          <t>17/09/2023 13:27</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hertha-berlin-braunschweig/6PmoIlmf/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-vfl-osnabruck/Yi7fE6nJ/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,48 +5472,48 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
+          <t>17/09/2023 13:20</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>04/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
           <t>17/09/2023 13:29</t>
         </is>
       </c>
-      <c r="N55" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="O55" t="inlineStr">
+      <c r="R55" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="S55" t="inlineStr">
         <is>
           <t>04/09/2023 08:42</t>
         </is>
       </c>
-      <c r="P55" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>17/09/2023 13:29</t>
-        </is>
-      </c>
-      <c r="R55" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>04/09/2023 08:42</t>
-        </is>
-      </c>
       <c r="T55" t="n">
-        <v>4.12</v>
+        <v>4.39</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>17/09/2023 13:28</t>
+          <t>17/09/2023 13:23</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-holstein-kiel/ny5rH820/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hertha-berlin-braunschweig/6PmoIlmf/</t>
         </is>
       </c>
     </row>
@@ -6093,71 +6093,71 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>2.42</v>
+        <v>1.71</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.29</v>
+        <v>1.98</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>24/09/2023 13:20</t>
+          <t>24/09/2023 13:27</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.72</v>
+        <v>4.24</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.94</v>
+        <v>3.87</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>24/09/2023 13:29</t>
+          <t>24/09/2023 13:28</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>2.8</v>
+        <v>4.47</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="T62" t="n">
-        <v>2.97</v>
+        <v>3.78</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>24/09/2023 13:20</t>
+          <t>24/09/2023 13:27</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-hertha-berlin/vVTLURWa/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-hannover/pWzDWm2m/</t>
         </is>
       </c>
     </row>
@@ -6185,71 +6185,71 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="G63" t="n">
+        <v>2</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
         <v>3</v>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Hansa Rostock</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
       <c r="J63" t="n">
-        <v>1.99</v>
+        <v>2.42</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.11</v>
+        <v>2.29</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>24/09/2023 13:22</t>
+          <t>24/09/2023 13:20</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.65</v>
+        <v>3.72</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.37</v>
+        <v>3.94</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>24/09/2023 13:24</t>
+          <t>24/09/2023 13:29</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>3.88</v>
+        <v>2.97</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>24/09/2023 13:24</t>
+          <t>24/09/2023 13:20</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-hansa-rostock/YiTPTon6/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-hertha-berlin/vVTLURWa/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="I64" t="n">
         <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>1.71</v>
+        <v>1.99</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.98</v>
+        <v>2.11</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>24/09/2023 13:27</t>
+          <t>24/09/2023 13:22</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>4.24</v>
+        <v>3.65</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.87</v>
+        <v>3.37</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>24/09/2023 13:28</t>
+          <t>24/09/2023 13:24</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>4.47</v>
+        <v>3.9</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>3.78</v>
+        <v>3.88</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>24/09/2023 13:27</t>
+          <t>24/09/2023 13:24</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-hannover/pWzDWm2m/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-hansa-rostock/YiTPTon6/</t>
         </is>
       </c>
     </row>
@@ -6369,30 +6369,30 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>2.39</v>
+        <v>1.74</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.13</v>
+        <v>1.97</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
@@ -6400,15 +6400,15 @@
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.85</v>
+        <v>4.51</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.95</v>
+        <v>4.13</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -6416,15 +6416,15 @@
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.78</v>
+        <v>4.21</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>3.27</v>
+        <v>3.58</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-schalke/EP3bro1a/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-dusseldorf/KlkeqRog/</t>
         </is>
       </c>
     </row>
@@ -6461,30 +6461,30 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="G66" t="n">
+        <v>3</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Schalke</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
         <v>1</v>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Dusseldorf</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
       <c r="J66" t="n">
-        <v>1.74</v>
+        <v>2.39</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>1.97</v>
+        <v>2.13</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -6492,15 +6492,15 @@
         </is>
       </c>
       <c r="N66" t="n">
-        <v>4.51</v>
+        <v>3.85</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>4.13</v>
+        <v>3.95</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -6508,15 +6508,15 @@
         </is>
       </c>
       <c r="R66" t="n">
-        <v>4.21</v>
+        <v>2.78</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>3.58</v>
+        <v>3.27</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-dusseldorf/KlkeqRog/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-schalke/EP3bro1a/</t>
         </is>
       </c>
     </row>
@@ -6553,30 +6553,30 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="G67" t="n">
+        <v>2</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Wehen</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Holstein Kiel</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
-        <v>2</v>
-      </c>
       <c r="J67" t="n">
-        <v>1.84</v>
+        <v>1.69</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6584,15 +6584,15 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>4.23</v>
+        <v>4.2</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>4.27</v>
+        <v>4.17</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -6600,24 +6600,24 @@
         </is>
       </c>
       <c r="R67" t="n">
-        <v>3.83</v>
+        <v>4.66</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>24/09/2023 12:42</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>4.05</v>
+        <v>4.4</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>30/09/2023 12:57</t>
+          <t>30/09/2023 12:59</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-holstein-kiel/hG22s5G5/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-wehen/zuh7tPVB/</t>
         </is>
       </c>
     </row>
@@ -6645,71 +6645,71 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.78</v>
+        <v>2.18</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>30/09/2023 12:59</t>
+          <t>30/09/2023 12:51</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>4.2</v>
+        <v>3.58</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>4.17</v>
+        <v>3.56</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>30/09/2023 12:59</t>
+          <t>30/09/2023 12:57</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>4.66</v>
+        <v>3.53</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>24/09/2023 12:42</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>4.4</v>
+        <v>3.41</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>30/09/2023 12:59</t>
+          <t>30/09/2023 12:38</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-wehen/zuh7tPVB/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-braunschweig/lrdBuqoI/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>2.1</v>
+        <v>1.84</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.18</v>
+        <v>1.82</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>30/09/2023 12:51</t>
+          <t>30/09/2023 12:59</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.58</v>
+        <v>4.23</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,32 +6776,32 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.56</v>
+        <v>4.27</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
+          <t>30/09/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>24/09/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
           <t>30/09/2023 12:57</t>
         </is>
       </c>
-      <c r="R69" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>24/09/2023 12:42</t>
-        </is>
-      </c>
-      <c r="T69" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>30/09/2023 12:38</t>
-        </is>
-      </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-braunschweig/lrdBuqoI/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-holstein-kiel/hG22s5G5/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.62</v>
+        <v>2.48</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>01/10/2023 13:30</t>
+          <t>01/10/2023 13:24</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.54</v>
+        <v>3.76</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.59</v>
+        <v>3.64</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>01/10/2023 13:04</t>
+          <t>01/10/2023 13:27</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>2.54</v>
+        <v>2.49</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>2.73</v>
+        <v>2.86</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>01/10/2023 13:30</t>
+          <t>01/10/2023 13:16</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-kaiserslautern/MVQPb6ot/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-greuther-furth/MefJwNFU/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J73" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.48</v>
+        <v>2.62</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>01/10/2023 13:24</t>
+          <t>01/10/2023 13:30</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.76</v>
+        <v>3.54</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.64</v>
+        <v>3.59</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>01/10/2023 13:27</t>
+          <t>01/10/2023 13:04</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>2.49</v>
+        <v>2.54</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>2.86</v>
+        <v>2.73</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>01/10/2023 13:16</t>
+          <t>01/10/2023 13:30</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-greuther-furth/MefJwNFU/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-kaiserslautern/MVQPb6ot/</t>
         </is>
       </c>
     </row>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -7757,38 +7757,38 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>2.69</v>
+        <v>2.03</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>2.89</v>
+        <v>2.1</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>08/10/2023 13:27</t>
+          <t>08/10/2023 13:28</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.59</v>
+        <v>3.95</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.59</v>
+        <v>3.93</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -7796,24 +7796,24 @@
         </is>
       </c>
       <c r="R80" t="n">
-        <v>2.58</v>
+        <v>3.39</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>2.48</v>
+        <v>3.36</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>08/10/2023 13:27</t>
+          <t>08/10/2023 13:28</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-paderborn/GdYMzfaj/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-elversberg/lrIteOp5/</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -7849,63 +7849,63 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J81" t="n">
-        <v>2.03</v>
+        <v>2.14</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 19:43</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>2.1</v>
+        <v>1.99</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>08/10/2023 13:28</t>
+          <t>08/10/2023 13:29</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.95</v>
+        <v>3.84</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 19:43</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.93</v>
+        <v>3.97</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>08/10/2023 13:28</t>
+          <t>08/10/2023 13:29</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>3.39</v>
+        <v>3.3</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 19:43</t>
         </is>
       </c>
       <c r="T81" t="n">
-        <v>3.36</v>
+        <v>3.63</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>08/10/2023 13:28</t>
+          <t>08/10/2023 13:29</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-elversberg/lrIteOp5/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-hertha-berlin/0MPTcQ0n/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,63 +7941,63 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J82" t="n">
-        <v>2.14</v>
+        <v>2.69</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>30/09/2023 19:43</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.99</v>
+        <v>2.89</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>08/10/2023 13:29</t>
+          <t>08/10/2023 13:27</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.84</v>
+        <v>3.59</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>30/09/2023 19:43</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.97</v>
+        <v>3.59</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>08/10/2023 13:29</t>
+          <t>08/10/2023 13:28</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>3.3</v>
+        <v>2.58</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>30/09/2023 19:43</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="T82" t="n">
-        <v>3.63</v>
+        <v>2.48</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>08/10/2023 13:29</t>
+          <t>08/10/2023 13:27</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-hertha-berlin/0MPTcQ0n/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-paderborn/GdYMzfaj/</t>
         </is>
       </c>
     </row>
@@ -8577,71 +8577,71 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="G89" t="n">
+        <v>3</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
         <v>1</v>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Holstein Kiel</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
-        <v>3</v>
-      </c>
       <c r="J89" t="n">
-        <v>2.46</v>
+        <v>2.65</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>22/10/2023 13:29</t>
+          <t>22/10/2023 13:28</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.66</v>
+        <v>3.7</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.29</v>
+        <v>3.55</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>22/10/2023 13:29</t>
+          <t>22/10/2023 13:28</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>2.84</v>
+        <v>2.56</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>22/10/2023 13:29</t>
+          <t>22/10/2023 13:28</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-holstein-kiel/lMrMgZ5S/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-hertha-berlin/f3LlkgEq/</t>
         </is>
       </c>
     </row>
@@ -8669,30 +8669,30 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Holstein Kiel</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
         <v>3</v>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Schalke</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
       <c r="J90" t="n">
-        <v>2.06</v>
+        <v>2.46</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>2.37</v>
+        <v>2.65</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
@@ -8700,15 +8700,15 @@
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.92</v>
+        <v>3.66</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.84</v>
+        <v>3.29</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -8716,15 +8716,15 @@
         </is>
       </c>
       <c r="R90" t="n">
-        <v>3.41</v>
+        <v>2.84</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="T90" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-schalke/tduEeeyG/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-holstein-kiel/lMrMgZ5S/</t>
         </is>
       </c>
     </row>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -8769,14 +8769,14 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>2.65</v>
+        <v>2.06</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>2.56</v>
+        <v>2.37</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>22/10/2023 13:28</t>
+          <t>22/10/2023 13:29</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.7</v>
+        <v>3.92</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.55</v>
+        <v>3.84</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>22/10/2023 13:28</t>
+          <t>22/10/2023 13:29</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>2.56</v>
+        <v>3.41</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>22/10/2023 13:28</t>
+          <t>22/10/2023 13:29</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-hertha-berlin/f3LlkgEq/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-schalke/tduEeeyG/</t>
         </is>
       </c>
     </row>
@@ -9037,22 +9037,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="I94" t="n">
         <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>1.76</v>
+        <v>2.05</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,48 +9060,48 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.57</v>
+        <v>2.27</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
+          <t>28/10/2023 13:00</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
           <t>28/10/2023 12:58</t>
         </is>
       </c>
-      <c r="N94" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="O94" t="inlineStr">
+      <c r="R94" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="S94" t="inlineStr">
         <is>
           <t>22/10/2023 13:42</t>
         </is>
       </c>
-      <c r="P94" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="Q94" t="inlineStr">
-        <is>
-          <t>28/10/2023 12:59</t>
-        </is>
-      </c>
-      <c r="R94" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="S94" t="inlineStr">
-        <is>
-          <t>22/10/2023 13:42</t>
-        </is>
-      </c>
       <c r="T94" t="n">
-        <v>6.01</v>
+        <v>3.19</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>28/10/2023 12:59</t>
+          <t>28/10/2023 13:00</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-karlsruher/xtIdnZD8/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hertha-berlin-paderborn/veagmFb2/</t>
         </is>
       </c>
     </row>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -9137,14 +9137,14 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.27</v>
+        <v>2.39</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.88</v>
+        <v>4.19</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.65</v>
+        <v>3.77</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>28/10/2023 12:58</t>
+          <t>28/10/2023 13:00</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>3.48</v>
+        <v>3.89</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>3.19</v>
+        <v>2.91</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hertha-berlin-paderborn/veagmFb2/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-hannover/tKN0nib2/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,11 +9244,11 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.39</v>
+        <v>1.57</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>28/10/2023 13:00</t>
+          <t>28/10/2023 12:58</t>
         </is>
       </c>
       <c r="N96" t="n">
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.77</v>
+        <v>4.36</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>28/10/2023 13:00</t>
+          <t>28/10/2023 12:59</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>3.89</v>
+        <v>4.39</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>2.91</v>
+        <v>6.01</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>28/10/2023 13:00</t>
+          <t>28/10/2023 12:59</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-hannover/tKN0nib2/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-karlsruher/xtIdnZD8/</t>
         </is>
       </c>
     </row>
@@ -10509,71 +10509,71 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>1.96</v>
+        <v>1.62</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>04/11/2023 13:12</t>
+          <t>05/11/2023 13:42</t>
         </is>
       </c>
       <c r="L110" t="n">
-        <v>2.05</v>
+        <v>1.67</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>10/11/2023 18:29</t>
+          <t>10/11/2023 18:07</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>4</v>
+        <v>4.27</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>04/11/2023 13:12</t>
+          <t>05/11/2023 13:42</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.96</v>
+        <v>4.08</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>10/11/2023 18:29</t>
+          <t>10/11/2023 18:21</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>3.65</v>
+        <v>5.19</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>04/11/2023 13:12</t>
+          <t>05/11/2023 13:42</t>
         </is>
       </c>
       <c r="T110" t="n">
-        <v>3.48</v>
+        <v>5.34</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>10/11/2023 18:29</t>
+          <t>10/11/2023 18:21</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-elversberg/htARk8K0/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-hannover/bwDZmnkD/</t>
         </is>
       </c>
     </row>
@@ -10601,71 +10601,71 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J111" t="n">
-        <v>1.62</v>
+        <v>1.96</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>05/11/2023 13:42</t>
+          <t>04/11/2023 13:12</t>
         </is>
       </c>
       <c r="L111" t="n">
-        <v>1.67</v>
+        <v>2.05</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>10/11/2023 18:07</t>
+          <t>10/11/2023 18:29</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>4.27</v>
+        <v>4</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>05/11/2023 13:42</t>
+          <t>04/11/2023 13:12</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>4.08</v>
+        <v>3.96</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>10/11/2023 18:21</t>
+          <t>10/11/2023 18:29</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>5.19</v>
+        <v>3.65</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>05/11/2023 13:42</t>
+          <t>04/11/2023 13:12</t>
         </is>
       </c>
       <c r="T111" t="n">
-        <v>5.34</v>
+        <v>3.48</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>10/11/2023 18:21</t>
+          <t>10/11/2023 18:29</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-hannover/bwDZmnkD/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-elversberg/htARk8K0/</t>
         </is>
       </c>
     </row>
@@ -10693,22 +10693,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J112" t="n">
-        <v>1.95</v>
+        <v>2.16</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>2.27</v>
+        <v>2.45</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
@@ -10724,7 +10724,7 @@
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.96</v>
+        <v>3.79</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -10732,15 +10732,15 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.86</v>
+        <v>3.38</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>11/11/2023 12:58</t>
+          <t>11/11/2023 12:59</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>3.73</v>
+        <v>3.19</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>3.04</v>
+        <v>3.09</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
@@ -10757,7 +10757,7 @@
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-nurnberg/0riICVRD/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-vfl-osnabruck/htWd5mKm/</t>
         </is>
       </c>
     </row>
@@ -10877,22 +10877,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="G114" t="n">
+        <v>1</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Nurnberg</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
         <v>3</v>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>VfL Osnabruck</t>
-        </is>
-      </c>
-      <c r="I114" t="n">
-        <v>2</v>
-      </c>
       <c r="J114" t="n">
-        <v>2.16</v>
+        <v>1.95</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>2.45</v>
+        <v>2.27</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.79</v>
+        <v>3.96</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,32 +10916,32 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.38</v>
+        <v>3.86</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
+          <t>11/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T114" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
           <t>11/11/2023 12:59</t>
         </is>
       </c>
-      <c r="R114" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="S114" t="inlineStr">
-        <is>
-          <t>05/11/2023 13:42</t>
-        </is>
-      </c>
-      <c r="T114" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="U114" t="inlineStr">
-        <is>
-          <t>11/11/2023 12:59</t>
-        </is>
-      </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-vfl-osnabruck/htWd5mKm/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-nurnberg/0riICVRD/</t>
         </is>
       </c>
     </row>
@@ -11337,7 +11337,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="G119" t="n">
@@ -11345,14 +11345,14 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J119" t="n">
-        <v>1.32</v>
+        <v>2.11</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,15 +11360,15 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>1.34</v>
+        <v>2.2</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>24/11/2023 18:10</t>
+          <t>24/11/2023 18:08</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>6.09</v>
+        <v>3.85</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>6.18</v>
+        <v>3.6</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>24/11/2023 18:11</t>
+          <t>24/11/2023 18:08</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>8.01</v>
+        <v>3.26</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>8.09</v>
+        <v>3.39</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>24/11/2023 18:11</t>
+          <t>24/11/2023 18:08</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-braunschweig/06Z43Rl0/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-hertha-berlin/dnGG8MQu/</t>
         </is>
       </c>
     </row>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -11437,14 +11437,14 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>2.11</v>
+        <v>1.32</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,15 +11452,15 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>2.2</v>
+        <v>1.34</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>24/11/2023 18:08</t>
+          <t>24/11/2023 18:10</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.85</v>
+        <v>6.09</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -11468,15 +11468,15 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.6</v>
+        <v>6.18</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>24/11/2023 18:08</t>
+          <t>24/11/2023 18:11</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>3.26</v>
+        <v>8.01</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>3.39</v>
+        <v>8.09</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>24/11/2023 18:08</t>
+          <t>24/11/2023 18:11</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-hertha-berlin/dnGG8MQu/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-braunschweig/06Z43Rl0/</t>
         </is>
       </c>
     </row>
@@ -11521,22 +11521,22 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J121" t="n">
-        <v>4.5</v>
+        <v>2.17</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -11544,15 +11544,15 @@
         </is>
       </c>
       <c r="L121" t="n">
-        <v>5.28</v>
+        <v>2.35</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>25/11/2023 12:56</t>
+          <t>25/11/2023 12:58</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>4.02</v>
+        <v>3.94</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
@@ -11560,15 +11560,15 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>3.83</v>
+        <v>3.75</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>25/11/2023 12:59</t>
+          <t>25/11/2023 12:58</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>1.75</v>
+        <v>3.14</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
@@ -11576,16 +11576,16 @@
         </is>
       </c>
       <c r="T121" t="n">
-        <v>1.72</v>
+        <v>2.98</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>25/11/2023 12:56</t>
+          <t>25/11/2023 12:58</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-st-pauli/hE9P60eh/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-paderborn/W48T5KAb/</t>
         </is>
       </c>
     </row>
@@ -11613,22 +11613,22 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J122" t="n">
-        <v>2.17</v>
+        <v>4.5</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -11636,15 +11636,15 @@
         </is>
       </c>
       <c r="L122" t="n">
-        <v>2.35</v>
+        <v>5.28</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>25/11/2023 12:58</t>
+          <t>25/11/2023 12:56</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>3.94</v>
+        <v>4.02</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
@@ -11652,15 +11652,15 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>3.75</v>
+        <v>3.83</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>25/11/2023 12:58</t>
+          <t>25/11/2023 12:59</t>
         </is>
       </c>
       <c r="R122" t="n">
-        <v>3.14</v>
+        <v>1.75</v>
       </c>
       <c r="S122" t="inlineStr">
         <is>
@@ -11668,16 +11668,16 @@
         </is>
       </c>
       <c r="T122" t="n">
-        <v>2.98</v>
+        <v>1.72</v>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>25/11/2023 12:58</t>
+          <t>25/11/2023 12:56</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-paderborn/W48T5KAb/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-st-pauli/hE9P60eh/</t>
         </is>
       </c>
     </row>
@@ -12138,6 +12138,190 @@
       <c r="V127" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-nurnberg/6J4515JC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45261.77083333334</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Schalke</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>4</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>VfL Osnabruck</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>25/11/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>01/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>25/11/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P128" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>01/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R128" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>25/11/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T128" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>01/12/2023 18:28</t>
+        </is>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-vfl-osnabruck/vVBy4buB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45261.77083333334</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>St. Pauli</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>2</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>2</v>
+      </c>
+      <c r="J129" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:13</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>01/12/2023 18:25</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:13</t>
+        </is>
+      </c>
+      <c r="P129" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>01/12/2023 18:25</t>
+        </is>
+      </c>
+      <c r="R129" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:13</t>
+        </is>
+      </c>
+      <c r="T129" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>01/12/2023 18:25</t>
+        </is>
+      </c>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-hamburger/YT4p2xAN/</t>
         </is>
       </c>
     </row>

--- a/2023/germany_2-bundesliga_2023-2024.xlsx
+++ b/2023/germany_2-bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V129"/>
+  <dimension ref="A1:V132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.48</v>
+        <v>2.62</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>01/10/2023 13:24</t>
+          <t>01/10/2023 13:30</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.76</v>
+        <v>3.54</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.64</v>
+        <v>3.59</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>01/10/2023 13:27</t>
+          <t>01/10/2023 13:04</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>2.49</v>
+        <v>2.54</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>2.86</v>
+        <v>2.73</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>01/10/2023 13:16</t>
+          <t>01/10/2023 13:30</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-greuther-furth/MefJwNFU/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-kaiserslautern/MVQPb6ot/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.62</v>
+        <v>2.48</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>01/10/2023 13:30</t>
+          <t>01/10/2023 13:24</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.54</v>
+        <v>3.76</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.59</v>
+        <v>3.64</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>01/10/2023 13:04</t>
+          <t>01/10/2023 13:27</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>2.54</v>
+        <v>2.49</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>2.73</v>
+        <v>2.86</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>01/10/2023 13:30</t>
+          <t>01/10/2023 13:16</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-kaiserslautern/MVQPb6ot/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-greuther-furth/MefJwNFU/</t>
         </is>
       </c>
     </row>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -7757,63 +7757,63 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J80" t="n">
-        <v>2.03</v>
+        <v>2.69</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>2.1</v>
+        <v>2.89</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
+          <t>08/10/2023 13:27</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>30/09/2023 12:43</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
           <t>08/10/2023 13:28</t>
         </is>
       </c>
-      <c r="N80" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>01/10/2023 12:43</t>
-        </is>
-      </c>
-      <c r="P80" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>08/10/2023 13:28</t>
-        </is>
-      </c>
       <c r="R80" t="n">
-        <v>3.39</v>
+        <v>2.58</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>3.36</v>
+        <v>2.48</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>08/10/2023 13:28</t>
+          <t>08/10/2023 13:27</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-elversberg/lrIteOp5/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-paderborn/GdYMzfaj/</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -7849,63 +7849,63 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>2.14</v>
+        <v>2.03</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>30/09/2023 19:43</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>08/10/2023 13:29</t>
+          <t>08/10/2023 13:28</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.84</v>
+        <v>3.95</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>30/09/2023 19:43</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.97</v>
+        <v>3.93</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>08/10/2023 13:29</t>
+          <t>08/10/2023 13:28</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>3.3</v>
+        <v>3.39</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>30/09/2023 19:43</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="T81" t="n">
-        <v>3.63</v>
+        <v>3.36</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>08/10/2023 13:29</t>
+          <t>08/10/2023 13:28</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-hertha-berlin/0MPTcQ0n/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-elversberg/lrIteOp5/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,63 +7941,63 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>2.69</v>
+        <v>2.14</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>30/09/2023 19:43</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.89</v>
+        <v>1.99</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>08/10/2023 13:27</t>
+          <t>08/10/2023 13:29</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.59</v>
+        <v>3.84</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>30/09/2023 19:43</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.59</v>
+        <v>3.97</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>08/10/2023 13:28</t>
+          <t>08/10/2023 13:29</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>2.58</v>
+        <v>3.3</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>30/09/2023 19:43</t>
         </is>
       </c>
       <c r="T82" t="n">
-        <v>2.48</v>
+        <v>3.63</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>08/10/2023 13:27</t>
+          <t>08/10/2023 13:29</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-paderborn/GdYMzfaj/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-hertha-berlin/0MPTcQ0n/</t>
         </is>
       </c>
     </row>
@@ -8209,71 +8209,71 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Wehen</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
         <v>2</v>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Greuther Furth</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
       <c r="J85" t="n">
-        <v>1.58</v>
+        <v>2.15</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>21/10/2023 12:24</t>
+          <t>21/10/2023 12:57</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>4.69</v>
+        <v>3.81</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>4.46</v>
+        <v>3.81</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>21/10/2023 12:25</t>
+          <t>21/10/2023 12:57</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>5.08</v>
+        <v>3.21</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>4.62</v>
+        <v>3.44</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>21/10/2023 12:24</t>
+          <t>21/10/2023 12:58</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-greuther-furth/r3Q8bcic/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-wehen/2TOdmXrd/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="G87" t="n">
+        <v>2</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Greuther Furth</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Wehen</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
-        <v>2</v>
-      </c>
       <c r="J87" t="n">
-        <v>2.15</v>
+        <v>1.58</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.1</v>
+        <v>1.69</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>21/10/2023 12:57</t>
+          <t>21/10/2023 12:24</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.81</v>
+        <v>4.69</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.81</v>
+        <v>4.46</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>21/10/2023 12:57</t>
+          <t>21/10/2023 12:25</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>3.21</v>
+        <v>5.08</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>3.44</v>
+        <v>4.62</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>21/10/2023 12:58</t>
+          <t>21/10/2023 12:24</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-wehen/2TOdmXrd/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-greuther-furth/r3Q8bcic/</t>
         </is>
       </c>
     </row>
@@ -8577,71 +8577,71 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="G89" t="n">
+        <v>1</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Holstein Kiel</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
         <v>3</v>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Hertha Berlin</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
       <c r="J89" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
         <v>2.65</v>
       </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>10/10/2023 11:42</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>2.56</v>
-      </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>22/10/2023 13:28</t>
+          <t>22/10/2023 13:29</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.7</v>
+        <v>3.66</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.55</v>
+        <v>3.29</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>22/10/2023 13:28</t>
+          <t>22/10/2023 13:29</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>2.56</v>
+        <v>2.84</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>10/10/2023 11:42</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>22/10/2023 13:28</t>
+          <t>22/10/2023 13:29</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-hertha-berlin/f3LlkgEq/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-holstein-kiel/lMrMgZ5S/</t>
         </is>
       </c>
     </row>
@@ -8669,30 +8669,30 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>2.46</v>
+        <v>2.06</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>2.65</v>
+        <v>2.37</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
@@ -8700,15 +8700,15 @@
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.66</v>
+        <v>3.92</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.29</v>
+        <v>3.84</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -8716,15 +8716,15 @@
         </is>
       </c>
       <c r="R90" t="n">
-        <v>2.84</v>
+        <v>3.41</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 11:42</t>
         </is>
       </c>
       <c r="T90" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-holstein-kiel/lMrMgZ5S/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-schalke/tduEeeyG/</t>
         </is>
       </c>
     </row>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -8769,14 +8769,14 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>2.06</v>
+        <v>2.65</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>2.37</v>
+        <v>2.56</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>22/10/2023 13:29</t>
+          <t>22/10/2023 13:28</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.92</v>
+        <v>3.7</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.84</v>
+        <v>3.55</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>22/10/2023 13:29</t>
+          <t>22/10/2023 13:28</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>3.41</v>
+        <v>2.56</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>22/10/2023 13:29</t>
+          <t>22/10/2023 13:28</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-schalke/tduEeeyG/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-hertha-berlin/f3LlkgEq/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J98" t="n">
-        <v>2.22</v>
+        <v>2.01</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>2.48</v>
+        <v>2.26</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>29/10/2023 13:26</t>
+          <t>29/10/2023 13:14</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.65</v>
+        <v>3.87</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.42</v>
+        <v>3.71</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>29/10/2023 13:26</t>
+          <t>29/10/2023 13:29</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>3.28</v>
+        <v>3.62</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>3.02</v>
+        <v>3.19</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>29/10/2023 13:25</t>
+          <t>29/10/2023 13:29</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-hansa-rostock/x40qwVze/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-nurnberg/W2H0ogTE/</t>
         </is>
       </c>
     </row>
@@ -9497,71 +9497,71 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="I99" t="n">
         <v>2</v>
       </c>
       <c r="J99" t="n">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>22/10/2023 13:42</t>
+          <t>21/10/2023 14:42</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.26</v>
+        <v>2.08</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>29/10/2023 13:14</t>
+          <t>29/10/2023 13:27</t>
         </is>
       </c>
       <c r="N99" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
         <v>3.87</v>
       </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>22/10/2023 13:42</t>
-        </is>
-      </c>
-      <c r="P99" t="n">
-        <v>3.71</v>
-      </c>
       <c r="Q99" t="inlineStr">
         <is>
+          <t>29/10/2023 13:27</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
           <t>29/10/2023 13:29</t>
         </is>
       </c>
-      <c r="R99" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="S99" t="inlineStr">
-        <is>
-          <t>22/10/2023 13:42</t>
-        </is>
-      </c>
-      <c r="T99" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="U99" t="inlineStr">
-        <is>
-          <t>29/10/2023 13:29</t>
-        </is>
-      </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-nurnberg/W2H0ogTE/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-elversberg/SUA9qXcR/</t>
         </is>
       </c>
     </row>
@@ -9589,7 +9589,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -9597,63 +9597,63 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>1.9</v>
+        <v>2.22</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>21/10/2023 14:42</t>
+          <t>22/10/2023 13:42</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.08</v>
+        <v>2.48</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:27</t>
+          <t>29/10/2023 13:26</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>4.03</v>
+        <v>3.65</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>21/10/2023 14:42</t>
+          <t>22/10/2023 13:42</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.87</v>
+        <v>3.42</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:27</t>
+          <t>29/10/2023 13:26</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>3.87</v>
+        <v>3.28</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>21/10/2023 14:42</t>
+          <t>22/10/2023 13:42</t>
         </is>
       </c>
       <c r="T100" t="n">
-        <v>3.46</v>
+        <v>3.02</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:29</t>
+          <t>29/10/2023 13:25</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-elversberg/SUA9qXcR/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-hansa-rostock/x40qwVze/</t>
         </is>
       </c>
     </row>
@@ -9681,22 +9681,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J101" t="n">
-        <v>1.56</v>
+        <v>3.18</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>1.55</v>
+        <v>3.25</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         </is>
       </c>
       <c r="N101" t="n">
-        <v>4.69</v>
+        <v>3.79</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,7 +9720,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>4.66</v>
+        <v>3.67</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -9728,7 +9728,7 @@
         </is>
       </c>
       <c r="R101" t="n">
-        <v>5.34</v>
+        <v>2.17</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,7 +9736,7 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>5.83</v>
+        <v>2.23</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
@@ -9745,7 +9745,7 @@
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-wehen/bJlhy957/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-st-pauli/dEGIiUkl/</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9773,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J102" t="n">
-        <v>3.18</v>
+        <v>1.56</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>3.25</v>
+        <v>1.55</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
@@ -9804,7 +9804,7 @@
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.79</v>
+        <v>4.69</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.67</v>
+        <v>4.66</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         </is>
       </c>
       <c r="R102" t="n">
-        <v>2.17</v>
+        <v>5.34</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,7 +9828,7 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>2.23</v>
+        <v>5.83</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-st-pauli/dEGIiUkl/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-wehen/bJlhy957/</t>
         </is>
       </c>
     </row>
@@ -10509,71 +10509,71 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J110" t="n">
-        <v>1.62</v>
+        <v>1.96</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>05/11/2023 13:42</t>
+          <t>04/11/2023 13:12</t>
         </is>
       </c>
       <c r="L110" t="n">
-        <v>1.67</v>
+        <v>2.05</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>10/11/2023 18:07</t>
+          <t>10/11/2023 18:29</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>4.27</v>
+        <v>4</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>05/11/2023 13:42</t>
+          <t>04/11/2023 13:12</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>4.08</v>
+        <v>3.96</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>10/11/2023 18:21</t>
+          <t>10/11/2023 18:29</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>5.19</v>
+        <v>3.65</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>05/11/2023 13:42</t>
+          <t>04/11/2023 13:12</t>
         </is>
       </c>
       <c r="T110" t="n">
-        <v>5.34</v>
+        <v>3.48</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>10/11/2023 18:21</t>
+          <t>10/11/2023 18:29</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-hannover/bwDZmnkD/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-elversberg/htARk8K0/</t>
         </is>
       </c>
     </row>
@@ -10601,71 +10601,71 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>1.96</v>
+        <v>1.62</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>04/11/2023 13:12</t>
+          <t>05/11/2023 13:42</t>
         </is>
       </c>
       <c r="L111" t="n">
-        <v>2.05</v>
+        <v>1.67</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>10/11/2023 18:29</t>
+          <t>10/11/2023 18:07</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>4</v>
+        <v>4.27</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>04/11/2023 13:12</t>
+          <t>05/11/2023 13:42</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.96</v>
+        <v>4.08</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>10/11/2023 18:29</t>
+          <t>10/11/2023 18:21</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>3.65</v>
+        <v>5.19</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>04/11/2023 13:12</t>
+          <t>05/11/2023 13:42</t>
         </is>
       </c>
       <c r="T111" t="n">
-        <v>3.48</v>
+        <v>5.34</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>10/11/2023 18:29</t>
+          <t>10/11/2023 18:21</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-elversberg/htARk8K0/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-hannover/bwDZmnkD/</t>
         </is>
       </c>
     </row>
@@ -11061,22 +11061,22 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="G116" t="n">
+        <v>2</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Kaiserslautern</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
         <v>1</v>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Dusseldorf</t>
-        </is>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
       <c r="J116" t="n">
-        <v>2.37</v>
+        <v>2.56</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -11084,15 +11084,15 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>2.25</v>
+        <v>2.66</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>12/11/2023 13:29</t>
+          <t>12/11/2023 13:27</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3.54</v>
+        <v>3.58</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
@@ -11100,15 +11100,15 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.7</v>
+        <v>3.63</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>12/11/2023 12:57</t>
+          <t>12/11/2023 13:28</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
@@ -11116,16 +11116,16 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>3.28</v>
+        <v>2.66</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>12/11/2023 13:29</t>
+          <t>12/11/2023 13:27</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-dusseldorf/AHth6T4s/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-kaiserslautern/6qz147Zg/</t>
         </is>
       </c>
     </row>
@@ -11245,22 +11245,22 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>2.56</v>
+        <v>2.37</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -11268,15 +11268,15 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>2.66</v>
+        <v>2.25</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>12/11/2023 13:27</t>
+          <t>12/11/2023 13:29</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.58</v>
+        <v>3.54</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
@@ -11284,15 +11284,15 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3.63</v>
+        <v>3.7</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>12/11/2023 13:28</t>
+          <t>12/11/2023 12:57</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>2.71</v>
+        <v>3</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
@@ -11300,16 +11300,16 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>2.66</v>
+        <v>3.28</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>12/11/2023 13:27</t>
+          <t>12/11/2023 13:29</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-kaiserslautern/6qz147Zg/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-dusseldorf/AHth6T4s/</t>
         </is>
       </c>
     </row>
@@ -11337,7 +11337,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="G119" t="n">
@@ -11345,14 +11345,14 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>2.11</v>
+        <v>1.32</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,15 +11360,15 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>2.2</v>
+        <v>1.34</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>24/11/2023 18:08</t>
+          <t>24/11/2023 18:10</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.85</v>
+        <v>6.09</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.6</v>
+        <v>6.18</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>24/11/2023 18:08</t>
+          <t>24/11/2023 18:11</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>3.26</v>
+        <v>8.01</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>3.39</v>
+        <v>8.09</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>24/11/2023 18:08</t>
+          <t>24/11/2023 18:11</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-hertha-berlin/dnGG8MQu/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-braunschweig/06Z43Rl0/</t>
         </is>
       </c>
     </row>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -11437,14 +11437,14 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J120" t="n">
-        <v>1.32</v>
+        <v>2.11</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,15 +11452,15 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.34</v>
+        <v>2.2</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>24/11/2023 18:10</t>
+          <t>24/11/2023 18:08</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>6.09</v>
+        <v>3.85</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -11468,15 +11468,15 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>6.18</v>
+        <v>3.6</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>24/11/2023 18:11</t>
+          <t>24/11/2023 18:08</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>8.01</v>
+        <v>3.26</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>8.09</v>
+        <v>3.39</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>24/11/2023 18:11</t>
+          <t>24/11/2023 18:08</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-braunschweig/06Z43Rl0/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-hertha-berlin/dnGG8MQu/</t>
         </is>
       </c>
     </row>
@@ -12322,6 +12322,282 @@
       <c r="V129" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-hamburger/YT4p2xAN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45262.54166666666</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Holstein Kiel</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>3</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Wehen</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>2</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R130" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T130" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-wehen/6HZbLaAo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45262.54166666666</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Braunschweig</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Greuther Furth</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:58</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P131" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R131" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T131" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:58</t>
+        </is>
+      </c>
+      <c r="V131" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-greuther-furth/hYyBIcf4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45262.54166666666</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Nurnberg</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Dusseldorf</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>5</v>
+      </c>
+      <c r="J132" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R132" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T132" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V132" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-dusseldorf/vVX6Jwub/</t>
         </is>
       </c>
     </row>

--- a/2023/germany_2-bundesliga_2023-2024.xlsx
+++ b/2023/germany_2-bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V132"/>
+  <dimension ref="A1:V133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11061,71 +11061,71 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="G116" t="n">
+        <v>1</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Hansa Rostock</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
         <v>2</v>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Kaiserslautern</t>
-        </is>
-      </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
       <c r="J116" t="n">
-        <v>2.56</v>
+        <v>1.84</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>04/11/2023 13:42</t>
+          <t>05/11/2023 13:42</t>
         </is>
       </c>
       <c r="L116" t="n">
-        <v>2.66</v>
+        <v>1.78</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>12/11/2023 13:27</t>
+          <t>12/11/2023 13:23</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3.58</v>
+        <v>4.02</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>04/11/2023 13:42</t>
+          <t>05/11/2023 13:42</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.63</v>
+        <v>4.12</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>12/11/2023 13:28</t>
+          <t>12/11/2023 13:29</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>2.71</v>
+        <v>4.13</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>04/11/2023 13:42</t>
+          <t>05/11/2023 13:42</t>
         </is>
       </c>
       <c r="T116" t="n">
-        <v>2.66</v>
+        <v>4.47</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>12/11/2023 13:27</t>
+          <t>12/11/2023 13:29</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-kaiserslautern/6qz147Zg/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-hansa-rostock/88fQA9dQ/</t>
         </is>
       </c>
     </row>
@@ -11153,71 +11153,71 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="G117" t="n">
+        <v>2</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Kaiserslautern</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
         <v>1</v>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>Hansa Rostock</t>
-        </is>
-      </c>
-      <c r="I117" t="n">
-        <v>2</v>
-      </c>
       <c r="J117" t="n">
-        <v>1.84</v>
+        <v>2.56</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>05/11/2023 13:42</t>
+          <t>04/11/2023 13:42</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>1.78</v>
+        <v>2.66</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>12/11/2023 13:23</t>
+          <t>12/11/2023 13:27</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>4.02</v>
+        <v>3.58</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>05/11/2023 13:42</t>
+          <t>04/11/2023 13:42</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>4.12</v>
+        <v>3.63</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>12/11/2023 13:29</t>
+          <t>12/11/2023 13:28</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>4.13</v>
+        <v>2.71</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>05/11/2023 13:42</t>
+          <t>04/11/2023 13:42</t>
         </is>
       </c>
       <c r="T117" t="n">
-        <v>4.47</v>
+        <v>2.66</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>12/11/2023 13:29</t>
+          <t>12/11/2023 13:27</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-hansa-rostock/88fQA9dQ/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-kaiserslautern/6qz147Zg/</t>
         </is>
       </c>
     </row>
@@ -12441,7 +12441,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="G131" t="n">
@@ -12449,14 +12449,14 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J131" t="n">
-        <v>3.39</v>
+        <v>2.54</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -12464,48 +12464,48 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>3.49</v>
+        <v>2.74</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
+          <t>02/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P131" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
           <t>02/12/2023 12:58</t>
         </is>
       </c>
-      <c r="N131" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="O131" t="inlineStr">
+      <c r="R131" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="S131" t="inlineStr">
         <is>
           <t>26/11/2023 13:42</t>
         </is>
       </c>
-      <c r="P131" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="Q131" t="inlineStr">
+      <c r="T131" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U131" t="inlineStr">
         <is>
           <t>02/12/2023 12:59</t>
         </is>
       </c>
-      <c r="R131" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="S131" t="inlineStr">
-        <is>
-          <t>26/11/2023 13:42</t>
-        </is>
-      </c>
-      <c r="T131" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="U131" t="inlineStr">
-        <is>
-          <t>02/12/2023 12:58</t>
-        </is>
-      </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-greuther-furth/hYyBIcf4/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-dusseldorf/vVX6Jwub/</t>
         </is>
       </c>
     </row>
@@ -12533,7 +12533,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="G132" t="n">
@@ -12541,14 +12541,14 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="I132" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J132" t="n">
-        <v>2.54</v>
+        <v>3.39</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -12556,48 +12556,140 @@
         </is>
       </c>
       <c r="L132" t="n">
-        <v>2.74</v>
+        <v>3.49</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
+          <t>02/12/2023 12:58</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
           <t>02/12/2023 12:59</t>
         </is>
       </c>
-      <c r="N132" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="O132" t="inlineStr">
+      <c r="R132" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="S132" t="inlineStr">
         <is>
           <t>26/11/2023 13:42</t>
         </is>
       </c>
-      <c r="P132" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="Q132" t="inlineStr">
+      <c r="T132" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="U132" t="inlineStr">
         <is>
           <t>02/12/2023 12:58</t>
         </is>
       </c>
-      <c r="R132" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="S132" t="inlineStr">
+      <c r="V132" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-greuther-furth/hYyBIcf4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45262.85416666666</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Magdeburg</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>4</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Kaiserslautern</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K133" t="inlineStr">
         <is>
           <t>26/11/2023 13:42</t>
         </is>
       </c>
-      <c r="T132" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="U132" t="inlineStr">
-        <is>
-          <t>02/12/2023 12:59</t>
-        </is>
-      </c>
-      <c r="V132" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-dusseldorf/vVX6Jwub/</t>
+      <c r="L133" t="n">
+        <v>2</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:27</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P133" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:29</t>
+        </is>
+      </c>
+      <c r="R133" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T133" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:25</t>
+        </is>
+      </c>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-kaiserslautern/p8Y2KJPi/</t>
         </is>
       </c>
     </row>

--- a/2023/germany_2-bundesliga_2023-2024.xlsx
+++ b/2023/germany_2-bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V133"/>
+  <dimension ref="A1:V154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,22 +665,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>3.22</v>
+        <v>1.98</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>3.09</v>
+        <v>1.96</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>29/07/2023 12:33</t>
+          <t>29/07/2023 12:58</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.69</v>
+        <v>3.78</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.75</v>
+        <v>4.09</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.18</v>
+        <v>3.7</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>2.28</v>
+        <v>3.65</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>29/07/2023 12:33</t>
+          <t>29/07/2023 12:58</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-magdeburg/x0US8naJ/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-elversberg/pWdGDApl/</t>
         </is>
       </c>
     </row>
@@ -757,22 +757,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>1.98</v>
+        <v>3.22</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,48 +780,48 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.96</v>
+        <v>3.09</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
+          <t>29/07/2023 12:33</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>08/07/2023 18:28</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
           <t>29/07/2023 12:58</t>
         </is>
       </c>
-      <c r="N4" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="R4" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>08/07/2023 18:28</t>
         </is>
       </c>
-      <c r="P4" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>29/07/2023 12:58</t>
-        </is>
-      </c>
-      <c r="R4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>08/07/2023 18:28</t>
-        </is>
-      </c>
       <c r="T4" t="n">
-        <v>3.65</v>
+        <v>2.28</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>29/07/2023 12:58</t>
+          <t>29/07/2023 12:33</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-elversberg/pWdGDApl/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-magdeburg/x0US8naJ/</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3.27</v>
+        <v>3.19</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.57</v>
+        <v>3.58</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.12</v>
+        <v>3.84</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>29/07/2023 12:57</t>
+          <t>29/07/2023 12:59</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.33</v>
+        <v>2.52</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-st-pauli/j9cCEjVs/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-karlsruher/OdQO9SqD/</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>St. Pauli</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
         <v>2</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Karlsruher SC</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>3</v>
-      </c>
       <c r="J6" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3.19</v>
+        <v>3.27</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.58</v>
+        <v>3.57</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,32 +980,32 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.84</v>
+        <v>3.12</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
+          <t>29/07/2023 12:57</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>08/07/2023 18:28</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
           <t>29/07/2023 12:59</t>
         </is>
       </c>
-      <c r="R6" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>08/07/2023 18:28</t>
-        </is>
-      </c>
-      <c r="T6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>29/07/2023 12:59</t>
-        </is>
-      </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-karlsruher/OdQO9SqD/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-st-pauli/j9cCEjVs/</t>
         </is>
       </c>
     </row>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>4.57</v>
+        <v>4.38</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="R11" t="n">
-        <v>5.52</v>
+        <v>5.3</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>4.73</v>
+        <v>5.3</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-vfl-osnabruck/UwHb0PLi/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hertha-berlin-wehen/4pcKxMTp/</t>
         </is>
       </c>
     </row>
@@ -1493,22 +1493,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>4.38</v>
+        <v>4.57</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="R12" t="n">
-        <v>5.3</v>
+        <v>5.52</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>5.3</v>
+        <v>4.73</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hertha-berlin-wehen/4pcKxMTp/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-vfl-osnabruck/UwHb0PLi/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.08</v>
+        <v>3.6</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.25</v>
+        <v>2.83</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.81</v>
+        <v>3.89</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         </is>
       </c>
       <c r="R20" t="n">
-        <v>3.38</v>
+        <v>1.98</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>3.19</v>
+        <v>2.5</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-elversberg/x4txErji/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-karlsruher/Knxc9K4M/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>3.6</v>
+        <v>2.08</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.83</v>
+        <v>2.25</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.89</v>
+        <v>3.81</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="R21" t="n">
-        <v>1.98</v>
+        <v>3.38</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.5</v>
+        <v>3.19</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-karlsruher/Knxc9K4M/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-elversberg/x4txErji/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>20/08/2023 15:12</t>
+          <t>19/08/2023 12:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.02</v>
+        <v>2.17</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>25/08/2023 18:29</t>
+          <t>25/08/2023 18:25</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>4.41</v>
+        <v>4.19</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>20/08/2023 15:12</t>
+          <t>19/08/2023 12:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>4.09</v>
+        <v>3.74</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>25/08/2023 18:29</t>
+          <t>25/08/2023 18:24</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>4.78</v>
+        <v>4.04</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>20/08/2023 15:12</t>
+          <t>19/08/2023 12:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>3.45</v>
+        <v>3.33</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>25/08/2023 18:29</t>
+          <t>25/08/2023 18:28</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-holstein-kiel/2BR18vKS/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-kaiserslautern/jyCy2xcd/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>19/08/2023 12:12</t>
+          <t>20/08/2023 15:12</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.17</v>
+        <v>2.02</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>25/08/2023 18:25</t>
+          <t>25/08/2023 18:29</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>4.19</v>
+        <v>4.41</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>19/08/2023 12:12</t>
+          <t>20/08/2023 15:12</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.74</v>
+        <v>4.09</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>25/08/2023 18:24</t>
+          <t>25/08/2023 18:29</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>4.04</v>
+        <v>4.78</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>19/08/2023 12:12</t>
+          <t>20/08/2023 15:12</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.33</v>
+        <v>3.45</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>25/08/2023 18:28</t>
+          <t>25/08/2023 18:29</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-kaiserslautern/jyCy2xcd/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-holstein-kiel/2BR18vKS/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>27/08/2023 13:29</t>
+          <t>27/08/2023 13:20</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>4.26</v>
+        <v>4.59</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>4.16</v>
+        <v>4.05</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>27/08/2023 13:22</t>
+          <t>27/08/2023 13:21</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>4.97</v>
+        <v>4.67</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>4.08</v>
+        <v>4.11</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>27/08/2023 13:29</t>
+          <t>27/08/2023 13:24</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-braunschweig/htjKQLZd/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-magdeburg/CpDX2Isj/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>20/08/2023 12:42</t>
+          <t>20/08/2023 15:12</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>27/08/2023 13:20</t>
+          <t>27/08/2023 13:29</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>4.59</v>
+        <v>3.72</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>20/08/2023 12:42</t>
+          <t>20/08/2023 15:12</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>4.05</v>
+        <v>3.76</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>27/08/2023 13:21</t>
+          <t>27/08/2023 13:29</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>4.67</v>
+        <v>3.77</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>20/08/2023 12:42</t>
+          <t>20/08/2023 15:12</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>4.11</v>
+        <v>3.78</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>27/08/2023 13:24</t>
+          <t>27/08/2023 13:29</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-magdeburg/CpDX2Isj/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-wehen/vchWNJJF/</t>
         </is>
       </c>
     </row>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -3801,22 +3801,22 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>20/08/2023 15:12</t>
+          <t>20/08/2023 12:42</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.01</v>
+        <v>1.83</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3824,40 +3824,40 @@
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.72</v>
+        <v>4.26</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>20/08/2023 15:12</t>
+          <t>20/08/2023 12:42</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.76</v>
+        <v>4.16</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
+          <t>27/08/2023 13:22</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>20/08/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T37" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
           <t>27/08/2023 13:29</t>
         </is>
       </c>
-      <c r="R37" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>20/08/2023 15:12</t>
-        </is>
-      </c>
-      <c r="T37" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>27/08/2023 13:29</t>
-        </is>
-      </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-wehen/vchWNJJF/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-braunschweig/htjKQLZd/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>3.38</v>
+        <v>2.01</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,48 +3908,48 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>4.36</v>
+        <v>2.38</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
+          <t>01/09/2023 18:26</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>4</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>27/08/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
           <t>01/09/2023 18:28</t>
         </is>
       </c>
-      <c r="N38" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="O38" t="inlineStr">
+      <c r="R38" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="S38" t="inlineStr">
         <is>
           <t>27/08/2023 12:42</t>
         </is>
       </c>
-      <c r="P38" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>01/09/2023 18:06</t>
-        </is>
-      </c>
-      <c r="R38" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>27/08/2023 12:42</t>
-        </is>
-      </c>
       <c r="T38" t="n">
-        <v>1.86</v>
+        <v>2.93</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>01/09/2023 18:06</t>
+          <t>01/09/2023 18:28</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-st-pauli/ER86PWfK/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-karlsruher/SK984VIf/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>2.01</v>
+        <v>3.38</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.38</v>
+        <v>4.36</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>01/09/2023 18:26</t>
+          <t>01/09/2023 18:28</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>4</v>
+        <v>3.67</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.75</v>
+        <v>3.81</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>01/09/2023 18:28</t>
+          <t>01/09/2023 18:06</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.49</v>
+        <v>2.16</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>2.93</v>
+        <v>1.86</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>01/09/2023 18:28</t>
+          <t>01/09/2023 18:06</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-karlsruher/SK984VIf/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-st-pauli/ER86PWfK/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>2.35</v>
+        <v>1.72</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>27/08/2023 17:12</t>
+          <t>27/08/2023 12:42</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.32</v>
+        <v>2.03</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>03/09/2023 13:02</t>
+          <t>03/09/2023 13:27</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.78</v>
+        <v>4.27</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>27/08/2023 17:12</t>
+          <t>27/08/2023 12:42</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>4.01</v>
+        <v>3.76</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>03/09/2023 13:04</t>
+          <t>03/09/2023 13:18</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.93</v>
+        <v>4.58</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>27/08/2023 17:12</t>
+          <t>27/08/2023 12:42</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.88</v>
+        <v>3.7</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>03/09/2023 13:04</t>
+          <t>03/09/2023 13:27</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-elversberg/djbBOjAQ/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-hannover/zyA2QCuE/</t>
         </is>
       </c>
     </row>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Elversberg</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
         <v>1</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Hannover</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>3</v>
-      </c>
       <c r="J46" t="n">
-        <v>1.72</v>
+        <v>2.35</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>27/08/2023 12:42</t>
+          <t>27/08/2023 17:12</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.03</v>
+        <v>2.32</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>03/09/2023 13:27</t>
+          <t>03/09/2023 13:02</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>4.27</v>
+        <v>3.78</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>27/08/2023 12:42</t>
+          <t>27/08/2023 17:12</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.76</v>
+        <v>4.01</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>03/09/2023 13:18</t>
+          <t>03/09/2023 13:04</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>4.58</v>
+        <v>2.93</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>27/08/2023 12:42</t>
+          <t>27/08/2023 17:12</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>3.7</v>
+        <v>2.88</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>03/09/2023 13:27</t>
+          <t>03/09/2023 13:04</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-hannover/zyA2QCuE/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-elversberg/djbBOjAQ/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J49" t="n">
-        <v>3.89</v>
+        <v>3.01</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>3.78</v>
+        <v>3.37</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>4.26</v>
+        <v>3.39</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>4.17</v>
+        <v>3.45</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         </is>
       </c>
       <c r="R49" t="n">
-        <v>1.85</v>
+        <v>2.43</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>1.9</v>
+        <v>2.26</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-hamburger/6ux9XTns/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-dusseldorf/zcowwjPJ/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="G50" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
         <v>1</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Dusseldorf</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
       <c r="J50" t="n">
-        <v>3.01</v>
+        <v>3.89</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>3.37</v>
+        <v>3.78</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.39</v>
+        <v>4.26</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.45</v>
+        <v>4.17</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="R50" t="n">
-        <v>2.43</v>
+        <v>1.85</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>2.26</v>
+        <v>1.9</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-dusseldorf/zcowwjPJ/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-hamburger/6ux9XTns/</t>
         </is>
       </c>
     </row>
@@ -5265,22 +5265,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,48 +5288,48 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
+          <t>17/09/2023 13:20</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>04/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
           <t>17/09/2023 13:29</t>
         </is>
       </c>
-      <c r="N53" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="O53" t="inlineStr">
+      <c r="R53" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="S53" t="inlineStr">
         <is>
           <t>04/09/2023 08:42</t>
         </is>
       </c>
-      <c r="P53" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>17/09/2023 13:29</t>
-        </is>
-      </c>
-      <c r="R53" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>04/09/2023 08:42</t>
-        </is>
-      </c>
       <c r="T53" t="n">
-        <v>4.12</v>
+        <v>4.39</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>17/09/2023 13:28</t>
+          <t>17/09/2023 13:23</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-holstein-kiel/ny5rH820/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hertha-berlin-braunschweig/6PmoIlmf/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.78</v>
+        <v>1.93</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>17/09/2023 13:20</t>
+          <t>17/09/2023 13:29</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>4.48</v>
+        <v>4.28</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="R55" t="n">
-        <v>5.2</v>
+        <v>4.96</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>4.39</v>
+        <v>4.12</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>17/09/2023 13:23</t>
+          <t>17/09/2023 13:28</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hertha-berlin-braunschweig/6PmoIlmf/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-holstein-kiel/ny5rH820/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J58" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>16/09/2023 12:13</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.69</v>
+        <v>2.4</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>23/09/2023 12:52</t>
+          <t>23/09/2023 12:51</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.55</v>
+        <v>3.72</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>16/09/2023 12:13</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.59</v>
+        <v>3.74</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>23/09/2023 12:56</t>
+          <t>23/09/2023 12:51</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.06</v>
+        <v>3.08</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>17/09/2023 12:42</t>
+          <t>16/09/2023 12:13</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>2.65</v>
+        <v>2.91</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>23/09/2023 12:52</t>
+          <t>23/09/2023 12:51</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-nurnberg/8ALxRqWO/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-karlsruher/UJMYRPGI/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>16/09/2023 12:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.4</v>
+        <v>2.69</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>23/09/2023 12:51</t>
+          <t>23/09/2023 12:52</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.72</v>
+        <v>3.55</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>16/09/2023 12:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.74</v>
+        <v>3.59</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>23/09/2023 12:51</t>
+          <t>23/09/2023 12:56</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>3.08</v>
+        <v>3.06</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>16/09/2023 12:13</t>
+          <t>17/09/2023 12:42</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.91</v>
+        <v>2.65</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>23/09/2023 12:51</t>
+          <t>23/09/2023 12:52</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-karlsruher/UJMYRPGI/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-nurnberg/8ALxRqWO/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.62</v>
+        <v>2.48</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>01/10/2023 13:30</t>
+          <t>01/10/2023 13:24</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.54</v>
+        <v>3.76</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.59</v>
+        <v>3.64</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>01/10/2023 13:04</t>
+          <t>01/10/2023 13:27</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>2.54</v>
+        <v>2.49</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>2.73</v>
+        <v>2.86</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>01/10/2023 13:30</t>
+          <t>01/10/2023 13:16</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-kaiserslautern/MVQPb6ot/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-greuther-furth/MefJwNFU/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J73" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.48</v>
+        <v>2.62</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>01/10/2023 13:24</t>
+          <t>01/10/2023 13:30</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.76</v>
+        <v>3.54</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.64</v>
+        <v>3.59</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>01/10/2023 13:27</t>
+          <t>01/10/2023 13:04</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>2.49</v>
+        <v>2.54</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>2.86</v>
+        <v>2.73</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>01/10/2023 13:16</t>
+          <t>01/10/2023 13:30</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-greuther-furth/MefJwNFU/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-kaiserslautern/MVQPb6ot/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>1.57</v>
+        <v>2.19</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.61</v>
+        <v>2.28</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>06/10/2023 18:28</t>
+          <t>06/10/2023 18:29</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>4.73</v>
+        <v>3.6</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>4.51</v>
+        <v>3.54</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         </is>
       </c>
       <c r="R74" t="n">
-        <v>5.14</v>
+        <v>3.29</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>5.32</v>
+        <v>3.25</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-vfl-osnabruck/fqPXdpGh/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-hannover/SYGpfr0B/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>2.19</v>
+        <v>1.57</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,48 +7312,48 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.28</v>
+        <v>1.61</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
+          <t>06/10/2023 18:28</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>01/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
           <t>06/10/2023 18:29</t>
         </is>
       </c>
-      <c r="N75" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O75" t="inlineStr">
+      <c r="R75" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="S75" t="inlineStr">
         <is>
           <t>01/10/2023 12:43</t>
         </is>
       </c>
-      <c r="P75" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="Q75" t="inlineStr">
+      <c r="T75" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="U75" t="inlineStr">
         <is>
           <t>06/10/2023 18:29</t>
         </is>
       </c>
-      <c r="R75" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="S75" t="inlineStr">
-        <is>
-          <t>01/10/2023 12:43</t>
-        </is>
-      </c>
-      <c r="T75" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U75" t="inlineStr">
-        <is>
-          <t>06/10/2023 18:29</t>
-        </is>
-      </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-hannover/SYGpfr0B/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-vfl-osnabruck/fqPXdpGh/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,14 +7389,14 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>1.78</v>
+        <v>2.26</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,7 +7404,7 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.79</v>
+        <v>2.52</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.95</v>
+        <v>3.86</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.79</v>
+        <v>3.7</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         </is>
       </c>
       <c r="R76" t="n">
-        <v>4.59</v>
+        <v>2.97</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>4.84</v>
+        <v>2.72</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>07/10/2023 12:59</t>
+          <t>07/10/2023 12:33</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-hansa-rostock/YXrIyzpp/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-karlsruher/d8Llg2FH/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,22 +7481,22 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>2.26</v>
+        <v>4.37</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 12:14</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.52</v>
+        <v>4.07</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -7504,40 +7504,40 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.86</v>
+        <v>4.31</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 12:14</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.7</v>
+        <v>4.43</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>07/10/2023 12:59</t>
+          <t>07/10/2023 12:21</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.97</v>
+        <v>1.72</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 12:14</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.72</v>
+        <v>1.82</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>07/10/2023 12:33</t>
+          <t>07/10/2023 12:58</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-karlsruher/d8Llg2FH/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-hamburger/UaxRZDEd/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,22 +7573,22 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>4.37</v>
+        <v>1.78</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>30/09/2023 12:14</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>4.07</v>
+        <v>1.79</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
@@ -7596,40 +7596,40 @@
         </is>
       </c>
       <c r="N78" t="n">
-        <v>4.31</v>
+        <v>3.95</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>30/09/2023 12:14</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>4.43</v>
+        <v>3.79</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>07/10/2023 12:21</t>
+          <t>07/10/2023 12:59</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>1.72</v>
+        <v>4.59</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>30/09/2023 12:14</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>1.82</v>
+        <v>4.84</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>07/10/2023 12:58</t>
+          <t>07/10/2023 12:59</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-hamburger/UaxRZDEd/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-hansa-rostock/YXrIyzpp/</t>
         </is>
       </c>
     </row>
@@ -8853,71 +8853,71 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>3.37</v>
+        <v>1.6</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>21/10/2023 20:43</t>
+          <t>21/10/2023 13:13</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>3.91</v>
+        <v>1.68</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>27/10/2023 18:29</t>
+          <t>27/10/2023 18:02</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.86</v>
+        <v>4.36</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>21/10/2023 20:43</t>
+          <t>21/10/2023 13:13</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.83</v>
+        <v>4.32</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>27/10/2023 18:29</t>
+          <t>27/10/2023 18:08</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>2.07</v>
+        <v>5.58</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>21/10/2023 20:43</t>
+          <t>21/10/2023 13:13</t>
         </is>
       </c>
       <c r="T92" t="n">
-        <v>1.95</v>
+        <v>5.01</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>27/10/2023 18:29</t>
+          <t>27/10/2023 18:30</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-dusseldorf/O0duvBLl/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-vfl-osnabruck/Uwcyui6r/</t>
         </is>
       </c>
     </row>
@@ -8945,71 +8945,71 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Dusseldorf</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
         <v>4</v>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>VfL Osnabruck</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
       <c r="J93" t="n">
-        <v>1.6</v>
+        <v>3.37</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>21/10/2023 13:13</t>
+          <t>21/10/2023 20:43</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.68</v>
+        <v>3.91</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>27/10/2023 18:02</t>
+          <t>27/10/2023 18:29</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>4.36</v>
+        <v>3.86</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>21/10/2023 13:13</t>
+          <t>21/10/2023 20:43</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>4.32</v>
+        <v>3.83</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>27/10/2023 18:08</t>
+          <t>27/10/2023 18:29</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>5.58</v>
+        <v>2.07</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>21/10/2023 13:13</t>
+          <t>21/10/2023 20:43</t>
         </is>
       </c>
       <c r="T93" t="n">
-        <v>5.01</v>
+        <v>1.95</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>27/10/2023 18:30</t>
+          <t>27/10/2023 18:29</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-vfl-osnabruck/Uwcyui6r/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-dusseldorf/O0duvBLl/</t>
         </is>
       </c>
     </row>
@@ -9037,22 +9037,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="I94" t="n">
         <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>2.05</v>
+        <v>1.76</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.27</v>
+        <v>1.57</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>28/10/2023 13:00</t>
+          <t>28/10/2023 12:58</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.88</v>
+        <v>4.19</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.65</v>
+        <v>4.36</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>28/10/2023 12:58</t>
+          <t>28/10/2023 12:59</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>3.48</v>
+        <v>4.39</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>3.19</v>
+        <v>6.01</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>28/10/2023 13:00</t>
+          <t>28/10/2023 12:59</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hertha-berlin-paderborn/veagmFb2/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-karlsruher/xtIdnZD8/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>1.76</v>
+        <v>2.05</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,48 +9244,48 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.57</v>
+        <v>2.27</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
+          <t>28/10/2023 13:00</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
           <t>28/10/2023 12:58</t>
         </is>
       </c>
-      <c r="N96" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="O96" t="inlineStr">
+      <c r="R96" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="S96" t="inlineStr">
         <is>
           <t>22/10/2023 13:42</t>
         </is>
       </c>
-      <c r="P96" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="Q96" t="inlineStr">
-        <is>
-          <t>28/10/2023 12:59</t>
-        </is>
-      </c>
-      <c r="R96" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="S96" t="inlineStr">
-        <is>
-          <t>22/10/2023 13:42</t>
-        </is>
-      </c>
       <c r="T96" t="n">
-        <v>6.01</v>
+        <v>3.19</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>28/10/2023 12:59</t>
+          <t>28/10/2023 13:00</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-karlsruher/xtIdnZD8/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hertha-berlin-paderborn/veagmFb2/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="G98" t="n">
+        <v>1</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Hansa Rostock</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Nurnberg</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
-        <v>2</v>
-      </c>
       <c r="J98" t="n">
-        <v>2.01</v>
+        <v>2.22</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>2.26</v>
+        <v>2.48</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>29/10/2023 13:14</t>
+          <t>29/10/2023 13:26</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.87</v>
+        <v>3.65</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.71</v>
+        <v>3.42</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>29/10/2023 13:29</t>
+          <t>29/10/2023 13:26</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>3.62</v>
+        <v>3.28</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>3.19</v>
+        <v>3.02</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>29/10/2023 13:29</t>
+          <t>29/10/2023 13:25</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-nurnberg/W2H0ogTE/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-hansa-rostock/x40qwVze/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J100" t="n">
-        <v>2.22</v>
+        <v>2.01</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.48</v>
+        <v>2.26</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:26</t>
+          <t>29/10/2023 13:14</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.65</v>
+        <v>3.87</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.42</v>
+        <v>3.71</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:26</t>
+          <t>29/10/2023 13:29</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>3.28</v>
+        <v>3.62</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>3.02</v>
+        <v>3.19</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:25</t>
+          <t>29/10/2023 13:29</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-hansa-rostock/x40qwVze/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-nurnberg/W2H0ogTE/</t>
         </is>
       </c>
     </row>
@@ -9681,22 +9681,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J101" t="n">
-        <v>3.18</v>
+        <v>1.56</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>3.25</v>
+        <v>1.55</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.79</v>
+        <v>4.69</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,7 +9720,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.67</v>
+        <v>4.66</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -9728,7 +9728,7 @@
         </is>
       </c>
       <c r="R101" t="n">
-        <v>2.17</v>
+        <v>5.34</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,7 +9736,7 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>2.23</v>
+        <v>5.83</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
@@ -9745,7 +9745,7 @@
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-st-pauli/dEGIiUkl/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-wehen/bJlhy957/</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9773,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J102" t="n">
-        <v>1.56</v>
+        <v>3.18</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.55</v>
+        <v>3.25</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
@@ -9804,7 +9804,7 @@
         </is>
       </c>
       <c r="N102" t="n">
-        <v>4.69</v>
+        <v>3.79</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>4.66</v>
+        <v>3.67</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         </is>
       </c>
       <c r="R102" t="n">
-        <v>5.34</v>
+        <v>2.17</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,7 +9828,7 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>5.83</v>
+        <v>2.23</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-wehen/bJlhy957/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-st-pauli/dEGIiUkl/</t>
         </is>
       </c>
     </row>
@@ -9865,30 +9865,30 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="I103" t="n">
         <v>2</v>
       </c>
       <c r="J103" t="n">
-        <v>2.39</v>
+        <v>2.24</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>28/10/2023 20:43</t>
+          <t>29/10/2023 13:42</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>2.32</v>
+        <v>2.11</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
@@ -9896,31 +9896,31 @@
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.57</v>
+        <v>3.83</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>28/10/2023 20:43</t>
+          <t>29/10/2023 13:42</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.58</v>
+        <v>3.8</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>04/11/2023 12:58</t>
+          <t>04/11/2023 12:59</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>3</v>
+        <v>3.01</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>28/10/2023 20:43</t>
+          <t>29/10/2023 13:42</t>
         </is>
       </c>
       <c r="T103" t="n">
-        <v>3.16</v>
+        <v>3.43</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-greuther-furth/4GyvaCcE/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-schalke/INHEhAzr/</t>
         </is>
       </c>
     </row>
@@ -9957,7 +9957,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G104" t="n">
@@ -9965,14 +9965,14 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>2.24</v>
+        <v>2.43</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2.11</v>
+        <v>2.83</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
@@ -9988,7 +9988,7 @@
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.83</v>
+        <v>3.85</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.8</v>
+        <v>3.66</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>04/11/2023 12:59</t>
+          <t>04/11/2023 12:54</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>3.01</v>
+        <v>2.72</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>3.43</v>
+        <v>2.5</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>04/11/2023 12:59</t>
+          <t>04/11/2023 12:54</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-schalke/INHEhAzr/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-holstein-kiel/EkBNjl5f/</t>
         </is>
       </c>
     </row>
@@ -10049,30 +10049,30 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J105" t="n">
-        <v>2.43</v>
+        <v>2.39</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>29/10/2023 13:42</t>
+          <t>28/10/2023 20:43</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>2.83</v>
+        <v>2.32</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
@@ -10080,40 +10080,40 @@
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.85</v>
+        <v>3.57</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>29/10/2023 13:42</t>
+          <t>28/10/2023 20:43</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.66</v>
+        <v>3.58</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>04/11/2023 12:54</t>
+          <t>04/11/2023 12:58</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>29/10/2023 13:42</t>
+          <t>28/10/2023 20:43</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>2.5</v>
+        <v>3.16</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>04/11/2023 12:54</t>
+          <t>04/11/2023 12:59</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-holstein-kiel/EkBNjl5f/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-greuther-furth/4GyvaCcE/</t>
         </is>
       </c>
     </row>
@@ -11061,71 +11061,71 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="G116" t="n">
+        <v>2</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Kaiserslautern</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
         <v>1</v>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Hansa Rostock</t>
-        </is>
-      </c>
-      <c r="I116" t="n">
-        <v>2</v>
-      </c>
       <c r="J116" t="n">
-        <v>1.84</v>
+        <v>2.56</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>05/11/2023 13:42</t>
+          <t>04/11/2023 13:42</t>
         </is>
       </c>
       <c r="L116" t="n">
-        <v>1.78</v>
+        <v>2.66</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>12/11/2023 13:23</t>
+          <t>12/11/2023 13:27</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>4.02</v>
+        <v>3.58</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>05/11/2023 13:42</t>
+          <t>04/11/2023 13:42</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>4.12</v>
+        <v>3.63</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>12/11/2023 13:29</t>
+          <t>12/11/2023 13:28</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>4.13</v>
+        <v>2.71</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>05/11/2023 13:42</t>
+          <t>04/11/2023 13:42</t>
         </is>
       </c>
       <c r="T116" t="n">
-        <v>4.47</v>
+        <v>2.66</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>12/11/2023 13:29</t>
+          <t>12/11/2023 13:27</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-hansa-rostock/88fQA9dQ/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-kaiserslautern/6qz147Zg/</t>
         </is>
       </c>
     </row>
@@ -11153,22 +11153,22 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>2.56</v>
+        <v>2.37</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -11176,15 +11176,15 @@
         </is>
       </c>
       <c r="L117" t="n">
-        <v>2.66</v>
+        <v>2.25</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>12/11/2023 13:27</t>
+          <t>12/11/2023 13:29</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>3.58</v>
+        <v>3.54</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
@@ -11192,15 +11192,15 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3.63</v>
+        <v>3.7</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>12/11/2023 13:28</t>
+          <t>12/11/2023 12:57</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>2.71</v>
+        <v>3</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
@@ -11208,16 +11208,16 @@
         </is>
       </c>
       <c r="T117" t="n">
-        <v>2.66</v>
+        <v>3.28</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>12/11/2023 13:27</t>
+          <t>12/11/2023 13:29</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-kaiserslautern/6qz147Zg/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-dusseldorf/AHth6T4s/</t>
         </is>
       </c>
     </row>
@@ -11245,7 +11245,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="G118" t="n">
@@ -11253,54 +11253,54 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J118" t="n">
-        <v>2.37</v>
+        <v>1.84</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>04/11/2023 13:42</t>
+          <t>05/11/2023 13:42</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>2.25</v>
+        <v>1.78</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
+          <t>12/11/2023 13:23</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
           <t>12/11/2023 13:29</t>
         </is>
       </c>
-      <c r="N118" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="O118" t="inlineStr">
-        <is>
-          <t>04/11/2023 13:42</t>
-        </is>
-      </c>
-      <c r="P118" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Q118" t="inlineStr">
-        <is>
-          <t>12/11/2023 12:57</t>
-        </is>
-      </c>
       <c r="R118" t="n">
-        <v>3</v>
+        <v>4.13</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>04/11/2023 13:42</t>
+          <t>05/11/2023 13:42</t>
         </is>
       </c>
       <c r="T118" t="n">
-        <v>3.28</v>
+        <v>4.47</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-dusseldorf/AHth6T4s/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-hansa-rostock/88fQA9dQ/</t>
         </is>
       </c>
     </row>
@@ -11521,22 +11521,22 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J121" t="n">
-        <v>2.17</v>
+        <v>2.53</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -11544,15 +11544,15 @@
         </is>
       </c>
       <c r="L121" t="n">
-        <v>2.35</v>
+        <v>3.46</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>25/11/2023 12:58</t>
+          <t>25/11/2023 12:59</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>3.94</v>
+        <v>3.71</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
@@ -11560,15 +11560,15 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>3.75</v>
+        <v>3.87</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>25/11/2023 12:58</t>
+          <t>25/11/2023 12:59</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>3.14</v>
+        <v>2.67</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
@@ -11576,16 +11576,16 @@
         </is>
       </c>
       <c r="T121" t="n">
-        <v>2.98</v>
+        <v>2.08</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>25/11/2023 12:58</t>
+          <t>25/11/2023 12:59</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-paderborn/W48T5KAb/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-magdeburg/0vDX4vQ4/</t>
         </is>
       </c>
     </row>
@@ -11613,22 +11613,22 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="I122" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J122" t="n">
-        <v>4.5</v>
+        <v>2.17</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -11636,15 +11636,15 @@
         </is>
       </c>
       <c r="L122" t="n">
-        <v>5.28</v>
+        <v>2.35</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>25/11/2023 12:56</t>
+          <t>25/11/2023 12:58</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>4.02</v>
+        <v>3.94</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
@@ -11652,15 +11652,15 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>3.83</v>
+        <v>3.75</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>25/11/2023 12:59</t>
+          <t>25/11/2023 12:58</t>
         </is>
       </c>
       <c r="R122" t="n">
-        <v>1.75</v>
+        <v>3.14</v>
       </c>
       <c r="S122" t="inlineStr">
         <is>
@@ -11668,16 +11668,16 @@
         </is>
       </c>
       <c r="T122" t="n">
-        <v>1.72</v>
+        <v>2.98</v>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>25/11/2023 12:56</t>
+          <t>25/11/2023 12:58</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-st-pauli/hE9P60eh/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-paderborn/W48T5KAb/</t>
         </is>
       </c>
     </row>
@@ -11705,22 +11705,22 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="I123" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J123" t="n">
-        <v>2.53</v>
+        <v>4.5</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -11728,48 +11728,48 @@
         </is>
       </c>
       <c r="L123" t="n">
-        <v>3.46</v>
+        <v>5.28</v>
       </c>
       <c r="M123" t="inlineStr">
         <is>
+          <t>25/11/2023 12:56</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P123" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
           <t>25/11/2023 12:59</t>
         </is>
       </c>
-      <c r="N123" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="O123" t="inlineStr">
+      <c r="R123" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S123" t="inlineStr">
         <is>
           <t>12/11/2023 15:42</t>
         </is>
       </c>
-      <c r="P123" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="Q123" t="inlineStr">
-        <is>
-          <t>25/11/2023 12:59</t>
-        </is>
-      </c>
-      <c r="R123" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="S123" t="inlineStr">
-        <is>
-          <t>12/11/2023 15:42</t>
-        </is>
-      </c>
       <c r="T123" t="n">
-        <v>2.08</v>
+        <v>1.72</v>
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>25/11/2023 12:59</t>
+          <t>25/11/2023 12:56</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-magdeburg/0vDX4vQ4/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-st-pauli/hE9P60eh/</t>
         </is>
       </c>
     </row>
@@ -11889,30 +11889,30 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Holstein Kiel</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>3</v>
+      </c>
+      <c r="J125" t="n">
         <v>2</v>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>Wehen</t>
-        </is>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
-        <v>1.67</v>
-      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>12/11/2023 15:42</t>
         </is>
       </c>
       <c r="L125" t="n">
-        <v>1.85</v>
+        <v>2.37</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         </is>
       </c>
       <c r="N125" t="n">
-        <v>4.34</v>
+        <v>3.94</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>3.8</v>
+        <v>3.64</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         </is>
       </c>
       <c r="R125" t="n">
-        <v>4.85</v>
+        <v>3.57</v>
       </c>
       <c r="S125" t="inlineStr">
         <is>
@@ -11944,16 +11944,16 @@
         </is>
       </c>
       <c r="T125" t="n">
-        <v>4.45</v>
+        <v>3.01</v>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>26/11/2023 13:28</t>
+          <t>26/11/2023 13:29</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-wehen/AkKK7ttn/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-holstein-kiel/pA390PYI/</t>
         </is>
       </c>
     </row>
@@ -11981,22 +11981,22 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G126" t="n">
+        <v>2</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Wehen</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>Holstein Kiel</t>
-        </is>
-      </c>
-      <c r="I126" t="n">
-        <v>3</v>
-      </c>
       <c r="J126" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         </is>
       </c>
       <c r="L126" t="n">
-        <v>2.37</v>
+        <v>1.85</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
         </is>
       </c>
       <c r="N126" t="n">
-        <v>3.94</v>
+        <v>4.34</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>3.64</v>
+        <v>3.8</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -12028,7 +12028,7 @@
         </is>
       </c>
       <c r="R126" t="n">
-        <v>3.57</v>
+        <v>4.85</v>
       </c>
       <c r="S126" t="inlineStr">
         <is>
@@ -12036,16 +12036,16 @@
         </is>
       </c>
       <c r="T126" t="n">
-        <v>3.01</v>
+        <v>4.45</v>
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>26/11/2023 13:29</t>
+          <t>26/11/2023 13:28</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-holstein-kiel/pA390PYI/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-wehen/AkKK7ttn/</t>
         </is>
       </c>
     </row>
@@ -12349,22 +12349,22 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J130" t="n">
-        <v>1.79</v>
+        <v>3.39</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -12372,48 +12372,48 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>1.88</v>
+        <v>3.49</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
+          <t>02/12/2023 12:58</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
           <t>02/12/2023 12:59</t>
         </is>
       </c>
-      <c r="N130" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="O130" t="inlineStr">
+      <c r="R130" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="S130" t="inlineStr">
         <is>
           <t>26/11/2023 13:42</t>
         </is>
       </c>
-      <c r="P130" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="Q130" t="inlineStr">
-        <is>
-          <t>02/12/2023 12:59</t>
-        </is>
-      </c>
-      <c r="R130" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="S130" t="inlineStr">
-        <is>
-          <t>26/11/2023 13:42</t>
-        </is>
-      </c>
       <c r="T130" t="n">
-        <v>3.93</v>
+        <v>2.19</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>02/12/2023 12:59</t>
+          <t>02/12/2023 12:58</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-wehen/6HZbLaAo/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-greuther-furth/hYyBIcf4/</t>
         </is>
       </c>
     </row>
@@ -12441,22 +12441,22 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="I131" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J131" t="n">
-        <v>2.54</v>
+        <v>1.79</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>2.74</v>
+        <v>1.88</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         </is>
       </c>
       <c r="N131" t="n">
-        <v>3.61</v>
+        <v>4.06</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -12480,15 +12480,15 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>3.66</v>
+        <v>4.09</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>02/12/2023 12:58</t>
+          <t>02/12/2023 12:59</t>
         </is>
       </c>
       <c r="R131" t="n">
-        <v>2.71</v>
+        <v>4.25</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="T131" t="n">
-        <v>2.57</v>
+        <v>3.93</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-dusseldorf/vVX6Jwub/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-wehen/6HZbLaAo/</t>
         </is>
       </c>
     </row>
@@ -12533,7 +12533,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="G132" t="n">
@@ -12541,14 +12541,14 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J132" t="n">
-        <v>3.39</v>
+        <v>2.54</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -12556,48 +12556,48 @@
         </is>
       </c>
       <c r="L132" t="n">
-        <v>3.49</v>
+        <v>2.74</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
+          <t>02/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
           <t>02/12/2023 12:58</t>
         </is>
       </c>
-      <c r="N132" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="O132" t="inlineStr">
+      <c r="R132" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="S132" t="inlineStr">
         <is>
           <t>26/11/2023 13:42</t>
         </is>
       </c>
-      <c r="P132" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="Q132" t="inlineStr">
+      <c r="T132" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U132" t="inlineStr">
         <is>
           <t>02/12/2023 12:59</t>
         </is>
       </c>
-      <c r="R132" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="S132" t="inlineStr">
-        <is>
-          <t>26/11/2023 13:42</t>
-        </is>
-      </c>
-      <c r="T132" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="U132" t="inlineStr">
-        <is>
-          <t>02/12/2023 12:58</t>
-        </is>
-      </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-greuther-furth/hYyBIcf4/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-dusseldorf/vVX6Jwub/</t>
         </is>
       </c>
     </row>
@@ -12690,6 +12690,1938 @@
       <c r="V133" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-kaiserslautern/p8Y2KJPi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45263.5625</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>1</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Hannover</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:18</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P134" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:09</t>
+        </is>
+      </c>
+      <c r="R134" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T134" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:18</t>
+        </is>
+      </c>
+      <c r="V134" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-hannover/Sj4l1dPT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45263.5625</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>5</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Elversberg</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:21</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P135" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:25</t>
+        </is>
+      </c>
+      <c r="R135" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T135" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:26</t>
+        </is>
+      </c>
+      <c r="V135" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hertha-berlin-elversberg/Mg1t3IfH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45263.5625</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Karlsruher SC</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>2</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Hansa Rostock</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>2</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:20</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P136" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:23</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T136" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:23</t>
+        </is>
+      </c>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-hansa-rostock/UajGdGXp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45268.77083333334</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Hannover</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>2</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Karlsruher SC</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>2</v>
+      </c>
+      <c r="J137" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>08/12/2023 18:06</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="P137" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>08/12/2023 18:02</t>
+        </is>
+      </c>
+      <c r="R137" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="T137" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>08/12/2023 18:06</t>
+        </is>
+      </c>
+      <c r="V137" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-karlsruher/04OREFgT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45268.77083333334</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Wehen</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>1</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Braunschweig</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>3</v>
+      </c>
+      <c r="J138" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>02/12/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>08/12/2023 18:28</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>02/12/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P138" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>08/12/2023 18:21</t>
+        </is>
+      </c>
+      <c r="R138" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>02/12/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T138" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>08/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-braunschweig/UJnkWGO3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45269.54166666666</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Greuther Furth</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>1</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Magdeburg</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:57</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P139" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:57</t>
+        </is>
+      </c>
+      <c r="R139" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T139" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:57</t>
+        </is>
+      </c>
+      <c r="V139" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-magdeburg/6o1fAZ1p/</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45269.54166666666</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>1</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>2</v>
+      </c>
+      <c r="J140" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="P140" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R140" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="T140" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V140" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-paderborn/zcRFHH9A/</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45269.54166666666</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Kaiserslautern</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>1</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>2</v>
+      </c>
+      <c r="J141" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:58</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="P141" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R141" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="T141" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:58</t>
+        </is>
+      </c>
+      <c r="V141" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-hertha-berlin/MDPNFevN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45269.85416666666</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>VfL Osnabruck</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>1</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>St. Pauli</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>8.66</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:29</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P142" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:29</t>
+        </is>
+      </c>
+      <c r="R142" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T142" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:24</t>
+        </is>
+      </c>
+      <c r="V142" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-st-pauli/CrhpXd9c/</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45270.5625</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Dusseldorf</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Holstein Kiel</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:29</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="P143" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:29</t>
+        </is>
+      </c>
+      <c r="R143" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="T143" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:29</t>
+        </is>
+      </c>
+      <c r="V143" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-holstein-kiel/EmQJGyPG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45270.5625</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Elversberg</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Nurnberg</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:29</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="P144" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:29</t>
+        </is>
+      </c>
+      <c r="R144" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="T144" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:29</t>
+        </is>
+      </c>
+      <c r="V144" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-nurnberg/YigtYxfi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45270.5625</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Hansa Rostock</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Schalke</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>2</v>
+      </c>
+      <c r="J145" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:27</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="P145" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:27</t>
+        </is>
+      </c>
+      <c r="R145" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="T145" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:27</t>
+        </is>
+      </c>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-schalke/Kl5b9gHj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45275.77083333334</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>3</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Hansa Rostock</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>15/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P146" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>15/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R146" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T146" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>15/12/2023 18:25</t>
+        </is>
+      </c>
+      <c r="V146" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-hansa-rostock/rsg5SYNS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45275.77083333334</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Schalke</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>2</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Greuther Furth</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>2</v>
+      </c>
+      <c r="J147" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>15/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P147" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>15/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R147" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T147" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>15/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V147" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-greuther-furth/8AogVzvA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45276.54166666666</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Magdeburg</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>2</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Dusseldorf</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>3</v>
+      </c>
+      <c r="J148" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>16/12/2023 12:58</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P148" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>16/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R148" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T148" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>16/12/2023 12:58</t>
+        </is>
+      </c>
+      <c r="V148" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-dusseldorf/hGruMW0d/</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45276.54166666666</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>VfL Osnabruck</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>16/12/2023 12:56</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P149" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>16/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R149" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T149" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>16/12/2023 12:58</t>
+        </is>
+      </c>
+      <c r="V149" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hertha-berlin-vfl-osnabruck/2XpcUfgG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45276.54166666666</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Nurnberg</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>2</v>
+      </c>
+      <c r="J150" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>16/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P150" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>16/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R150" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T150" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>16/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V150" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-hamburger/fLMNpGwc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45276.85416666666</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Holstein Kiel</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>3</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Hannover</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>16/12/2023 20:29</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="P151" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>16/12/2023 20:29</t>
+        </is>
+      </c>
+      <c r="R151" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="T151" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>16/12/2023 20:29</t>
+        </is>
+      </c>
+      <c r="V151" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-hannover/EPqyNCoj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45277.5625</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Karlsruher SC</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>3</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Elversberg</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>2</v>
+      </c>
+      <c r="J152" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>17/12/2023 13:28</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="P152" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>17/12/2023 13:29</t>
+        </is>
+      </c>
+      <c r="R152" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="T152" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>17/12/2023 13:28</t>
+        </is>
+      </c>
+      <c r="V152" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-elversberg/pjuXNhWq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45277.5625</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Braunschweig</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>2</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Kaiserslautern</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>17/12/2023 13:23</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="P153" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>17/12/2023 13:24</t>
+        </is>
+      </c>
+      <c r="R153" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="T153" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U153" t="inlineStr">
+        <is>
+          <t>17/12/2023 13:23</t>
+        </is>
+      </c>
+      <c r="V153" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-kaiserslautern/8OQRqzg3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45277.5625</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>St. Pauli</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>1</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Wehen</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>17/12/2023 12:52</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="P154" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>17/12/2023 13:29</t>
+        </is>
+      </c>
+      <c r="R154" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="T154" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>17/12/2023 13:29</t>
+        </is>
+      </c>
+      <c r="V154" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-wehen/0I30TE8M/</t>
         </is>
       </c>
     </row>
